--- a/BackTest/2019-10-22 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-22 BackTest FZZ.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.100000000000007</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>9.090909090909003</v>
+      </c>
       <c r="L12" t="n">
         <v>12.26</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.800000000000006</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-41.1764705882351</v>
+      </c>
       <c r="L13" t="n">
         <v>12.2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2.100000000000007</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-26.31578947368413</v>
+      </c>
       <c r="L14" t="n">
         <v>12.16</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2.100000000000007</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-33.3333333333332</v>
+      </c>
       <c r="L15" t="n">
         <v>12.11</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.300000000000008</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-36.8421052631578</v>
+      </c>
       <c r="L16" t="n">
         <v>12.03</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.300000000000008</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-33.3333333333332</v>
+      </c>
       <c r="L17" t="n">
         <v>11.96</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.400000000000007</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-52.94117647058811</v>
+      </c>
       <c r="L18" t="n">
         <v>11.89</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.600000000000007</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-29.41176470588231</v>
+      </c>
       <c r="L19" t="n">
         <v>11.82</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.600000000000007</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-37.50000000000006</v>
+      </c>
       <c r="L20" t="n">
         <v>11.77</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.800000000000006</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-41.17647058823527</v>
+      </c>
       <c r="L21" t="n">
         <v>11.69</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.800000000000006</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>11.62</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.800000000000006</v>
       </c>
       <c r="K23" t="n">
-        <v>-21.42857142857137</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L23" t="n">
         <v>11.62</v>
@@ -1466,7 +1488,7 @@
         <v>3.100000000000007</v>
       </c>
       <c r="K24" t="n">
-        <v>-33.33333333333325</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L24" t="n">
         <v>11.56</v>
@@ -1515,7 +1537,7 @@
         <v>3.200000000000008</v>
       </c>
       <c r="K25" t="n">
-        <v>-33.33333333333325</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L25" t="n">
         <v>11.51</v>
@@ -1564,7 +1586,7 @@
         <v>3.400000000000007</v>
       </c>
       <c r="K26" t="n">
-        <v>-29.03225806451607</v>
+        <v>-9.090909090909062</v>
       </c>
       <c r="L26" t="n">
         <v>11.5</v>
@@ -1613,7 +1635,7 @@
         <v>3.400000000000007</v>
       </c>
       <c r="K27" t="n">
-        <v>-26.66666666666663</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>11.49</v>
@@ -1662,7 +1684,7 @@
         <v>3.400000000000007</v>
       </c>
       <c r="K28" t="n">
-        <v>-24.13793103448269</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L28" t="n">
         <v>11.49</v>
@@ -1711,7 +1733,7 @@
         <v>3.700000000000008</v>
       </c>
       <c r="K29" t="n">
-        <v>-39.99999999999996</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L29" t="n">
         <v>11.44</v>
@@ -1760,7 +1782,7 @@
         <v>3.80000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>-31.03448275862058</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L30" t="n">
         <v>11.4</v>
@@ -1809,7 +1831,7 @@
         <v>3.80000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>-35.71428571428566</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L31" t="n">
         <v>11.38</v>
@@ -1860,7 +1882,7 @@
         <v>3.900000000000009</v>
       </c>
       <c r="K32" t="n">
-        <v>-28.57142857142851</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L32" t="n">
         <v>11.37</v>
@@ -1911,7 +1933,7 @@
         <v>4.000000000000009</v>
       </c>
       <c r="K33" t="n">
-        <v>-9.090909090909047</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L33" t="n">
         <v>11.35</v>
@@ -1962,7 +1984,7 @@
         <v>4.000000000000009</v>
       </c>
       <c r="K34" t="n">
-        <v>-26.31578947368418</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>11.36</v>
@@ -2013,7 +2035,7 @@
         <v>4.000000000000009</v>
       </c>
       <c r="K35" t="n">
-        <v>-26.31578947368418</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L35" t="n">
         <v>11.36</v>
@@ -2064,7 +2086,7 @@
         <v>4.20000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>-26.31578947368418</v>
+        <v>-49.99999999999989</v>
       </c>
       <c r="L36" t="n">
         <v>11.32</v>
@@ -2115,7 +2137,7 @@
         <v>4.80000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>-43.99999999999996</v>
+        <v>-71.42857142857132</v>
       </c>
       <c r="L37" t="n">
         <v>11.22</v>
@@ -2166,7 +2188,7 @@
         <v>5.000000000000009</v>
       </c>
       <c r="K38" t="n">
-        <v>-30.76923076923078</v>
+        <v>-38.46153846153844</v>
       </c>
       <c r="L38" t="n">
         <v>11.14</v>
@@ -2217,7 +2239,7 @@
         <v>5.10000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>-35.99999999999989</v>
+        <v>-38.46153846153844</v>
       </c>
       <c r="L39" t="n">
         <v>11.1</v>
@@ -2268,7 +2290,7 @@
         <v>5.20000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>-30.76923076923069</v>
+        <v>-28.57142857142859</v>
       </c>
       <c r="L40" t="n">
         <v>11.06</v>
@@ -2319,7 +2341,7 @@
         <v>5.30000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>-27.99999999999993</v>
+        <v>-42.85714285714282</v>
       </c>
       <c r="L41" t="n">
         <v>11.01</v>
@@ -2370,7 +2392,7 @@
         <v>5.400000000000009</v>
       </c>
       <c r="K42" t="n">
-        <v>-23.07692307692303</v>
+        <v>-28.57142857142859</v>
       </c>
       <c r="L42" t="n">
         <v>10.96</v>
@@ -2421,7 +2443,7 @@
         <v>5.500000000000009</v>
       </c>
       <c r="K43" t="n">
-        <v>-18.5185185185185</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L43" t="n">
         <v>10.93</v>
@@ -2472,7 +2494,7 @@
         <v>5.600000000000009</v>
       </c>
       <c r="K44" t="n">
-        <v>-11.99999999999995</v>
+        <v>-25.00000000000003</v>
       </c>
       <c r="L44" t="n">
         <v>10.89</v>
@@ -2523,7 +2545,7 @@
         <v>5.600000000000009</v>
       </c>
       <c r="K45" t="n">
-        <v>-16.66666666666668</v>
+        <v>-14.28571428571425</v>
       </c>
       <c r="L45" t="n">
         <v>10.85</v>
@@ -2574,7 +2596,7 @@
         <v>5.900000000000009</v>
       </c>
       <c r="K46" t="n">
-        <v>-35.99999999999999</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L46" t="n">
         <v>10.8</v>
@@ -2625,7 +2647,7 @@
         <v>6.500000000000009</v>
       </c>
       <c r="K47" t="n">
-        <v>-48.38709677419353</v>
+        <v>-46.66666666666661</v>
       </c>
       <c r="L47" t="n">
         <v>10.75</v>
@@ -2676,7 +2698,7 @@
         <v>6.700000000000008</v>
       </c>
       <c r="K48" t="n">
-        <v>-39.39393939393941</v>
+        <v>-37.50000000000014</v>
       </c>
       <c r="L48" t="n">
         <v>10.7</v>
@@ -2727,7 +2749,7 @@
         <v>6.900000000000007</v>
       </c>
       <c r="K49" t="n">
-        <v>-37.49999999999999</v>
+        <v>-52.94117647058834</v>
       </c>
       <c r="L49" t="n">
         <v>10.62</v>
@@ -2778,7 +2800,7 @@
         <v>6.960000000000008</v>
       </c>
       <c r="K50" t="n">
-        <v>-43.03797468354437</v>
+        <v>-51.80722891566278</v>
       </c>
       <c r="L50" t="n">
         <v>10.524</v>
@@ -2829,7 +2851,7 @@
         <v>6.970000000000008</v>
       </c>
       <c r="K51" t="n">
-        <v>-42.5867507886436</v>
+        <v>-60.50955414012752</v>
       </c>
       <c r="L51" t="n">
         <v>10.439</v>
@@ -2880,7 +2902,7 @@
         <v>7.120000000000008</v>
       </c>
       <c r="K52" t="n">
-        <v>-40.37267080745345</v>
+        <v>-55.5555555555556</v>
       </c>
       <c r="L52" t="n">
         <v>10.359</v>
@@ -2931,7 +2953,7 @@
         <v>7.300000000000008</v>
       </c>
       <c r="K53" t="n">
-        <v>-41.81818181818186</v>
+        <v>-57.64705882352946</v>
       </c>
       <c r="L53" t="n">
         <v>10.251</v>
@@ -2982,7 +3004,7 @@
         <v>7.410000000000007</v>
       </c>
       <c r="K54" t="n">
-        <v>-43.69501466275663</v>
+        <v>-60.22099447513816</v>
       </c>
       <c r="L54" t="n">
         <v>10.142</v>
@@ -3033,7 +3055,7 @@
         <v>7.510000000000007</v>
       </c>
       <c r="K55" t="n">
-        <v>-39.60113960113964</v>
+        <v>-42.85714285714289</v>
       </c>
       <c r="L55" t="n">
         <v>10.043</v>
@@ -3084,7 +3106,7 @@
         <v>7.560000000000008</v>
       </c>
       <c r="K56" t="n">
-        <v>-33.92857142857142</v>
+        <v>-3.773584905660301</v>
       </c>
       <c r="L56" t="n">
         <v>9.978999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>7.560000000000008</v>
       </c>
       <c r="K57" t="n">
-        <v>-19.56521739130433</v>
+        <v>-27.90697674418589</v>
       </c>
       <c r="L57" t="n">
         <v>9.975</v>
@@ -3186,7 +3208,7 @@
         <v>7.720000000000008</v>
       </c>
       <c r="K58" t="n">
-        <v>-33.08823529411761</v>
+        <v>-24.39024390243893</v>
       </c>
       <c r="L58" t="n">
         <v>9.934999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>7.740000000000009</v>
       </c>
       <c r="K59" t="n">
-        <v>-38.6363636363637</v>
+        <v>-20.5128205128205</v>
       </c>
       <c r="L59" t="n">
         <v>9.913</v>
@@ -3288,7 +3310,7 @@
         <v>7.760000000000009</v>
       </c>
       <c r="K60" t="n">
-        <v>-44.53125000000004</v>
+        <v>-24.05063291139231</v>
       </c>
       <c r="L60" t="n">
         <v>9.895</v>
@@ -3339,7 +3361,7 @@
         <v>7.850000000000009</v>
       </c>
       <c r="K61" t="n">
-        <v>-37.25490196078437</v>
+        <v>-34.24657534246573</v>
       </c>
       <c r="L61" t="n">
         <v>9.885</v>
@@ -3390,7 +3412,7 @@
         <v>7.900000000000009</v>
       </c>
       <c r="K62" t="n">
-        <v>-40</v>
+        <v>-3.333333333333254</v>
       </c>
       <c r="L62" t="n">
         <v>9.865</v>
@@ -3441,7 +3463,7 @@
         <v>7.940000000000008</v>
       </c>
       <c r="K63" t="n">
-        <v>-43.4426229508197</v>
+        <v>24.52830188679221</v>
       </c>
       <c r="L63" t="n">
         <v>9.867000000000001</v>
@@ -3492,7 +3514,7 @@
         <v>8.200000000000008</v>
       </c>
       <c r="K64" t="n">
-        <v>-26.92307692307697</v>
+        <v>42.02898550724618</v>
       </c>
       <c r="L64" t="n">
         <v>9.906000000000001</v>
@@ -3543,7 +3565,7 @@
         <v>8.520000000000007</v>
       </c>
       <c r="K65" t="n">
-        <v>-34.93150684931508</v>
+        <v>-8.333333333333348</v>
       </c>
       <c r="L65" t="n">
         <v>9.903</v>
@@ -3594,7 +3616,7 @@
         <v>8.600000000000007</v>
       </c>
       <c r="K66" t="n">
-        <v>-23.70370370370368</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>9.903</v>
@@ -3645,7 +3667,7 @@
         <v>8.660000000000007</v>
       </c>
       <c r="K67" t="n">
-        <v>-4.629629629629617</v>
+        <v>10.63829787234039</v>
       </c>
       <c r="L67" t="n">
         <v>9.897</v>
@@ -3696,7 +3718,7 @@
         <v>8.680000000000007</v>
       </c>
       <c r="K68" t="n">
-        <v>-14.14141414141412</v>
+        <v>14.89361702127669</v>
       </c>
       <c r="L68" t="n">
         <v>9.909000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>8.960000000000006</v>
       </c>
       <c r="K69" t="n">
-        <v>9.708737864077642</v>
+        <v>36.6666666666667</v>
       </c>
       <c r="L69" t="n">
         <v>9.951000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>9.060000000000006</v>
       </c>
       <c r="K70" t="n">
-        <v>7.619047619047634</v>
+        <v>20.66115702479343</v>
       </c>
       <c r="L70" t="n">
         <v>9.984999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>9.250000000000005</v>
       </c>
       <c r="K71" t="n">
-        <v>-1.754385964912245</v>
+        <v>0.740740740740727</v>
       </c>
       <c r="L71" t="n">
         <v>9.991</v>
@@ -3900,7 +3922,7 @@
         <v>9.290000000000004</v>
       </c>
       <c r="K72" t="n">
-        <v>-6.912442396313392</v>
+        <v>0.740740740740727</v>
       </c>
       <c r="L72" t="n">
         <v>9.995999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>9.340000000000005</v>
       </c>
       <c r="K73" t="n">
-        <v>3.921568627450989</v>
+        <v>-17.54385964912279</v>
       </c>
       <c r="L73" t="n">
         <v>10.002</v>
@@ -4002,7 +4024,7 @@
         <v>9.440000000000005</v>
       </c>
       <c r="K74" t="n">
-        <v>14.28571428571426</v>
+        <v>23.9130434782608</v>
       </c>
       <c r="L74" t="n">
         <v>9.991999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>9.440000000000005</v>
       </c>
       <c r="K75" t="n">
-        <v>9.844559585492213</v>
+        <v>16.66666666666656</v>
       </c>
       <c r="L75" t="n">
         <v>10.014</v>
@@ -4104,7 +4126,7 @@
         <v>9.540000000000004</v>
       </c>
       <c r="K76" t="n">
-        <v>12.12121212121206</v>
+        <v>34.09090909090908</v>
       </c>
       <c r="L76" t="n">
         <v>10.038</v>
@@ -4155,7 +4177,7 @@
         <v>9.640000000000006</v>
       </c>
       <c r="K77" t="n">
-        <v>16.34615384615385</v>
+        <v>39.58333333333346</v>
       </c>
       <c r="L77" t="n">
         <v>10.078</v>
@@ -4206,7 +4228,7 @@
         <v>9.840000000000007</v>
       </c>
       <c r="K78" t="n">
-        <v>14.15094339622637</v>
+        <v>-11.36363636363631</v>
       </c>
       <c r="L78" t="n">
         <v>10.096</v>
@@ -4257,7 +4279,7 @@
         <v>9.980000000000006</v>
       </c>
       <c r="K79" t="n">
-        <v>8.035714285714365</v>
+        <v>-15.2173913043477</v>
       </c>
       <c r="L79" t="n">
         <v>10.072</v>
@@ -4308,7 +4330,7 @@
         <v>10.01000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>7.555555555555558</v>
+        <v>2.63157894736836</v>
       </c>
       <c r="L80" t="n">
         <v>10.055</v>
@@ -4359,7 +4381,7 @@
         <v>10.02000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>3.225806451612919</v>
+        <v>-4.10958904109579</v>
       </c>
       <c r="L81" t="n">
         <v>10.056</v>
@@ -4410,7 +4432,7 @@
         <v>10.16000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>-5.309734513274385</v>
+        <v>-26.82926829268294</v>
       </c>
       <c r="L82" t="n">
         <v>10.039</v>
@@ -4461,7 +4483,7 @@
         <v>10.21000000000001</v>
       </c>
       <c r="K83" t="n">
-        <v>-4.845814977973544</v>
+        <v>-35.06493506493486</v>
       </c>
       <c r="L83" t="n">
         <v>10.022</v>
@@ -4512,7 +4534,7 @@
         <v>10.28000000000001</v>
       </c>
       <c r="K84" t="n">
-        <v>-14.42307692307687</v>
+        <v>-23.80952380952363</v>
       </c>
       <c r="L84" t="n">
         <v>10.002</v>
@@ -4563,7 +4585,7 @@
         <v>10.38000000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>-4.301075268817205</v>
+        <v>-47.61904761904726</v>
       </c>
       <c r="L85" t="n">
         <v>9.972</v>
@@ -4614,7 +4636,7 @@
         <v>10.46000000000001</v>
       </c>
       <c r="K86" t="n">
-        <v>-4.301075268817205</v>
+        <v>-51.21951219512182</v>
       </c>
       <c r="L86" t="n">
         <v>9.94</v>
@@ -4665,7 +4687,7 @@
         <v>10.55000000000001</v>
       </c>
       <c r="K87" t="n">
-        <v>-5.820105820105876</v>
+        <v>-43.66197183098583</v>
       </c>
       <c r="L87" t="n">
         <v>9.888999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>10.63000000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>-2.564102564102597</v>
+        <v>-13.84615384615401</v>
       </c>
       <c r="L88" t="n">
         <v>9.866000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>10.75000000000001</v>
       </c>
       <c r="K89" t="n">
-        <v>-25.1396648044692</v>
+        <v>-24.32432432432422</v>
       </c>
       <c r="L89" t="n">
         <v>9.845000000000002</v>
@@ -4818,7 +4840,7 @@
         <v>10.77000000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>-19.29824561403506</v>
+        <v>-20</v>
       </c>
       <c r="L90" t="n">
         <v>9.829000000000002</v>
@@ -4869,7 +4891,7 @@
         <v>10.83000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>-5.0632911392405</v>
+        <v>7.462686567164265</v>
       </c>
       <c r="L91" t="n">
         <v>9.820000000000002</v>
@@ -4920,7 +4942,7 @@
         <v>10.89000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>-3.749999999999908</v>
+        <v>8.82352941176476</v>
       </c>
       <c r="L92" t="n">
         <v>9.831000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>10.94000000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>-9.999999999999979</v>
+        <v>-9.09090909090914</v>
       </c>
       <c r="L93" t="n">
         <v>9.832000000000003</v>
@@ -5022,7 +5044,7 @@
         <v>10.94000000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>-17.33333333333326</v>
+        <v>7.142857142856962</v>
       </c>
       <c r="L94" t="n">
         <v>9.826000000000002</v>
@@ -5073,7 +5095,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>-20.51282051282045</v>
+        <v>-18.51851851851869</v>
       </c>
       <c r="L95" t="n">
         <v>9.824000000000002</v>
@@ -5124,7 +5146,7 @@
         <v>11.02000000000001</v>
       </c>
       <c r="K96" t="n">
-        <v>-29.72972972972958</v>
+        <v>-6.38297872340411</v>
       </c>
       <c r="L96" t="n">
         <v>9.812000000000003</v>
@@ -5175,7 +5197,7 @@
         <v>11.07000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>-41.25874125874115</v>
+        <v>-36.36363636363603</v>
       </c>
       <c r="L97" t="n">
         <v>9.804000000000006</v>
@@ -5226,7 +5248,7 @@
         <v>11.08000000000001</v>
       </c>
       <c r="K98" t="n">
-        <v>-32.25806451612897</v>
+        <v>-15.15151515151528</v>
       </c>
       <c r="L98" t="n">
         <v>9.787000000000004</v>
@@ -5277,7 +5299,7 @@
         <v>11.10000000000001</v>
       </c>
       <c r="K99" t="n">
-        <v>-25</v>
+        <v>-27.27272727272708</v>
       </c>
       <c r="L99" t="n">
         <v>9.780000000000005</v>
@@ -5328,7 +5350,7 @@
         <v>11.57000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>-46.15384615384601</v>
+        <v>-83.78378378378365</v>
       </c>
       <c r="L100" t="n">
         <v>9.724000000000006</v>
@@ -5379,7 +5401,7 @@
         <v>11.71000000000001</v>
       </c>
       <c r="K101" t="n">
-        <v>-33.72781065088756</v>
+        <v>-65.8536585365856</v>
       </c>
       <c r="L101" t="n">
         <v>9.676000000000005</v>
@@ -5430,7 +5452,7 @@
         <v>11.78000000000001</v>
       </c>
       <c r="K102" t="n">
-        <v>-30.86419753086418</v>
+        <v>-66.66666666666687</v>
       </c>
       <c r="L102" t="n">
         <v>9.615000000000006</v>
@@ -5481,7 +5503,7 @@
         <v>11.97000000000001</v>
       </c>
       <c r="K103" t="n">
-        <v>-20.4545454545454</v>
+        <v>-35.92233009708733</v>
       </c>
       <c r="L103" t="n">
         <v>9.578000000000005</v>
@@ -5532,7 +5554,7 @@
         <v>12.19000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>-34.03141361256543</v>
+        <v>-44.53781512605038</v>
       </c>
       <c r="L104" t="n">
         <v>9.519000000000004</v>
@@ -5583,7 +5605,7 @@
         <v>12.25000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>-26.2032085561497</v>
+        <v>-36.58536585365847</v>
       </c>
       <c r="L105" t="n">
         <v>9.472000000000005</v>
@@ -5634,7 +5656,7 @@
         <v>12.33000000000001</v>
       </c>
       <c r="K106" t="n">
-        <v>-34.75935828877002</v>
+        <v>-38.09523809523808</v>
       </c>
       <c r="L106" t="n">
         <v>9.419000000000004</v>
@@ -5685,7 +5707,7 @@
         <v>12.33000000000001</v>
       </c>
       <c r="K107" t="n">
-        <v>-31.46067415730328</v>
+        <v>-37.59999999999991</v>
       </c>
       <c r="L107" t="n">
         <v>9.371000000000004</v>
@@ -5736,7 +5758,7 @@
         <v>12.57000000000001</v>
       </c>
       <c r="K108" t="n">
-        <v>-45.36082474226796</v>
+        <v>-46.93877551020403</v>
       </c>
       <c r="L108" t="n">
         <v>9.300000000000002</v>
@@ -5787,7 +5809,7 @@
         <v>12.58000000000001</v>
       </c>
       <c r="K109" t="n">
-        <v>-42.07650273224037</v>
+        <v>-22.77227722772278</v>
       </c>
       <c r="L109" t="n">
         <v>9.230000000000004</v>
@@ -5838,7 +5860,7 @@
         <v>12.64000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>-45.45454545454537</v>
+        <v>-46.23655913978475</v>
       </c>
       <c r="L110" t="n">
         <v>9.201000000000004</v>
@@ -5889,7 +5911,7 @@
         <v>12.88000000000001</v>
       </c>
       <c r="K111" t="n">
-        <v>-56.0975609756097</v>
+        <v>-54.54545454545435</v>
       </c>
       <c r="L111" t="n">
         <v>9.134000000000006</v>
@@ -5940,7 +5962,7 @@
         <v>13.00000000000001</v>
       </c>
       <c r="K112" t="n">
-        <v>-51.65876777251177</v>
+        <v>-65.0485436893202</v>
       </c>
       <c r="L112" t="n">
         <v>9.086000000000006</v>
@@ -5991,7 +6013,7 @@
         <v>13.03000000000001</v>
       </c>
       <c r="K113" t="n">
-        <v>-51.19617224880376</v>
+        <v>-57.14285714285696</v>
       </c>
       <c r="L113" t="n">
         <v>9.016000000000005</v>
@@ -6042,7 +6064,7 @@
         <v>13.11000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>-52.99539170506905</v>
+        <v>-72.09302325581382</v>
       </c>
       <c r="L114" t="n">
         <v>8.960000000000004</v>
@@ -6093,7 +6115,7 @@
         <v>13.24000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>-42.85714285714274</v>
+        <v>-45.05494505494489</v>
       </c>
       <c r="L115" t="n">
         <v>8.911000000000005</v>
@@ -6144,7 +6166,7 @@
         <v>13.30000000000001</v>
       </c>
       <c r="K116" t="n">
-        <v>-38.59649122807005</v>
+        <v>-36.08247422680393</v>
       </c>
       <c r="L116" t="n">
         <v>8.876000000000003</v>
@@ -6195,7 +6217,7 @@
         <v>13.40000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>-31.33047210300424</v>
+        <v>-1.204819277108403</v>
       </c>
       <c r="L117" t="n">
         <v>8.851000000000003</v>
@@ -6246,7 +6268,7 @@
         <v>13.51000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>-25.10288065843616</v>
+        <v>11.82795698924721</v>
       </c>
       <c r="L118" t="n">
         <v>8.861000000000004</v>
@@ -6297,7 +6319,7 @@
         <v>13.51000000000001</v>
       </c>
       <c r="K119" t="n">
-        <v>-24.48132780082983</v>
+        <v>19.5402298850574</v>
       </c>
       <c r="L119" t="n">
         <v>8.872000000000003</v>
@@ -6348,7 +6370,7 @@
         <v>13.60000000000001</v>
       </c>
       <c r="K120" t="n">
-        <v>-10.34482758620691</v>
+        <v>44.44444444444434</v>
       </c>
       <c r="L120" t="n">
         <v>8.880000000000004</v>
@@ -6399,7 +6421,7 @@
         <v>13.68000000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>-21.82741116751261</v>
+        <v>17.64705882352926</v>
       </c>
       <c r="L121" t="n">
         <v>8.904000000000005</v>
@@ -6450,7 +6472,7 @@
         <v>13.73000000000001</v>
       </c>
       <c r="K122" t="n">
-        <v>-21.02564102564097</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L122" t="n">
         <v>8.911000000000005</v>
@@ -6501,7 +6523,7 @@
         <v>13.82000000000002</v>
       </c>
       <c r="K123" t="n">
-        <v>-27.56756756756746</v>
+        <v>38.02816901408455</v>
       </c>
       <c r="L123" t="n">
         <v>8.930000000000005</v>
@@ -6552,7 +6574,7 @@
         <v>13.89000000000002</v>
       </c>
       <c r="K124" t="n">
-        <v>-21.17647058823518</v>
+        <v>10.76923076923078</v>
       </c>
       <c r="L124" t="n">
         <v>8.950000000000006</v>
@@ -6603,7 +6625,7 @@
         <v>13.90000000000002</v>
       </c>
       <c r="K125" t="n">
-        <v>-24.84848484848477</v>
+        <v>3.333333333333254</v>
       </c>
       <c r="L125" t="n">
         <v>8.958000000000007</v>
@@ -6654,7 +6676,7 @@
         <v>13.91000000000002</v>
       </c>
       <c r="K126" t="n">
-        <v>-21.51898734177207</v>
+        <v>-17.64705882352933</v>
       </c>
       <c r="L126" t="n">
         <v>8.959000000000007</v>
@@ -6705,7 +6727,7 @@
         <v>13.92000000000002</v>
       </c>
       <c r="K127" t="n">
-        <v>-22.01257861635211</v>
+        <v>-51.21951219512149</v>
       </c>
       <c r="L127" t="n">
         <v>8.949000000000007</v>
@@ -6756,7 +6778,7 @@
         <v>13.94000000000002</v>
       </c>
       <c r="K128" t="n">
-        <v>-9.489051094890524</v>
+        <v>-53.48837209302295</v>
       </c>
       <c r="L128" t="n">
         <v>8.926000000000005</v>
@@ -6807,7 +6829,7 @@
         <v>13.95000000000002</v>
       </c>
       <c r="K129" t="n">
-        <v>-9.489051094890524</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L129" t="n">
         <v>8.902000000000005</v>
@@ -6858,7 +6880,7 @@
         <v>13.97000000000002</v>
       </c>
       <c r="K130" t="n">
-        <v>-3.759398496240639</v>
+        <v>-17.24137931034491</v>
       </c>
       <c r="L130" t="n">
         <v>8.889000000000006</v>
@@ -6909,7 +6931,7 @@
         <v>13.99000000000002</v>
       </c>
       <c r="K131" t="n">
-        <v>15.31531531531524</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L131" t="n">
         <v>8.882000000000005</v>
@@ -6960,7 +6982,7 @@
         <v>14.02000000000002</v>
       </c>
       <c r="K132" t="n">
-        <v>7.84313725490193</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L132" t="n">
         <v>8.883000000000004</v>
@@ -7011,7 +7033,7 @@
         <v>14.03000000000002</v>
       </c>
       <c r="K133" t="n">
-        <v>12.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>8.876000000000005</v>
@@ -7062,7 +7084,7 @@
         <v>14.04000000000002</v>
       </c>
       <c r="K134" t="n">
-        <v>20.43010752688178</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L134" t="n">
         <v>8.875000000000004</v>
@@ -7113,7 +7135,7 @@
         <v>14.09000000000002</v>
       </c>
       <c r="K135" t="n">
-        <v>12.94117647058815</v>
+        <v>22.22222222222178</v>
       </c>
       <c r="L135" t="n">
         <v>8.878000000000004</v>
@@ -7164,7 +7186,7 @@
         <v>14.10000000000002</v>
       </c>
       <c r="K136" t="n">
-        <v>7.499999999999833</v>
+        <v>33.33333333333267</v>
       </c>
       <c r="L136" t="n">
         <v>8.883000000000003</v>
@@ -7215,7 +7237,7 @@
         <v>14.12000000000002</v>
       </c>
       <c r="K137" t="n">
-        <v>-2.777777777777709</v>
+        <v>55.55555555555644</v>
       </c>
       <c r="L137" t="n">
         <v>8.891000000000002</v>
@@ -7266,7 +7288,7 @@
         <v>14.15000000000002</v>
       </c>
       <c r="K138" t="n">
-        <v>-15.62499999999989</v>
+        <v>70.00000000000053</v>
       </c>
       <c r="L138" t="n">
         <v>8.904000000000002</v>
@@ -7317,7 +7339,7 @@
         <v>14.19000000000002</v>
       </c>
       <c r="K139" t="n">
-        <v>-8.82352941176476</v>
+        <v>72.72727272727316</v>
       </c>
       <c r="L139" t="n">
         <v>8.922000000000002</v>
@@ -7368,7 +7390,7 @@
         <v>14.55000000000002</v>
       </c>
       <c r="K140" t="n">
-        <v>41.05263157894731</v>
+        <v>96.4285714285715</v>
       </c>
       <c r="L140" t="n">
         <v>8.974000000000002</v>
@@ -7419,7 +7441,7 @@
         <v>14.65000000000002</v>
       </c>
       <c r="K141" t="n">
-        <v>38.14432989690697</v>
+        <v>65.07936507936473</v>
       </c>
       <c r="L141" t="n">
         <v>9.018000000000004</v>
@@ -7470,7 +7492,7 @@
         <v>14.79000000000002</v>
       </c>
       <c r="K142" t="n">
-        <v>26.41509433962269</v>
+        <v>34.21052631578946</v>
       </c>
       <c r="L142" t="n">
         <v>9.045000000000005</v>
@@ -7521,7 +7543,7 @@
         <v>14.87000000000002</v>
       </c>
       <c r="K143" t="n">
-        <v>25.71428571428565</v>
+        <v>42.16867469879514</v>
       </c>
       <c r="L143" t="n">
         <v>9.079000000000004</v>
@@ -7572,7 +7594,7 @@
         <v>14.95000000000002</v>
       </c>
       <c r="K144" t="n">
-        <v>24.52830188679242</v>
+        <v>25.58139534883725</v>
       </c>
       <c r="L144" t="n">
         <v>9.106000000000005</v>
@@ -7623,7 +7645,7 @@
         <v>15.01000000000002</v>
       </c>
       <c r="K145" t="n">
-        <v>27.92792792792794</v>
+        <v>29.67032967032975</v>
       </c>
       <c r="L145" t="n">
         <v>9.134000000000006</v>
@@ -7674,7 +7696,7 @@
         <v>15.12000000000002</v>
       </c>
       <c r="K146" t="n">
-        <v>17.35537190082633</v>
+        <v>13.99999999999985</v>
       </c>
       <c r="L146" t="n">
         <v>9.150000000000006</v>
@@ -7725,7 +7747,7 @@
         <v>15.19000000000002</v>
       </c>
       <c r="K147" t="n">
-        <v>11.8110236220471</v>
+        <v>3.846153846153754</v>
       </c>
       <c r="L147" t="n">
         <v>9.157000000000005</v>
@@ -7776,7 +7798,7 @@
         <v>15.25000000000002</v>
       </c>
       <c r="K148" t="n">
-        <v>17.55725190839695</v>
+        <v>5.660377358490591</v>
       </c>
       <c r="L148" t="n">
         <v>9.167000000000005</v>
@@ -7827,7 +7849,7 @@
         <v>15.30000000000002</v>
       </c>
       <c r="K149" t="n">
-        <v>21.4814814814815</v>
+        <v>-33.33333333333318</v>
       </c>
       <c r="L149" t="n">
         <v>9.178000000000006</v>
@@ -7878,7 +7900,7 @@
         <v>15.31000000000002</v>
       </c>
       <c r="K150" t="n">
-        <v>20.89552238805974</v>
+        <v>-21.21212121212097</v>
       </c>
       <c r="L150" t="n">
         <v>9.154000000000007</v>
@@ -7929,7 +7951,7 @@
         <v>15.31000000000002</v>
       </c>
       <c r="K151" t="n">
-        <v>22.72727272727272</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>9.140000000000006</v>
@@ -7980,7 +8002,7 @@
         <v>15.33000000000002</v>
       </c>
       <c r="K152" t="n">
-        <v>19.08396946564882</v>
+        <v>-21.73913043478241</v>
       </c>
       <c r="L152" t="n">
         <v>9.138000000000005</v>
@@ -8031,7 +8053,7 @@
         <v>15.35000000000002</v>
       </c>
       <c r="K153" t="n">
-        <v>19.69696969696965</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>9.130000000000006</v>

--- a/BackTest/2019-10-22 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-22 BackTest FZZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S153"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.09999999999999964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.2000000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.3000000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.4000000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5000000000000018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7000000000000028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.9000000000000039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.000000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.100000000000007</v>
-      </c>
-      <c r="K12" t="n">
-        <v>9.090909090909003</v>
-      </c>
-      <c r="L12" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.800000000000006</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-41.1764705882351</v>
-      </c>
-      <c r="L13" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2999999999999989</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.100000000000007</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-26.31578947368413</v>
-      </c>
-      <c r="L14" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2999999999999989</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.100000000000007</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-33.3333333333332</v>
-      </c>
-      <c r="L15" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.300000000000008</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-36.8421052631578</v>
-      </c>
-      <c r="L16" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.300000000000008</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-33.3333333333332</v>
-      </c>
-      <c r="L17" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.400000000000007</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-52.94117647058811</v>
-      </c>
-      <c r="L18" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.600000000000007</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-29.41176470588231</v>
-      </c>
-      <c r="L19" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.600000000000007</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-37.50000000000006</v>
-      </c>
-      <c r="L20" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.800000000000006</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-41.17647058823527</v>
-      </c>
-      <c r="L21" t="n">
-        <v>11.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.800000000000006</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>11.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.800000000000006</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-42.857142857143</v>
-      </c>
-      <c r="L23" t="n">
-        <v>11.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.100000000000007</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-60.00000000000014</v>
-      </c>
-      <c r="L24" t="n">
-        <v>11.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.7999999999999989</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.200000000000008</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-33.3333333333332</v>
-      </c>
-      <c r="L25" t="n">
-        <v>11.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.400000000000007</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-9.090909090909062</v>
-      </c>
-      <c r="L26" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>11.765</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.400000000000007</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>11.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>11.725</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5999999999999996</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.400000000000007</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-24.99999999999989</v>
-      </c>
-      <c r="L28" t="n">
-        <v>11.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.700000000000008</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-45.4545454545454</v>
-      </c>
-      <c r="L29" t="n">
-        <v>11.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.7999999999999989</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.80000000000001</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L30" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>11.585</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.7999999999999989</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.80000000000001</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L31" t="n">
-        <v>11.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>11.535</v>
-      </c>
-      <c r="N31" t="n">
-        <v>11.77333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.900000000000009</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-9.090909090909033</v>
-      </c>
-      <c r="L32" t="n">
-        <v>11.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>11.495</v>
-      </c>
-      <c r="N32" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.7999999999999989</v>
-      </c>
-      <c r="J33" t="n">
-        <v>4.000000000000009</v>
-      </c>
-      <c r="K33" t="n">
-        <v>11.11111111111124</v>
-      </c>
-      <c r="L33" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>11.485</v>
-      </c>
-      <c r="N33" t="n">
-        <v>11.72333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.7999999999999989</v>
-      </c>
-      <c r="J34" t="n">
-        <v>4.000000000000009</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>11.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="N34" t="n">
-        <v>11.69333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.7999999999999989</v>
-      </c>
-      <c r="J35" t="n">
-        <v>4.000000000000009</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-33.33333333333314</v>
-      </c>
-      <c r="L35" t="n">
-        <v>11.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>11.435</v>
-      </c>
-      <c r="N35" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>4.20000000000001</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-49.99999999999989</v>
-      </c>
-      <c r="L36" t="n">
-        <v>11.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="N36" t="n">
-        <v>11.61666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>4.80000000000001</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-71.42857142857132</v>
-      </c>
-      <c r="L37" t="n">
-        <v>11.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>11.355</v>
-      </c>
-      <c r="N37" t="n">
-        <v>11.55666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5.000000000000009</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-38.46153846153844</v>
-      </c>
-      <c r="L38" t="n">
-        <v>11.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>11.315</v>
-      </c>
-      <c r="N38" t="n">
-        <v>11.50666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-1.299999999999999</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5.10000000000001</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-38.46153846153844</v>
-      </c>
-      <c r="L39" t="n">
-        <v>11.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="N39" t="n">
-        <v>11.45333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="J40" t="n">
-        <v>5.20000000000001</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-28.57142857142859</v>
-      </c>
-      <c r="L40" t="n">
-        <v>11.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="N40" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.299999999999999</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5.30000000000001</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-42.85714285714282</v>
-      </c>
-      <c r="L41" t="n">
-        <v>11.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>11.195</v>
-      </c>
-      <c r="N41" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="J42" t="n">
-        <v>5.400000000000009</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-28.57142857142859</v>
-      </c>
-      <c r="L42" t="n">
-        <v>10.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>11.165</v>
-      </c>
-      <c r="N42" t="n">
-        <v>11.31666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5.500000000000009</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-20.00000000000005</v>
-      </c>
-      <c r="L43" t="n">
-        <v>10.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="N43" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5.600000000000009</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-25.00000000000003</v>
-      </c>
-      <c r="L44" t="n">
-        <v>10.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>11.12500000000001</v>
-      </c>
-      <c r="N44" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5.600000000000009</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-14.28571428571425</v>
-      </c>
-      <c r="L45" t="n">
-        <v>10.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>11.10500000000001</v>
-      </c>
-      <c r="N45" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>5.900000000000009</v>
-      </c>
-      <c r="K46" t="n">
-        <v>9.090909090909062</v>
-      </c>
-      <c r="L46" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>11.06000000000001</v>
-      </c>
-      <c r="N46" t="n">
-        <v>11.20666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>6.500000000000009</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-46.66666666666661</v>
-      </c>
-      <c r="L47" t="n">
-        <v>10.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>10.985</v>
-      </c>
-      <c r="N47" t="n">
-        <v>11.15333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>6.700000000000008</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-37.50000000000014</v>
-      </c>
-      <c r="L48" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>10.92000000000001</v>
-      </c>
-      <c r="N48" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>6.900000000000007</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-52.94117647058834</v>
-      </c>
-      <c r="L49" t="n">
-        <v>10.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="N49" t="n">
-        <v>11.05333333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-2.16</v>
-      </c>
-      <c r="J50" t="n">
-        <v>6.960000000000008</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-51.80722891566278</v>
-      </c>
-      <c r="L50" t="n">
-        <v>10.524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>10.79200000000001</v>
-      </c>
-      <c r="N50" t="n">
-        <v>10.99466666666666</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-2.15</v>
-      </c>
-      <c r="J51" t="n">
-        <v>6.970000000000008</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-60.50955414012752</v>
-      </c>
-      <c r="L51" t="n">
-        <v>10.439</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>10.7245</v>
-      </c>
-      <c r="N51" t="n">
-        <v>10.943</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>7.120000000000008</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-55.5555555555556</v>
-      </c>
-      <c r="L52" t="n">
-        <v>10.359</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>10.6595</v>
-      </c>
-      <c r="N52" t="n">
-        <v>10.89633333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-2.18</v>
-      </c>
-      <c r="J53" t="n">
-        <v>7.300000000000008</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-57.64705882352946</v>
-      </c>
-      <c r="L53" t="n">
-        <v>10.251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>10.5905</v>
-      </c>
-      <c r="N53" t="n">
-        <v>10.84366666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-2.289999999999999</v>
-      </c>
-      <c r="J54" t="n">
-        <v>7.410000000000007</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-60.22099447513816</v>
-      </c>
-      <c r="L54" t="n">
-        <v>10.142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>10.516</v>
-      </c>
-      <c r="N54" t="n">
-        <v>10.79733333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-2.19</v>
-      </c>
-      <c r="J55" t="n">
-        <v>7.510000000000007</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-42.85714285714289</v>
-      </c>
-      <c r="L55" t="n">
-        <v>10.043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>10.4465</v>
-      </c>
-      <c r="N55" t="n">
-        <v>10.751</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-2.139999999999999</v>
-      </c>
-      <c r="J56" t="n">
-        <v>7.560000000000008</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-3.773584905660301</v>
-      </c>
-      <c r="L56" t="n">
-        <v>9.978999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>10.3895</v>
-      </c>
-      <c r="N56" t="n">
-        <v>10.69966666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-2.139999999999999</v>
-      </c>
-      <c r="J57" t="n">
-        <v>7.560000000000008</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-27.90697674418589</v>
-      </c>
-      <c r="L57" t="n">
-        <v>9.975</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>10.3625</v>
-      </c>
-      <c r="N57" t="n">
-        <v>10.64833333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-2.299999999999999</v>
-      </c>
-      <c r="J58" t="n">
-        <v>7.720000000000008</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-24.39024390243893</v>
-      </c>
-      <c r="L58" t="n">
-        <v>9.934999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>10.3175</v>
-      </c>
-      <c r="N58" t="n">
-        <v>10.59166666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-2.32</v>
-      </c>
-      <c r="J59" t="n">
-        <v>7.740000000000009</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-20.5128205128205</v>
-      </c>
-      <c r="L59" t="n">
-        <v>9.913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>10.2665</v>
-      </c>
-      <c r="N59" t="n">
-        <v>10.54433333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-2.34</v>
-      </c>
-      <c r="J60" t="n">
-        <v>7.760000000000009</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-24.05063291139231</v>
-      </c>
-      <c r="L60" t="n">
-        <v>9.895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>10.2095</v>
-      </c>
-      <c r="N60" t="n">
-        <v>10.493</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="J61" t="n">
-        <v>7.850000000000009</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-34.24657534246573</v>
-      </c>
-      <c r="L61" t="n">
-        <v>9.885</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>10.162</v>
-      </c>
-      <c r="N61" t="n">
-        <v>10.44466666666666</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="J62" t="n">
-        <v>7.900000000000009</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-3.333333333333254</v>
-      </c>
-      <c r="L62" t="n">
-        <v>9.865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>10.112</v>
-      </c>
-      <c r="N62" t="n">
-        <v>10.39466666666666</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-2.16</v>
-      </c>
-      <c r="J63" t="n">
-        <v>7.940000000000008</v>
-      </c>
-      <c r="K63" t="n">
-        <v>24.52830188679221</v>
-      </c>
-      <c r="L63" t="n">
-        <v>9.867000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>10.059</v>
-      </c>
-      <c r="N63" t="n">
-        <v>10.34933333333333</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="J64" t="n">
-        <v>8.200000000000008</v>
-      </c>
-      <c r="K64" t="n">
-        <v>42.02898550724618</v>
-      </c>
-      <c r="L64" t="n">
-        <v>9.906000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>10.024</v>
-      </c>
-      <c r="N64" t="n">
-        <v>10.31266666666666</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-2.219999999999999</v>
-      </c>
-      <c r="J65" t="n">
-        <v>8.520000000000007</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-8.333333333333348</v>
-      </c>
-      <c r="L65" t="n">
-        <v>9.903</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>9.972999999999999</v>
-      </c>
-      <c r="N65" t="n">
-        <v>10.26533333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-2.139999999999999</v>
-      </c>
-      <c r="J66" t="n">
-        <v>8.600000000000007</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>9.903</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>9.940999999999999</v>
-      </c>
-      <c r="N66" t="n">
-        <v>10.22733333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="J67" t="n">
-        <v>8.660000000000007</v>
-      </c>
-      <c r="K67" t="n">
-        <v>10.63829787234039</v>
-      </c>
-      <c r="L67" t="n">
-        <v>9.897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>9.936</v>
-      </c>
-      <c r="N67" t="n">
-        <v>10.20733333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-2.18</v>
-      </c>
-      <c r="J68" t="n">
-        <v>8.680000000000007</v>
-      </c>
-      <c r="K68" t="n">
-        <v>14.89361702127669</v>
-      </c>
-      <c r="L68" t="n">
-        <v>9.909000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>9.922000000000001</v>
-      </c>
-      <c r="N68" t="n">
-        <v>10.18133333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="J69" t="n">
-        <v>8.960000000000006</v>
-      </c>
-      <c r="K69" t="n">
-        <v>36.6666666666667</v>
-      </c>
-      <c r="L69" t="n">
-        <v>9.951000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>9.931999999999999</v>
-      </c>
-      <c r="N69" t="n">
-        <v>10.16133333333333</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>9.060000000000006</v>
-      </c>
-      <c r="K70" t="n">
-        <v>20.66115702479343</v>
-      </c>
-      <c r="L70" t="n">
-        <v>9.984999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="N70" t="n">
-        <v>10.13466666666666</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-2.19</v>
-      </c>
-      <c r="J71" t="n">
-        <v>9.250000000000005</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.740740740740727</v>
-      </c>
-      <c r="L71" t="n">
-        <v>9.991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>9.937999999999999</v>
-      </c>
-      <c r="N71" t="n">
-        <v>10.105</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-2.15</v>
-      </c>
-      <c r="J72" t="n">
-        <v>9.290000000000004</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.740740740740727</v>
-      </c>
-      <c r="L72" t="n">
-        <v>9.995999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>9.930499999999999</v>
-      </c>
-      <c r="N72" t="n">
-        <v>10.07333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>9.340000000000005</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-17.54385964912279</v>
-      </c>
-      <c r="L73" t="n">
-        <v>10.002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>9.9345</v>
-      </c>
-      <c r="N73" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>9.440000000000005</v>
-      </c>
-      <c r="K74" t="n">
-        <v>23.9130434782608</v>
-      </c>
-      <c r="L74" t="n">
-        <v>9.991999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>9.949</v>
-      </c>
-      <c r="N74" t="n">
-        <v>10.01333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>9.440000000000005</v>
-      </c>
-      <c r="K75" t="n">
-        <v>16.66666666666656</v>
-      </c>
-      <c r="L75" t="n">
-        <v>10.014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>9.958499999999999</v>
-      </c>
-      <c r="N75" t="n">
-        <v>9.986666666666666</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="J76" t="n">
-        <v>9.540000000000004</v>
-      </c>
-      <c r="K76" t="n">
-        <v>34.09090909090908</v>
-      </c>
-      <c r="L76" t="n">
-        <v>10.038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>9.970499999999998</v>
-      </c>
-      <c r="N76" t="n">
-        <v>9.973333333333331</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-1.799999999999999</v>
-      </c>
-      <c r="J77" t="n">
-        <v>9.640000000000006</v>
-      </c>
-      <c r="K77" t="n">
-        <v>39.58333333333346</v>
-      </c>
-      <c r="L77" t="n">
-        <v>10.078</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>9.987499999999999</v>
-      </c>
-      <c r="N77" t="n">
-        <v>9.983333333333331</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>9.840000000000007</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-11.36363636363631</v>
-      </c>
-      <c r="L78" t="n">
-        <v>10.096</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>10.0025</v>
-      </c>
-      <c r="N78" t="n">
-        <v>9.979999999999999</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-2.139999999999999</v>
-      </c>
-      <c r="J79" t="n">
-        <v>9.980000000000006</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-15.2173913043477</v>
-      </c>
-      <c r="L79" t="n">
-        <v>10.072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>10.0115</v>
-      </c>
-      <c r="N79" t="n">
-        <v>9.978666666666665</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-2.17</v>
-      </c>
-      <c r="J80" t="n">
-        <v>10.01000000000001</v>
-      </c>
-      <c r="K80" t="n">
-        <v>2.63157894736836</v>
-      </c>
-      <c r="L80" t="n">
-        <v>10.055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="N80" t="n">
-        <v>9.978333333333332</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-2.18</v>
-      </c>
-      <c r="J81" t="n">
-        <v>10.02000000000001</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-4.10958904109579</v>
-      </c>
-      <c r="L81" t="n">
-        <v>10.056</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>10.0235</v>
-      </c>
-      <c r="N81" t="n">
-        <v>9.977333333333332</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-2.32</v>
-      </c>
-      <c r="J82" t="n">
-        <v>10.16000000000001</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-26.82926829268294</v>
-      </c>
-      <c r="L82" t="n">
-        <v>10.039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>10.0175</v>
-      </c>
-      <c r="N82" t="n">
-        <v>9.966666666666665</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3289,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-2.27</v>
-      </c>
-      <c r="J83" t="n">
-        <v>10.21000000000001</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-35.06493506493486</v>
-      </c>
-      <c r="L83" t="n">
-        <v>10.022</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>10.012</v>
-      </c>
-      <c r="N83" t="n">
-        <v>9.963666666666663</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3324,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="J84" t="n">
-        <v>10.28000000000001</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-23.80952380952363</v>
-      </c>
-      <c r="L84" t="n">
-        <v>10.002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>9.997</v>
-      </c>
-      <c r="N84" t="n">
-        <v>9.966666666666663</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-2.299999999999999</v>
-      </c>
-      <c r="J85" t="n">
-        <v>10.38000000000001</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-47.61904761904726</v>
-      </c>
-      <c r="L85" t="n">
-        <v>9.972</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>9.993</v>
-      </c>
-      <c r="N85" t="n">
-        <v>9.962999999999996</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3394,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-2.219999999999999</v>
-      </c>
-      <c r="J86" t="n">
-        <v>10.46000000000001</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-51.21951219512182</v>
-      </c>
-      <c r="L86" t="n">
-        <v>9.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>9.989000000000001</v>
-      </c>
-      <c r="N86" t="n">
-        <v>9.960333333333329</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3429,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="J87" t="n">
-        <v>10.55000000000001</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-43.66197183098583</v>
-      </c>
-      <c r="L87" t="n">
-        <v>9.888999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>9.983499999999999</v>
-      </c>
-      <c r="N87" t="n">
-        <v>9.954666666666665</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3464,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-2.23</v>
-      </c>
-      <c r="J88" t="n">
-        <v>10.63000000000001</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-13.84615384615401</v>
-      </c>
-      <c r="L88" t="n">
-        <v>9.866000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>9.981</v>
-      </c>
-      <c r="N88" t="n">
-        <v>9.956999999999997</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3499,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-2.35</v>
-      </c>
-      <c r="J89" t="n">
-        <v>10.75000000000001</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-24.32432432432422</v>
-      </c>
-      <c r="L89" t="n">
-        <v>9.845000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>9.958500000000001</v>
-      </c>
-      <c r="N89" t="n">
-        <v>9.955999999999998</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-2.33</v>
-      </c>
-      <c r="J90" t="n">
-        <v>10.77000000000001</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L90" t="n">
-        <v>9.829000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>9.942000000000002</v>
-      </c>
-      <c r="N90" t="n">
-        <v>9.956333333333331</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3569,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-2.27</v>
-      </c>
-      <c r="J91" t="n">
-        <v>10.83000000000001</v>
-      </c>
-      <c r="K91" t="n">
-        <v>7.462686567164265</v>
-      </c>
-      <c r="L91" t="n">
-        <v>9.820000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>9.938000000000002</v>
-      </c>
-      <c r="N91" t="n">
-        <v>9.955666666666664</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3604,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-2.209999999999999</v>
-      </c>
-      <c r="J92" t="n">
-        <v>10.89000000000001</v>
-      </c>
-      <c r="K92" t="n">
-        <v>8.82352941176476</v>
-      </c>
-      <c r="L92" t="n">
-        <v>9.831000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>9.935000000000002</v>
-      </c>
-      <c r="N92" t="n">
-        <v>9.95533333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3639,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-2.26</v>
-      </c>
-      <c r="J93" t="n">
-        <v>10.94000000000001</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-9.09090909090914</v>
-      </c>
-      <c r="L93" t="n">
-        <v>9.832000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>9.927000000000003</v>
-      </c>
-      <c r="N93" t="n">
-        <v>9.951999999999996</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-2.26</v>
-      </c>
-      <c r="J94" t="n">
-        <v>10.94000000000001</v>
-      </c>
-      <c r="K94" t="n">
-        <v>7.142857142856962</v>
-      </c>
-      <c r="L94" t="n">
-        <v>9.826000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>9.914000000000003</v>
-      </c>
-      <c r="N94" t="n">
-        <v>9.939999999999996</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3709,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-2.32</v>
-      </c>
-      <c r="J95" t="n">
-        <v>11.00000000000001</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-18.51851851851869</v>
-      </c>
-      <c r="L95" t="n">
-        <v>9.824000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>9.898000000000003</v>
-      </c>
-      <c r="N95" t="n">
-        <v>9.936666666666662</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3744,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-2.34</v>
-      </c>
-      <c r="J96" t="n">
-        <v>11.02000000000001</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-6.38297872340411</v>
-      </c>
-      <c r="L96" t="n">
-        <v>9.812000000000003</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>9.876000000000003</v>
-      </c>
-      <c r="N96" t="n">
-        <v>9.929999999999996</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +3779,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-2.389999999999999</v>
-      </c>
-      <c r="J97" t="n">
-        <v>11.07000000000001</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-36.36363636363603</v>
-      </c>
-      <c r="L97" t="n">
-        <v>9.804000000000006</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>9.846500000000002</v>
-      </c>
-      <c r="N97" t="n">
-        <v>9.923666666666662</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +3814,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>11.08000000000001</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-15.15151515151528</v>
-      </c>
-      <c r="L98" t="n">
-        <v>9.787000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>9.826500000000003</v>
-      </c>
-      <c r="N98" t="n">
-        <v>9.916333333333329</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +3849,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-2.42</v>
-      </c>
-      <c r="J99" t="n">
-        <v>11.10000000000001</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-27.27272727272708</v>
-      </c>
-      <c r="L99" t="n">
-        <v>9.780000000000005</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>9.812500000000004</v>
-      </c>
-      <c r="N99" t="n">
-        <v>9.898999999999996</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +3884,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-2.889999999999999</v>
-      </c>
-      <c r="J100" t="n">
-        <v>11.57000000000001</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-83.78378378378365</v>
-      </c>
-      <c r="L100" t="n">
-        <v>9.724000000000006</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>9.776500000000002</v>
-      </c>
-      <c r="N100" t="n">
-        <v>9.869333333333326</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +3919,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-2.75</v>
-      </c>
-      <c r="J101" t="n">
-        <v>11.71000000000001</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-65.8536585365856</v>
-      </c>
-      <c r="L101" t="n">
-        <v>9.676000000000005</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>9.748000000000003</v>
-      </c>
-      <c r="N101" t="n">
-        <v>9.85066666666666</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +3954,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-2.82</v>
-      </c>
-      <c r="J102" t="n">
-        <v>11.78000000000001</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-66.66666666666687</v>
-      </c>
-      <c r="L102" t="n">
-        <v>9.615000000000006</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>9.723000000000003</v>
-      </c>
-      <c r="N102" t="n">
-        <v>9.828333333333326</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +3989,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-2.629999999999999</v>
-      </c>
-      <c r="J103" t="n">
-        <v>11.97000000000001</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-35.92233009708733</v>
-      </c>
-      <c r="L103" t="n">
-        <v>9.578000000000005</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>9.705000000000002</v>
-      </c>
-      <c r="N103" t="n">
-        <v>9.810666666666661</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4024,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-2.85</v>
-      </c>
-      <c r="J104" t="n">
-        <v>12.19000000000001</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-44.53781512605038</v>
-      </c>
-      <c r="L104" t="n">
-        <v>9.519000000000004</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>9.672500000000003</v>
-      </c>
-      <c r="N104" t="n">
-        <v>9.782333333333327</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4059,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-2.789999999999999</v>
-      </c>
-      <c r="J105" t="n">
-        <v>12.25000000000001</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-36.58536585365847</v>
-      </c>
-      <c r="L105" t="n">
-        <v>9.472000000000005</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>9.648000000000001</v>
-      </c>
-      <c r="N105" t="n">
-        <v>9.755999999999993</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4094,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-2.869999999999999</v>
-      </c>
-      <c r="J106" t="n">
-        <v>12.33000000000001</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-38.09523809523808</v>
-      </c>
-      <c r="L106" t="n">
-        <v>9.419000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>9.615500000000001</v>
-      </c>
-      <c r="N106" t="n">
-        <v>9.723666666666661</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4129,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-2.869999999999999</v>
-      </c>
-      <c r="J107" t="n">
-        <v>12.33000000000001</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-37.59999999999991</v>
-      </c>
-      <c r="L107" t="n">
-        <v>9.371000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>9.587500000000002</v>
-      </c>
-      <c r="N107" t="n">
-        <v>9.687999999999994</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4164,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-3.109999999999999</v>
-      </c>
-      <c r="J108" t="n">
-        <v>12.57000000000001</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-46.93877551020403</v>
-      </c>
-      <c r="L108" t="n">
-        <v>9.300000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>9.543500000000002</v>
-      </c>
-      <c r="N108" t="n">
-        <v>9.650999999999993</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4199,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-3.119999999999999</v>
-      </c>
-      <c r="J109" t="n">
-        <v>12.58000000000001</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-22.77227722772278</v>
-      </c>
-      <c r="L109" t="n">
-        <v>9.230000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>9.505000000000001</v>
-      </c>
-      <c r="N109" t="n">
-        <v>9.618333333333329</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4234,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-3.18</v>
-      </c>
-      <c r="J110" t="n">
-        <v>12.64000000000001</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-46.23655913978475</v>
-      </c>
-      <c r="L110" t="n">
-        <v>9.201000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>9.4625</v>
-      </c>
-      <c r="N110" t="n">
-        <v>9.584666666666662</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5902,31 +4266,21 @@
         <v>9.760333333333332</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>-3.42</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>12.88000000000001</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-54.54545454545435</v>
-      </c>
-      <c r="L111" t="n">
-        <v>9.134000000000006</v>
+        <v>8.92</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>9.404999999999999</v>
-      </c>
-      <c r="N111" t="n">
-        <v>9.543333333333328</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5953,31 +4307,21 @@
         <v>9.738666666666663</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>-3.299999999999999</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>13.00000000000001</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-65.0485436893202</v>
-      </c>
-      <c r="L112" t="n">
-        <v>9.086000000000006</v>
+        <v>8.69</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>9.3505</v>
-      </c>
-      <c r="N112" t="n">
-        <v>9.510666666666662</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6004,31 +4348,21 @@
         <v>9.719499999999998</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>-3.33</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>13.03000000000001</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-57.14285714285696</v>
-      </c>
-      <c r="L113" t="n">
-        <v>9.016000000000005</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>9.297000000000001</v>
-      </c>
-      <c r="N113" t="n">
-        <v>9.47533333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6055,31 +4389,21 @@
         <v>9.700833333333332</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>-3.41</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>13.11000000000001</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-72.09302325581382</v>
-      </c>
-      <c r="L114" t="n">
-        <v>8.960000000000004</v>
+        <v>8.77</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>9.2395</v>
-      </c>
-      <c r="N114" t="n">
-        <v>9.434999999999997</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6106,31 +4430,21 @@
         <v>9.682666666666668</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>-3.279999999999999</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>13.24000000000001</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-45.05494505494489</v>
-      </c>
-      <c r="L115" t="n">
-        <v>8.911000000000005</v>
+        <v>8.75</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>9.1915</v>
-      </c>
-      <c r="N115" t="n">
-        <v>9.402333333333329</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6157,31 +4471,21 @@
         <v>9.664666666666667</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>-3.219999999999999</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>13.30000000000001</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-36.08247422680393</v>
-      </c>
-      <c r="L116" t="n">
-        <v>8.876000000000003</v>
+        <v>8.9</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>9.147499999999999</v>
-      </c>
-      <c r="N116" t="n">
-        <v>9.368999999999996</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6208,31 +4512,21 @@
         <v>9.648333333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>-3.119999999999999</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>13.40000000000001</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-1.204819277108403</v>
-      </c>
-      <c r="L117" t="n">
-        <v>8.851000000000003</v>
+        <v>8.869999999999999</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>9.110999999999999</v>
-      </c>
-      <c r="N117" t="n">
-        <v>9.341999999999995</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6259,31 +4553,21 @@
         <v>9.636500000000002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>-3.01</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>13.51000000000001</v>
-      </c>
-      <c r="K118" t="n">
-        <v>11.82795698924721</v>
-      </c>
-      <c r="L118" t="n">
-        <v>8.861000000000004</v>
+        <v>8.98</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>9.080499999999999</v>
-      </c>
-      <c r="N118" t="n">
-        <v>9.315999999999995</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6310,31 +4594,21 @@
         <v>9.625000000000002</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>-3.01</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>13.51000000000001</v>
-      </c>
-      <c r="K119" t="n">
-        <v>19.5402298850574</v>
-      </c>
-      <c r="L119" t="n">
-        <v>8.872000000000003</v>
+        <v>9.01</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>9.050999999999998</v>
-      </c>
-      <c r="N119" t="n">
-        <v>9.293999999999993</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6361,31 +4635,21 @@
         <v>9.612333333333336</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>-3.1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>13.60000000000001</v>
-      </c>
-      <c r="K120" t="n">
-        <v>44.44444444444434</v>
-      </c>
-      <c r="L120" t="n">
-        <v>8.880000000000004</v>
+        <v>9.09</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>9.040499999999998</v>
-      </c>
-      <c r="N120" t="n">
-        <v>9.268333333333327</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6412,31 +4676,21 @@
         <v>9.596833333333334</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>-3.18</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>13.68000000000001</v>
-      </c>
-      <c r="K121" t="n">
-        <v>17.64705882352926</v>
-      </c>
-      <c r="L121" t="n">
-        <v>8.904000000000005</v>
+        <v>9</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>9.018999999999998</v>
-      </c>
-      <c r="N121" t="n">
-        <v>9.237999999999996</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6463,31 +4717,21 @@
         <v>9.579666666666668</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>-3.23</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>13.73000000000001</v>
-      </c>
-      <c r="K122" t="n">
-        <v>14.28571428571421</v>
-      </c>
-      <c r="L122" t="n">
-        <v>8.911000000000005</v>
+        <v>8.92</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>8.998499999999998</v>
-      </c>
-      <c r="N122" t="n">
-        <v>9.203999999999997</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6514,31 +4758,21 @@
         <v>9.563333333333334</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>-3.139999999999999</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>13.82000000000002</v>
-      </c>
-      <c r="K123" t="n">
-        <v>38.02816901408455</v>
-      </c>
-      <c r="L123" t="n">
-        <v>8.930000000000005</v>
+        <v>8.869999999999999</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>8.972999999999999</v>
-      </c>
-      <c r="N123" t="n">
-        <v>9.174666666666663</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6565,31 +4799,21 @@
         <v>9.541500000000001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>-3.209999999999999</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>13.89000000000002</v>
-      </c>
-      <c r="K124" t="n">
-        <v>10.76923076923078</v>
-      </c>
-      <c r="L124" t="n">
-        <v>8.950000000000006</v>
+        <v>8.869999999999999</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>8.954999999999998</v>
-      </c>
-      <c r="N124" t="n">
-        <v>9.142999999999997</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6616,31 +4840,21 @@
         <v>9.525166666666667</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>-3.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>13.90000000000002</v>
-      </c>
-      <c r="K125" t="n">
-        <v>3.333333333333254</v>
-      </c>
-      <c r="L125" t="n">
-        <v>8.958000000000007</v>
+        <v>8.869999999999999</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>8.934499999999998</v>
-      </c>
-      <c r="N125" t="n">
-        <v>9.113666666666663</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6667,31 +4881,21 @@
         <v>9.507333333333332</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>-3.209999999999999</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>13.91000000000002</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-17.64705882352933</v>
-      </c>
-      <c r="L126" t="n">
-        <v>8.959000000000007</v>
+        <v>8.890000000000001</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>8.9175</v>
-      </c>
-      <c r="N126" t="n">
-        <v>9.084666666666664</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +4925,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>-3.219999999999999</v>
-      </c>
-      <c r="J127" t="n">
-        <v>13.92000000000002</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-51.21951219512149</v>
-      </c>
-      <c r="L127" t="n">
-        <v>8.949000000000007</v>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="N127" t="n">
-        <v>9.056999999999997</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +4964,16 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-3.24</v>
-      </c>
-      <c r="J128" t="n">
-        <v>13.94000000000002</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-53.48837209302295</v>
-      </c>
-      <c r="L128" t="n">
-        <v>8.926000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>8.8935</v>
-      </c>
-      <c r="N128" t="n">
-        <v>9.028999999999998</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5003,16 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>-3.25</v>
-      </c>
-      <c r="J129" t="n">
-        <v>13.95000000000002</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-42.85714285714256</v>
-      </c>
-      <c r="L129" t="n">
-        <v>8.902000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>8.887</v>
-      </c>
-      <c r="N129" t="n">
-        <v>9.001333333333331</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5042,16 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>-3.23</v>
-      </c>
-      <c r="J130" t="n">
-        <v>13.97000000000002</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-17.24137931034491</v>
-      </c>
-      <c r="L130" t="n">
-        <v>8.889000000000006</v>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>8.884500000000001</v>
-      </c>
-      <c r="N130" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5081,16 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>-3.25</v>
-      </c>
-      <c r="J131" t="n">
-        <v>13.99000000000002</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-7.692307692307482</v>
-      </c>
-      <c r="L131" t="n">
-        <v>8.882000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>8.893000000000001</v>
-      </c>
-      <c r="N131" t="n">
-        <v>8.973333333333333</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,1099 +5120,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>-3.219999999999999</v>
-      </c>
-      <c r="J132" t="n">
-        <v>14.02000000000002</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L132" t="n">
-        <v>8.883000000000004</v>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>8.897</v>
-      </c>
-      <c r="N132" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="C133" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="D133" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="E133" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F133" t="n">
-        <v>52417926.0242</v>
-      </c>
-      <c r="G133" t="n">
-        <v>9.375666666666666</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>-3.209999999999999</v>
-      </c>
-      <c r="J133" t="n">
-        <v>14.03000000000002</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>8.876000000000005</v>
-      </c>
-      <c r="M133" t="n">
-        <v>8.902999999999999</v>
-      </c>
-      <c r="N133" t="n">
-        <v>8.940666666666665</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="C134" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D134" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E134" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F134" t="n">
-        <v>18551927.3088</v>
-      </c>
-      <c r="G134" t="n">
-        <v>9.355333333333332</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>-3.219999999999999</v>
-      </c>
-      <c r="J134" t="n">
-        <v>14.04000000000002</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-14.28571428571392</v>
-      </c>
-      <c r="L134" t="n">
-        <v>8.875000000000004</v>
-      </c>
-      <c r="M134" t="n">
-        <v>8.912499999999998</v>
-      </c>
-      <c r="N134" t="n">
-        <v>8.928333333333333</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="C135" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="D135" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E135" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1140163.2834</v>
-      </c>
-      <c r="G135" t="n">
-        <v>9.335833333333332</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>-3.17</v>
-      </c>
-      <c r="J135" t="n">
-        <v>14.09000000000002</v>
-      </c>
-      <c r="K135" t="n">
-        <v>22.22222222222178</v>
-      </c>
-      <c r="L135" t="n">
-        <v>8.878000000000004</v>
-      </c>
-      <c r="M135" t="n">
-        <v>8.917999999999999</v>
-      </c>
-      <c r="N135" t="n">
-        <v>8.915666666666665</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="C136" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="D136" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E136" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="F136" t="n">
-        <v>16758508.611</v>
-      </c>
-      <c r="G136" t="n">
-        <v>9.314833333333331</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>-3.16</v>
-      </c>
-      <c r="J136" t="n">
-        <v>14.10000000000002</v>
-      </c>
-      <c r="K136" t="n">
-        <v>33.33333333333267</v>
-      </c>
-      <c r="L136" t="n">
-        <v>8.883000000000003</v>
-      </c>
-      <c r="M136" t="n">
-        <v>8.920999999999999</v>
-      </c>
-      <c r="N136" t="n">
-        <v>8.905999999999999</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="C137" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="D137" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E137" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="F137" t="n">
-        <v>46452635.868</v>
-      </c>
-      <c r="G137" t="n">
-        <v>9.292499999999999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>-3.139999999999999</v>
-      </c>
-      <c r="J137" t="n">
-        <v>14.12000000000002</v>
-      </c>
-      <c r="K137" t="n">
-        <v>55.55555555555644</v>
-      </c>
-      <c r="L137" t="n">
-        <v>8.891000000000002</v>
-      </c>
-      <c r="M137" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="N137" t="n">
-        <v>8.896999999999997</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="C138" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="D138" t="n">
-        <v>9</v>
-      </c>
-      <c r="E138" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1388788.3778</v>
-      </c>
-      <c r="G138" t="n">
-        <v>9.273999999999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>-3.109999999999999</v>
-      </c>
-      <c r="J138" t="n">
-        <v>14.15000000000002</v>
-      </c>
-      <c r="K138" t="n">
-        <v>70.00000000000053</v>
-      </c>
-      <c r="L138" t="n">
-        <v>8.904000000000002</v>
-      </c>
-      <c r="M138" t="n">
-        <v>8.915000000000001</v>
-      </c>
-      <c r="N138" t="n">
-        <v>8.896999999999997</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>9</v>
-      </c>
-      <c r="C139" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="D139" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="E139" t="n">
-        <v>9</v>
-      </c>
-      <c r="F139" t="n">
-        <v>4284803.0762</v>
-      </c>
-      <c r="G139" t="n">
-        <v>9.258499999999998</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>-3.07</v>
-      </c>
-      <c r="J139" t="n">
-        <v>14.19000000000002</v>
-      </c>
-      <c r="K139" t="n">
-        <v>72.72727272727316</v>
-      </c>
-      <c r="L139" t="n">
-        <v>8.922000000000002</v>
-      </c>
-      <c r="M139" t="n">
-        <v>8.912000000000001</v>
-      </c>
-      <c r="N139" t="n">
-        <v>8.898666666666662</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="C140" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="D140" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="E140" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F140" t="n">
-        <v>6633341.665005112</v>
-      </c>
-      <c r="G140" t="n">
-        <v>9.249499999999999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>-2.709999999999999</v>
-      </c>
-      <c r="J140" t="n">
-        <v>14.55000000000002</v>
-      </c>
-      <c r="K140" t="n">
-        <v>96.4285714285715</v>
-      </c>
-      <c r="L140" t="n">
-        <v>8.974000000000002</v>
-      </c>
-      <c r="M140" t="n">
-        <v>8.9315</v>
-      </c>
-      <c r="N140" t="n">
-        <v>8.914333333333328</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C141" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="D141" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E141" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2413117.4231</v>
-      </c>
-      <c r="G141" t="n">
-        <v>9.238999999999999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>-2.81</v>
-      </c>
-      <c r="J141" t="n">
-        <v>14.65000000000002</v>
-      </c>
-      <c r="K141" t="n">
-        <v>65.07936507936473</v>
-      </c>
-      <c r="L141" t="n">
-        <v>9.018000000000004</v>
-      </c>
-      <c r="M141" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="N141" t="n">
-        <v>8.934666666666661</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="C142" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="D142" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="E142" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="F142" t="n">
-        <v>3569162.0238</v>
-      </c>
-      <c r="G142" t="n">
-        <v>9.228499999999999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>-2.949999999999999</v>
-      </c>
-      <c r="J142" t="n">
-        <v>14.79000000000002</v>
-      </c>
-      <c r="K142" t="n">
-        <v>34.21052631578946</v>
-      </c>
-      <c r="L142" t="n">
-        <v>9.045000000000005</v>
-      </c>
-      <c r="M142" t="n">
-        <v>8.964</v>
-      </c>
-      <c r="N142" t="n">
-        <v>8.946333333333326</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="C143" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="D143" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="E143" t="n">
-        <v>9</v>
-      </c>
-      <c r="F143" t="n">
-        <v>548436.374</v>
-      </c>
-      <c r="G143" t="n">
-        <v>9.218499999999999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>-2.869999999999999</v>
-      </c>
-      <c r="J143" t="n">
-        <v>14.87000000000002</v>
-      </c>
-      <c r="K143" t="n">
-        <v>42.16867469879514</v>
-      </c>
-      <c r="L143" t="n">
-        <v>9.079000000000004</v>
-      </c>
-      <c r="M143" t="n">
-        <v>8.977499999999999</v>
-      </c>
-      <c r="N143" t="n">
-        <v>8.961666666666662</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="C144" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="D144" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="E144" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="F144" t="n">
-        <v>177260.4990485405</v>
-      </c>
-      <c r="G144" t="n">
-        <v>9.205999999999998</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>-2.949999999999999</v>
-      </c>
-      <c r="J144" t="n">
-        <v>14.95000000000002</v>
-      </c>
-      <c r="K144" t="n">
-        <v>25.58139534883725</v>
-      </c>
-      <c r="L144" t="n">
-        <v>9.106000000000005</v>
-      </c>
-      <c r="M144" t="n">
-        <v>8.990500000000001</v>
-      </c>
-      <c r="N144" t="n">
-        <v>8.976999999999995</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="C145" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="D145" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="E145" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="F145" t="n">
-        <v>124938.6374469055</v>
-      </c>
-      <c r="G145" t="n">
-        <v>9.196166666666667</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>-2.889999999999999</v>
-      </c>
-      <c r="J145" t="n">
-        <v>15.01000000000002</v>
-      </c>
-      <c r="K145" t="n">
-        <v>29.67032967032975</v>
-      </c>
-      <c r="L145" t="n">
-        <v>9.134000000000006</v>
-      </c>
-      <c r="M145" t="n">
-        <v>9.006</v>
-      </c>
-      <c r="N145" t="n">
-        <v>8.989999999999993</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="C146" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="E146" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F146" t="n">
-        <v>900513.4519</v>
-      </c>
-      <c r="G146" t="n">
-        <v>9.183166666666667</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J146" t="n">
-        <v>15.12000000000002</v>
-      </c>
-      <c r="K146" t="n">
-        <v>13.99999999999985</v>
-      </c>
-      <c r="L146" t="n">
-        <v>9.150000000000006</v>
-      </c>
-      <c r="M146" t="n">
-        <v>9.016499999999999</v>
-      </c>
-      <c r="N146" t="n">
-        <v>8.997333333333328</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="C147" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="D147" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="E147" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F147" t="n">
-        <v>638894.3257</v>
-      </c>
-      <c r="G147" t="n">
-        <v>9.170500000000001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>-3.07</v>
-      </c>
-      <c r="J147" t="n">
-        <v>15.19000000000002</v>
-      </c>
-      <c r="K147" t="n">
-        <v>3.846153846153754</v>
-      </c>
-      <c r="L147" t="n">
-        <v>9.157000000000005</v>
-      </c>
-      <c r="M147" t="n">
-        <v>9.023999999999999</v>
-      </c>
-      <c r="N147" t="n">
-        <v>8.998999999999993</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="C148" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D148" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="E148" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="F148" t="n">
-        <v>66242.43700000001</v>
-      </c>
-      <c r="G148" t="n">
-        <v>9.157500000000001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>-3.01</v>
-      </c>
-      <c r="J148" t="n">
-        <v>15.25000000000002</v>
-      </c>
-      <c r="K148" t="n">
-        <v>5.660377358490591</v>
-      </c>
-      <c r="L148" t="n">
-        <v>9.167000000000005</v>
-      </c>
-      <c r="M148" t="n">
-        <v>9.035499999999999</v>
-      </c>
-      <c r="N148" t="n">
-        <v>8.998999999999993</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="C149" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="D149" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="E149" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="F149" t="n">
-        <v>552726.2239</v>
-      </c>
-      <c r="G149" t="n">
-        <v>9.147333333333334</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>-2.959999999999999</v>
-      </c>
-      <c r="J149" t="n">
-        <v>15.30000000000002</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-33.33333333333318</v>
-      </c>
-      <c r="L149" t="n">
-        <v>9.178000000000006</v>
-      </c>
-      <c r="M149" t="n">
-        <v>9.049999999999999</v>
-      </c>
-      <c r="N149" t="n">
-        <v>9.00066666666666</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="C150" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="D150" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="E150" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="F150" t="n">
-        <v>191589.2021</v>
-      </c>
-      <c r="G150" t="n">
-        <v>9.137</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>-2.949999999999999</v>
-      </c>
-      <c r="J150" t="n">
-        <v>15.31000000000002</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-21.21212121212097</v>
-      </c>
-      <c r="L150" t="n">
-        <v>9.154000000000007</v>
-      </c>
-      <c r="M150" t="n">
-        <v>9.063999999999998</v>
-      </c>
-      <c r="N150" t="n">
-        <v>9.005666666666659</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="C151" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="D151" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="E151" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="F151" t="n">
-        <v>300640.2206</v>
-      </c>
-      <c r="G151" t="n">
-        <v>9.125666666666666</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>-2.949999999999999</v>
-      </c>
-      <c r="J151" t="n">
-        <v>15.31000000000002</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0</v>
-      </c>
-      <c r="L151" t="n">
-        <v>9.140000000000006</v>
-      </c>
-      <c r="M151" t="n">
-        <v>9.078999999999999</v>
-      </c>
-      <c r="N151" t="n">
-        <v>9.013333333333325</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="C152" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="D152" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="E152" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="F152" t="n">
-        <v>644684.0310622951</v>
-      </c>
-      <c r="G152" t="n">
-        <v>9.113</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>-2.969999999999999</v>
-      </c>
-      <c r="J152" t="n">
-        <v>15.33000000000002</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-21.73913043478241</v>
-      </c>
-      <c r="L152" t="n">
-        <v>9.138000000000005</v>
-      </c>
-      <c r="M152" t="n">
-        <v>9.0915</v>
-      </c>
-      <c r="N152" t="n">
-        <v>9.021999999999991</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="C153" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="D153" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="E153" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="F153" t="n">
-        <v>555299.7458</v>
-      </c>
-      <c r="G153" t="n">
-        <v>9.101499999999998</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>-2.949999999999999</v>
-      </c>
-      <c r="J153" t="n">
-        <v>15.35000000000002</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0</v>
-      </c>
-      <c r="L153" t="n">
-        <v>9.130000000000006</v>
-      </c>
-      <c r="M153" t="n">
-        <v>9.104499999999998</v>
-      </c>
-      <c r="N153" t="n">
-        <v>9.028333333333325</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-22 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-22 BackTest FZZ.xlsx
@@ -2481,14 +2481,20 @@
         <v>11.1465</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>9.779999999999999</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2516,14 +2522,20 @@
         <v>11.109</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>9.76</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2551,14 +2563,20 @@
         <v>11.07233333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>9.85</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2586,14 +2604,20 @@
         <v>11.03633333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>9.9</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2621,14 +2645,20 @@
         <v>11.00299999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>9.94</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2656,14 +2686,20 @@
         <v>10.96266666666666</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>10.2</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2691,14 +2727,20 @@
         <v>10.922</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2726,14 +2768,20 @@
         <v>10.882</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>9.960000000000001</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2768,7 +2816,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2803,7 +2855,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2838,7 +2894,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2873,7 +2933,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2908,7 +2972,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2943,7 +3011,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2978,7 +3050,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3013,7 +3089,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3041,14 +3121,20 @@
         <v>10.59</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>10.1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3076,14 +3162,20 @@
         <v>10.56833333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>10.2</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3118,7 +3210,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3153,7 +3249,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3188,7 +3288,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3223,7 +3327,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3258,7 +3366,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3405,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3328,7 +3444,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3363,7 +3483,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3398,7 +3522,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3433,7 +3561,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3468,7 +3600,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3503,7 +3639,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3538,7 +3678,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3573,7 +3717,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3608,7 +3756,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3643,7 +3795,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3674,11 +3830,15 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3709,11 +3869,15 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3744,11 +3908,15 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3779,11 +3947,15 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3818,7 +3990,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3849,11 +4025,15 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3884,11 +4064,15 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3919,11 +4103,15 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3954,11 +4142,15 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3989,11 +4181,15 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4024,11 +4220,15 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4059,11 +4259,15 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4098,7 +4302,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4133,7 +4341,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4168,7 +4380,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4203,7 +4419,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4238,7 +4458,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4266,18 +4490,16 @@
         <v>9.760333333333332</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>8.92</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M111" t="n">
@@ -4313,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>8.69</v>
+        <v>8.68</v>
       </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
@@ -4436,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>8.75</v>
+        <v>8.69</v>
       </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
@@ -4477,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>8.9</v>
+        <v>8.82</v>
       </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
@@ -4518,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>8.869999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
@@ -4594,14 +4816,12 @@
         <v>9.625000000000002</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
@@ -4635,14 +4855,12 @@
         <v>9.612333333333336</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>9.09</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
@@ -4676,14 +4894,12 @@
         <v>9.596833333333334</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>9</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
@@ -4717,14 +4933,12 @@
         <v>9.579666666666668</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>8.92</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
@@ -4758,14 +4972,12 @@
         <v>9.563333333333334</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>8.869999999999999</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
@@ -4799,14 +5011,12 @@
         <v>9.541500000000001</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>8.869999999999999</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
@@ -4840,14 +5050,12 @@
         <v>9.525166666666667</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>8.869999999999999</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
@@ -4881,14 +5089,12 @@
         <v>9.507333333333332</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>8.890000000000001</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
@@ -5081,18 +5287,16 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5120,15 +5324,11 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-22 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-22 BackTest FZZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>361331.1893545454</v>
       </c>
       <c r="G2" t="n">
+        <v>12.19999999999999</v>
+      </c>
+      <c r="H2" t="n">
         <v>12.40833333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>414326.9583</v>
       </c>
       <c r="G3" t="n">
+        <v>12.19999999999999</v>
+      </c>
+      <c r="H3" t="n">
         <v>12.39666666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>381111.9234454546</v>
       </c>
       <c r="G4" t="n">
+        <v>12.21333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>12.38166666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>513038.5508245901</v>
       </c>
       <c r="G5" t="n">
+        <v>12.22666666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>12.36166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>692174.8077754099</v>
       </c>
       <c r="G6" t="n">
+        <v>12.23999999999999</v>
+      </c>
+      <c r="H6" t="n">
         <v>12.33666666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1398605.0335</v>
       </c>
       <c r="G7" t="n">
+        <v>12.26666666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>12.31666666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1815359.7187</v>
       </c>
       <c r="G8" t="n">
+        <v>12.27333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>12.29166666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1175059.45652459</v>
       </c>
       <c r="G9" t="n">
+        <v>12.26666666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>12.26833333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>3448482.81987541</v>
       </c>
       <c r="G10" t="n">
+        <v>12.26666666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>12.255</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>6009872.6166</v>
       </c>
       <c r="G11" t="n">
+        <v>12.24666666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>12.24166666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>163333.8735395161</v>
       </c>
       <c r="G12" t="n">
+        <v>12.23333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>12.22166666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>695209.8958000001</v>
       </c>
       <c r="G13" t="n">
+        <v>12.21333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>12.2</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>3036738.7403</v>
       </c>
       <c r="G14" t="n">
+        <v>12.17333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>12.165</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1112733.0343</v>
       </c>
       <c r="G15" t="n">
+        <v>12.15333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>12.14</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>631302.575</v>
       </c>
       <c r="G16" t="n">
+        <v>12.12666666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>12.11166666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1047779.283515254</v>
       </c>
       <c r="G17" t="n">
+        <v>12.09333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>12.085</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1285694.0624</v>
       </c>
       <c r="G18" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="H18" t="n">
         <v>12.06333333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>2860392.1584</v>
       </c>
       <c r="G19" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="H19" t="n">
         <v>12.03666666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1527598.6664</v>
       </c>
       <c r="G20" t="n">
+        <v>11.98666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>12.02333333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>790084.0399</v>
       </c>
       <c r="G21" t="n">
+        <v>11.94666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>12.01333333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>147752.8418</v>
       </c>
       <c r="G22" t="n">
+        <v>11.88666666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>12.005</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>19460.887</v>
       </c>
       <c r="G23" t="n">
+        <v>11.83333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>11.99833333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>301552.7994</v>
       </c>
       <c r="G24" t="n">
+        <v>11.78666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>11.995</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>1084874.331</v>
       </c>
       <c r="G25" t="n">
+        <v>11.70666666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>11.98333333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>571691.140326087</v>
       </c>
       <c r="G26" t="n">
+        <v>11.64666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>11.97333333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1135841.9279</v>
       </c>
       <c r="G27" t="n">
+        <v>11.59333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>11.96833333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>1532387.8386</v>
       </c>
       <c r="G28" t="n">
+        <v>11.54666666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>11.96333333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>220156.9542739131</v>
       </c>
       <c r="G29" t="n">
+        <v>11.54666666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>11.955</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>749520.0048</v>
       </c>
       <c r="G30" t="n">
+        <v>11.50666666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>11.94333333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>126096.7309</v>
       </c>
       <c r="G31" t="n">
+        <v>11.47333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>11.93333333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>341339.0067</v>
       </c>
       <c r="G32" t="n">
+        <v>11.45333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>11.92333333333334</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>428364.2398</v>
       </c>
       <c r="G33" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="H33" t="n">
         <v>11.91</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>1113954.7691</v>
       </c>
       <c r="G34" t="n">
+        <v>11.42666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>11.89666666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1220463.290485965</v>
       </c>
       <c r="G35" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H35" t="n">
         <v>11.885</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>352890.2223</v>
       </c>
       <c r="G36" t="n">
+        <v>11.37333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>11.875</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>566168.7173</v>
       </c>
       <c r="G37" t="n">
+        <v>11.34666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>11.86666666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>2972070.149327273</v>
       </c>
       <c r="G38" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="H38" t="n">
         <v>11.84666666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>2680295.0504</v>
       </c>
       <c r="G39" t="n">
+        <v>11.22666666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>11.825</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>2489323.57673945</v>
       </c>
       <c r="G40" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H40" t="n">
         <v>11.805</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>342160.7203</v>
       </c>
       <c r="G41" t="n">
+        <v>11.17333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>11.78833333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>1339177.179960551</v>
       </c>
       <c r="G42" t="n">
+        <v>11.12666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>11.77333333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>501705.3977818182</v>
       </c>
       <c r="G43" t="n">
+        <v>11.08666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>11.75833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>1121074.379718182</v>
       </c>
       <c r="G44" t="n">
+        <v>11.05333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>11.74333333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>722609.2377818181</v>
       </c>
       <c r="G45" t="n">
+        <v>11.03333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>11.725</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>137798.9438</v>
       </c>
       <c r="G46" t="n">
+        <v>11.00666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>11.70333333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>1754030.1733</v>
       </c>
       <c r="G47" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="H47" t="n">
         <v>11.67666666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>8613065.7612</v>
       </c>
       <c r="G48" t="n">
+        <v>10.86666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>11.64166666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>5700266.4594</v>
       </c>
       <c r="G49" t="n">
+        <v>10.79333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>11.61333333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>8402080.042165048</v>
       </c>
       <c r="G50" t="n">
+        <v>10.70666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>11.58</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>4133550.5417</v>
       </c>
       <c r="G51" t="n">
+        <v>10.616</v>
+      </c>
+      <c r="H51" t="n">
         <v>11.544</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>2459229.2119</v>
       </c>
       <c r="G52" t="n">
+        <v>10.53933333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>11.50983333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>5228347.2596</v>
       </c>
       <c r="G53" t="n">
+        <v>10.51266666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>11.47483333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>2063785.2134</v>
       </c>
       <c r="G54" t="n">
+        <v>10.46066666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>11.43516666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>4016114.0676</v>
       </c>
       <c r="G55" t="n">
+        <v>10.39466666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>11.392</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>1516284.5484</v>
       </c>
       <c r="G56" t="n">
+        <v>10.32866666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>11.34883333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>4446805.1021</v>
       </c>
       <c r="G57" t="n">
+        <v>10.27266666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>11.3065</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>2208706.0524</v>
       </c>
       <c r="G58" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="H58" t="n">
         <v>11.26416666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>2265073.469663968</v>
       </c>
       <c r="G59" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="H59" t="n">
         <v>11.22583333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>2103354.486820778</v>
       </c>
       <c r="G60" t="n">
+        <v>10.05533333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>11.18716666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>1785391.0187</v>
       </c>
       <c r="G61" t="n">
+        <v>9.979333333333328</v>
+      </c>
+      <c r="H61" t="n">
         <v>11.1465</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>2828784.2478</v>
       </c>
       <c r="G62" t="n">
+        <v>9.929333333333327</v>
+      </c>
+      <c r="H62" t="n">
         <v>11.109</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>1360821.6287</v>
       </c>
       <c r="G63" t="n">
+        <v>9.922666666666661</v>
+      </c>
+      <c r="H63" t="n">
         <v>11.07233333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>5085176.9231</v>
       </c>
       <c r="G64" t="n">
+        <v>9.905333333333328</v>
+      </c>
+      <c r="H64" t="n">
         <v>11.03633333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>2257843.3283</v>
       </c>
       <c r="G65" t="n">
+        <v>9.918666666666661</v>
+      </c>
+      <c r="H65" t="n">
         <v>11.00299999999999</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>4455805.533564356</v>
       </c>
       <c r="G66" t="n">
+        <v>9.91466666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>10.96266666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>405345.5291</v>
       </c>
       <c r="G67" t="n">
+        <v>9.915333333333329</v>
+      </c>
+      <c r="H67" t="n">
         <v>10.922</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>1815000.3718</v>
       </c>
       <c r="G68" t="n">
+        <v>9.901999999999996</v>
+      </c>
+      <c r="H68" t="n">
         <v>10.882</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>902713.1435</v>
       </c>
       <c r="G69" t="n">
+        <v>9.901999999999996</v>
+      </c>
+      <c r="H69" t="n">
         <v>10.844</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>1724698.8504</v>
       </c>
       <c r="G70" t="n">
+        <v>9.927999999999995</v>
+      </c>
+      <c r="H70" t="n">
         <v>10.80733333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>2169496.5292</v>
       </c>
       <c r="G71" t="n">
+        <v>9.940666666666662</v>
+      </c>
+      <c r="H71" t="n">
         <v>10.77233333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>1097853.6251</v>
       </c>
       <c r="G72" t="n">
+        <v>9.937333333333328</v>
+      </c>
+      <c r="H72" t="n">
         <v>10.7325</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>1228316.6457</v>
       </c>
       <c r="G73" t="n">
+        <v>9.93666666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>10.695</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>915894.1813000001</v>
       </c>
       <c r="G74" t="n">
+        <v>9.949999999999992</v>
+      </c>
+      <c r="H74" t="n">
         <v>10.67</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>1534686.8781</v>
       </c>
       <c r="G75" t="n">
+        <v>9.971333333333325</v>
+      </c>
+      <c r="H75" t="n">
         <v>10.64166666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>512770.6067</v>
       </c>
       <c r="G76" t="n">
+        <v>9.993999999999993</v>
+      </c>
+      <c r="H76" t="n">
         <v>10.61333333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>130855.5394313726</v>
       </c>
       <c r="G77" t="n">
+        <v>10.01733333333332</v>
+      </c>
+      <c r="H77" t="n">
         <v>10.59</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>1035707.684630166</v>
       </c>
       <c r="G78" t="n">
+        <v>10.04399999999999</v>
+      </c>
+      <c r="H78" t="n">
         <v>10.56833333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>2752415.7345</v>
       </c>
       <c r="G79" t="n">
+        <v>10.05466666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>10.545</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>1413031.6586</v>
       </c>
       <c r="G80" t="n">
+        <v>10.03866666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>10.516</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>1170482.9236</v>
       </c>
       <c r="G81" t="n">
+        <v>10.04199999999999</v>
+      </c>
+      <c r="H81" t="n">
         <v>10.4865</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>335972.8460529708</v>
       </c>
       <c r="G82" t="n">
+        <v>10.03933333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>10.46016666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>2324715.0985</v>
       </c>
       <c r="G83" t="n">
+        <v>10.03133333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>10.4315</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>279659.8361</v>
       </c>
       <c r="G84" t="n">
+        <v>10.02533333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>10.40366666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>150935.8067</v>
       </c>
       <c r="G85" t="n">
+        <v>10.00533333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>10.382</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>212156.3323677811</v>
       </c>
       <c r="G86" t="n">
+        <v>9.98533333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>10.357</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>404305.1614</v>
       </c>
       <c r="G87" t="n">
+        <v>9.983333333333329</v>
+      </c>
+      <c r="H87" t="n">
         <v>10.32999999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>758739.8808</v>
       </c>
       <c r="G88" t="n">
+        <v>9.972666666666663</v>
+      </c>
+      <c r="H88" t="n">
         <v>10.3015</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>168976.4122</v>
       </c>
       <c r="G89" t="n">
+        <v>9.963999999999997</v>
+      </c>
+      <c r="H89" t="n">
         <v>10.27433333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>371869.3897</v>
       </c>
       <c r="G90" t="n">
+        <v>9.940666666666663</v>
+      </c>
+      <c r="H90" t="n">
         <v>10.25016666666666</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>82829.70318130081</v>
       </c>
       <c r="G91" t="n">
+        <v>9.918666666666665</v>
+      </c>
+      <c r="H91" t="n">
         <v>10.22466666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>1225284.0495</v>
       </c>
       <c r="G92" t="n">
+        <v>9.894</v>
+      </c>
+      <c r="H92" t="n">
         <v>10.20016666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>2729353.367933166</v>
       </c>
       <c r="G93" t="n">
+        <v>9.866666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>10.175</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>15248201.4463</v>
       </c>
       <c r="G94" t="n">
+        <v>9.849333333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>10.15066666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>56177306.6863</v>
       </c>
       <c r="G95" t="n">
+        <v>9.841333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>10.12633333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>94032356.28955285</v>
       </c>
       <c r="G96" t="n">
+        <v>9.831333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>10.101</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>82598427.7369</v>
       </c>
       <c r="G97" t="n">
+        <v>9.820666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>10.07866666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>84878950.473</v>
       </c>
       <c r="G98" t="n">
+        <v>9.816000000000001</v>
+      </c>
+      <c r="H98" t="n">
         <v>10.0655</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>120564999.3868</v>
       </c>
       <c r="G99" t="n">
+        <v>9.807333333333332</v>
+      </c>
+      <c r="H99" t="n">
         <v>10.04883333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>55048673.39735773</v>
       </c>
       <c r="G100" t="n">
+        <v>9.792666666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>10.03016666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>2398499.7259</v>
       </c>
       <c r="G101" t="n">
+        <v>9.753333333333332</v>
+      </c>
+      <c r="H101" t="n">
         <v>10.002</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>3143565.38</v>
       </c>
       <c r="G102" t="n">
+        <v>9.717999999999998</v>
+      </c>
+      <c r="H102" t="n">
         <v>9.977833333333335</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>3338810.645</v>
       </c>
       <c r="G103" t="n">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>9.950833333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>2265182.9607</v>
       </c>
       <c r="G104" t="n">
+        <v>9.657333333333332</v>
+      </c>
+      <c r="H104" t="n">
         <v>9.925333333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>940091.0578</v>
       </c>
       <c r="G105" t="n">
+        <v>9.623999999999999</v>
+      </c>
+      <c r="H105" t="n">
         <v>9.897833333333335</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>999970.6159</v>
       </c>
       <c r="G106" t="n">
+        <v>9.593333333333332</v>
+      </c>
+      <c r="H106" t="n">
         <v>9.871333333333334</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>1669706.991561464</v>
       </c>
       <c r="G107" t="n">
+        <v>9.553333333333331</v>
+      </c>
+      <c r="H107" t="n">
         <v>9.848500000000001</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>2883308.0678</v>
       </c>
       <c r="G108" t="n">
+        <v>9.509333333333329</v>
+      </c>
+      <c r="H108" t="n">
         <v>9.835666666666668</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>4524792.359766667</v>
       </c>
       <c r="G109" t="n">
+        <v>9.452666666666662</v>
+      </c>
+      <c r="H109" t="n">
         <v>9.815500000000002</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>1624426.4203</v>
       </c>
       <c r="G110" t="n">
+        <v>9.395333333333328</v>
+      </c>
+      <c r="H110" t="n">
         <v>9.798500000000001</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>4426088.9271</v>
       </c>
       <c r="G111" t="n">
+        <v>9.337999999999994</v>
+      </c>
+      <c r="H111" t="n">
         <v>9.781499999999999</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>1570728.8306</v>
       </c>
       <c r="G112" t="n">
+        <v>9.265999999999995</v>
+      </c>
+      <c r="H112" t="n">
         <v>9.760333333333332</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>2352194.6862</v>
       </c>
       <c r="G113" t="n">
+        <v>9.205333333333328</v>
+      </c>
+      <c r="H113" t="n">
         <v>9.738666666666663</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>979716.6282</v>
       </c>
       <c r="G114" t="n">
+        <v>9.143333333333329</v>
+      </c>
+      <c r="H114" t="n">
         <v>9.719499999999998</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>1062756.5178</v>
       </c>
       <c r="G115" t="n">
+        <v>9.07733333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>9.700833333333332</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,22 +4785,21 @@
         <v>1672683.2135</v>
       </c>
       <c r="G116" t="n">
+        <v>9.051333333333329</v>
+      </c>
+      <c r="H116" t="n">
         <v>9.682666666666668</v>
       </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K116" t="n">
-        <v>8.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,26 +4823,27 @@
         <v>795956.9815</v>
       </c>
       <c r="G117" t="n">
+        <v>9.019999999999994</v>
+      </c>
+      <c r="H117" t="n">
         <v>9.664666666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
         <v>8.82</v>
       </c>
-      <c r="K117" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4520,26 +4867,27 @@
         <v>943086.0889</v>
       </c>
       <c r="G118" t="n">
+        <v>8.999999999999995</v>
+      </c>
+      <c r="H118" t="n">
         <v>9.648333333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="K118" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4563,26 +4911,27 @@
         <v>1911990.770546871</v>
       </c>
       <c r="G119" t="n">
+        <v>8.974666666666661</v>
+      </c>
+      <c r="H119" t="n">
         <v>9.636500000000002</v>
       </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
         <v>8.98</v>
       </c>
-      <c r="K119" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4606,26 +4955,27 @@
         <v>1142806.411553128</v>
       </c>
       <c r="G120" t="n">
+        <v>8.963999999999995</v>
+      </c>
+      <c r="H120" t="n">
         <v>9.625000000000002</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
         <v>9.09</v>
       </c>
-      <c r="K120" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4649,26 +4999,27 @@
         <v>1746646.1814</v>
       </c>
       <c r="G121" t="n">
+        <v>8.943333333333328</v>
+      </c>
+      <c r="H121" t="n">
         <v>9.612333333333336</v>
       </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
         <v>9.09</v>
       </c>
-      <c r="K121" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4692,26 +5043,27 @@
         <v>1827706.1624</v>
       </c>
       <c r="G122" t="n">
+        <v>8.922666666666661</v>
+      </c>
+      <c r="H122" t="n">
         <v>9.596833333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
         <v>9</v>
       </c>
-      <c r="K122" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4735,24 +5087,27 @@
         <v>1174906.683</v>
       </c>
       <c r="G123" t="n">
+        <v>8.898666666666662</v>
+      </c>
+      <c r="H123" t="n">
         <v>9.579666666666668</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="L123" t="inlineStr">
+        <v>8.92</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4776,24 +5131,27 @@
         <v>19030870.92628571</v>
       </c>
       <c r="G124" t="n">
+        <v>8.896666666666663</v>
+      </c>
+      <c r="H124" t="n">
         <v>9.563333333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="L124" t="inlineStr">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4817,24 +5175,27 @@
         <v>43524186.718</v>
       </c>
       <c r="G125" t="n">
+        <v>8.890666666666663</v>
+      </c>
+      <c r="H125" t="n">
         <v>9.541500000000001</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="L125" t="inlineStr">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,24 +5219,27 @@
         <v>153889251.3019</v>
       </c>
       <c r="G126" t="n">
+        <v>8.88933333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>9.525166666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="L126" t="inlineStr">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4899,24 +5263,25 @@
         <v>109986897.5702</v>
       </c>
       <c r="G127" t="n">
+        <v>8.903333333333331</v>
+      </c>
+      <c r="H127" t="n">
         <v>9.507333333333332</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4940,24 +5305,25 @@
         <v>77373074.19329999</v>
       </c>
       <c r="G128" t="n">
+        <v>8.908666666666663</v>
+      </c>
+      <c r="H128" t="n">
         <v>9.490333333333332</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,24 +5347,25 @@
         <v>116617880.5436</v>
       </c>
       <c r="G129" t="n">
+        <v>8.914666666666664</v>
+      </c>
+      <c r="H129" t="n">
         <v>9.472666666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5022,25 +5389,26 @@
         <v>148801650</v>
       </c>
       <c r="G130" t="n">
+        <v>8.925333333333329</v>
+      </c>
+      <c r="H130" t="n">
         <v>9.450166666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="L130" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1.013411967779057</v>
+      <c r="N130" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -5063,18 +5431,25 @@
         <v>30141424.6055</v>
       </c>
       <c r="G131" t="n">
+        <v>8.928666666666663</v>
+      </c>
+      <c r="H131" t="n">
         <v>9.429666666666666</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5098,18 +5473,25 @@
         <v>124720756.0081</v>
       </c>
       <c r="G132" t="n">
+        <v>8.926666666666664</v>
+      </c>
+      <c r="H132" t="n">
         <v>9.412000000000001</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5133,18 +5515,445 @@
         <v>146706111.4443327</v>
       </c>
       <c r="G133" t="n">
+        <v>8.919999999999996</v>
+      </c>
+      <c r="H133" t="n">
         <v>9.394166666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="C134" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="E134" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F134" t="n">
+        <v>52417926.0242</v>
+      </c>
+      <c r="G134" t="n">
+        <v>8.906666666666663</v>
+      </c>
+      <c r="H134" t="n">
+        <v>9.375666666666666</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="C135" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D135" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F135" t="n">
+        <v>18551927.3088</v>
+      </c>
+      <c r="G135" t="n">
+        <v>8.892666666666662</v>
+      </c>
+      <c r="H135" t="n">
+        <v>9.355333333333332</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="D136" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E136" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1140163.2834</v>
+      </c>
+      <c r="G136" t="n">
+        <v>8.887999999999996</v>
+      </c>
+      <c r="H136" t="n">
+        <v>9.335833333333332</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="C137" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E137" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="F137" t="n">
+        <v>16758508.611</v>
+      </c>
+      <c r="G137" t="n">
+        <v>8.88933333333333</v>
+      </c>
+      <c r="H137" t="n">
+        <v>9.314833333333331</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="C138" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="D138" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E138" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="F138" t="n">
+        <v>46452635.868</v>
+      </c>
+      <c r="G138" t="n">
+        <v>8.89533333333333</v>
+      </c>
+      <c r="H138" t="n">
+        <v>9.292499999999999</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="C139" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1388788.3778</v>
+      </c>
+      <c r="G139" t="n">
+        <v>8.89733333333333</v>
+      </c>
+      <c r="H139" t="n">
+        <v>9.273999999999999</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>9</v>
+      </c>
+      <c r="C140" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="E140" t="n">
+        <v>9</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4284803.0762</v>
+      </c>
+      <c r="G140" t="n">
+        <v>8.906666666666665</v>
+      </c>
+      <c r="H140" t="n">
+        <v>9.258499999999998</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="E141" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6633341.665005112</v>
+      </c>
+      <c r="G141" t="n">
+        <v>8.93933333333333</v>
+      </c>
+      <c r="H141" t="n">
+        <v>9.249499999999999</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="D142" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2413117.4231</v>
+      </c>
+      <c r="G142" t="n">
+        <v>8.965999999999998</v>
+      </c>
+      <c r="H142" t="n">
+        <v>9.238999999999999</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3569162.0238</v>
+      </c>
+      <c r="G143" t="n">
+        <v>8.983999999999998</v>
+      </c>
+      <c r="H143" t="n">
+        <v>9.228499999999999</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-22 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-22 BackTest FZZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N143"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D2" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E2" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F2" t="n">
-        <v>361331.1893545454</v>
+        <v>2686209.5994</v>
       </c>
       <c r="G2" t="n">
-        <v>12.19999999999999</v>
+        <v>-14986797.83501121</v>
       </c>
       <c r="H2" t="n">
-        <v>12.40833333333333</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C3" t="n">
         <v>12.1</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E3" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F3" t="n">
-        <v>414326.9583</v>
+        <v>1839711.5886</v>
       </c>
       <c r="G3" t="n">
-        <v>12.19999999999999</v>
+        <v>-16826509.42361121</v>
       </c>
       <c r="H3" t="n">
-        <v>12.39666666666667</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>12.2</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +509,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
         <v>12.1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1709000.1446</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-18535509.56821121</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
         <v>12.1</v>
       </c>
-      <c r="D4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12</v>
-      </c>
-      <c r="F4" t="n">
-        <v>381111.9234454546</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12.21333333333333</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12.38166666666667</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +550,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C5" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D5" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E5" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F5" t="n">
-        <v>513038.5508245901</v>
+        <v>1090565.148566667</v>
       </c>
       <c r="G5" t="n">
-        <v>12.22666666666666</v>
+        <v>-19626074.71677788</v>
       </c>
       <c r="H5" t="n">
-        <v>12.36166666666667</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +591,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C6" t="n">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
       <c r="D6" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="F6" t="n">
-        <v>692174.8077754099</v>
+        <v>2044971.1093</v>
       </c>
       <c r="G6" t="n">
-        <v>12.23999999999999</v>
+        <v>-21671045.82607787</v>
       </c>
       <c r="H6" t="n">
-        <v>12.33666666666667</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>11.9</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +632,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
       <c r="C7" t="n">
-        <v>12.4</v>
+        <v>11.7</v>
       </c>
       <c r="D7" t="n">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="E7" t="n">
-        <v>12.2</v>
+        <v>11.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1398605.0335</v>
+        <v>851289.8443</v>
       </c>
       <c r="G7" t="n">
-        <v>12.26666666666666</v>
+        <v>-20819755.98177788</v>
       </c>
       <c r="H7" t="n">
-        <v>12.31666666666667</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>11.6</v>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +673,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="C8" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1815359.7187</v>
+        <v>1311813.4437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.27333333333333</v>
+        <v>-19507942.53807788</v>
       </c>
       <c r="H8" t="n">
-        <v>12.29166666666667</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>11.7</v>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +714,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="C9" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E9" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F9" t="n">
-        <v>1175059.45652459</v>
+        <v>1247719.0118</v>
       </c>
       <c r="G9" t="n">
-        <v>12.26666666666666</v>
+        <v>-19507942.53807788</v>
       </c>
       <c r="H9" t="n">
-        <v>12.26833333333333</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +755,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="D10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F10" t="n">
-        <v>3448482.81987541</v>
+        <v>393243.3939</v>
       </c>
       <c r="G10" t="n">
-        <v>12.26666666666666</v>
+        <v>-19901185.93197788</v>
       </c>
       <c r="H10" t="n">
-        <v>12.255</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +796,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="C11" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="D11" t="n">
-        <v>12.5</v>
+        <v>11.9</v>
       </c>
       <c r="E11" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="F11" t="n">
-        <v>6009872.6166</v>
+        <v>188843.9257</v>
       </c>
       <c r="G11" t="n">
-        <v>12.24666666666666</v>
+        <v>-20090029.85767788</v>
       </c>
       <c r="H11" t="n">
-        <v>12.24166666666667</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>11.9</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +837,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="C12" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="D12" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="E12" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F12" t="n">
-        <v>163333.8735395161</v>
+        <v>236149.1817</v>
       </c>
       <c r="G12" t="n">
-        <v>12.23333333333333</v>
+        <v>-19853880.67597788</v>
       </c>
       <c r="H12" t="n">
-        <v>12.22166666666667</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>11.7</v>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +878,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="C13" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D13" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="E13" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F13" t="n">
-        <v>695209.8958000001</v>
+        <v>576905.8841</v>
       </c>
       <c r="G13" t="n">
-        <v>12.21333333333333</v>
+        <v>-19276974.79187788</v>
       </c>
       <c r="H13" t="n">
-        <v>12.2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>11.8</v>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +919,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="F14" t="n">
-        <v>3036738.7403</v>
+        <v>658664.8334999999</v>
       </c>
       <c r="G14" t="n">
-        <v>12.17333333333333</v>
+        <v>-18618309.95837788</v>
       </c>
       <c r="H14" t="n">
-        <v>12.165</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,74 +958,70 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="D15" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E15" t="n">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>1112733.0343</v>
+        <v>339786.1795</v>
       </c>
       <c r="G15" t="n">
-        <v>12.15333333333333</v>
+        <v>-18278523.77887788</v>
       </c>
       <c r="H15" t="n">
-        <v>12.14</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="D16" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E16" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>631302.575</v>
+        <v>1249634.3279</v>
       </c>
       <c r="G16" t="n">
-        <v>12.12666666666666</v>
+        <v>-18278523.77887788</v>
       </c>
       <c r="H16" t="n">
-        <v>12.11166666666667</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +1030,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="C17" t="n">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="D17" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="E17" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>1047779.283515254</v>
+        <v>677945.7581131147</v>
       </c>
       <c r="G17" t="n">
-        <v>12.09333333333333</v>
+        <v>-18956469.53699099</v>
       </c>
       <c r="H17" t="n">
-        <v>12.085</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1065,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="D18" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E18" t="n">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="F18" t="n">
-        <v>1285694.0624</v>
+        <v>1195278.3905</v>
       </c>
       <c r="G18" t="n">
-        <v>12.06</v>
+        <v>-20151747.92749099</v>
       </c>
       <c r="H18" t="n">
-        <v>12.06333333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1100,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="C19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E19" t="n">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="F19" t="n">
-        <v>2860392.1584</v>
+        <v>1028698.9434</v>
       </c>
       <c r="G19" t="n">
-        <v>12.02</v>
+        <v>-19123048.984091</v>
       </c>
       <c r="H19" t="n">
-        <v>12.03666666666667</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>11.9</v>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1141,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D20" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E20" t="n">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
       <c r="F20" t="n">
-        <v>1527598.6664</v>
+        <v>565298.1183876033</v>
       </c>
       <c r="G20" t="n">
-        <v>11.98666666666666</v>
+        <v>-18557750.86570339</v>
       </c>
       <c r="H20" t="n">
-        <v>12.02333333333333</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1182,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="C21" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="E21" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>790084.0399</v>
+        <v>1424400.8606</v>
       </c>
       <c r="G21" t="n">
-        <v>11.94666666666666</v>
+        <v>-19982151.72630339</v>
       </c>
       <c r="H21" t="n">
-        <v>12.01333333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1221,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C22" t="n">
-        <v>11.5</v>
+        <v>12.2</v>
       </c>
       <c r="D22" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="E22" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>147752.8418</v>
+        <v>279971.3464</v>
       </c>
       <c r="G22" t="n">
-        <v>11.88666666666666</v>
+        <v>-19702180.37990339</v>
       </c>
       <c r="H22" t="n">
-        <v>12.005</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1262,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="C23" t="n">
-        <v>11.5</v>
+        <v>12.3</v>
       </c>
       <c r="D23" t="n">
-        <v>11.6</v>
+        <v>12.3</v>
       </c>
       <c r="E23" t="n">
-        <v>11.5</v>
+        <v>12.1</v>
       </c>
       <c r="F23" t="n">
-        <v>19460.887</v>
+        <v>1555824.534112397</v>
       </c>
       <c r="G23" t="n">
-        <v>11.83333333333333</v>
+        <v>-18146355.84579099</v>
       </c>
       <c r="H23" t="n">
-        <v>11.99833333333333</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>12.2</v>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1303,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.6</v>
+        <v>12.4</v>
       </c>
       <c r="C24" t="n">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="D24" t="n">
-        <v>11.6</v>
+        <v>12.5</v>
       </c>
       <c r="E24" t="n">
-        <v>11.5</v>
+        <v>12.3</v>
       </c>
       <c r="F24" t="n">
-        <v>301552.7994</v>
+        <v>1600781.4384</v>
       </c>
       <c r="G24" t="n">
-        <v>11.78666666666666</v>
+        <v>-16545574.40739099</v>
       </c>
       <c r="H24" t="n">
-        <v>11.995</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>12.3</v>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1344,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="C25" t="n">
-        <v>11.2</v>
+        <v>12.5</v>
       </c>
       <c r="D25" t="n">
-        <v>11.5</v>
+        <v>12.7</v>
       </c>
       <c r="E25" t="n">
-        <v>11.2</v>
+        <v>12.4</v>
       </c>
       <c r="F25" t="n">
-        <v>1084874.331</v>
+        <v>2081506.4373</v>
       </c>
       <c r="G25" t="n">
-        <v>11.70666666666666</v>
+        <v>-14464067.97009099</v>
       </c>
       <c r="H25" t="n">
-        <v>11.98333333333334</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>12.4</v>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1385,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.3</v>
+        <v>12.5</v>
       </c>
       <c r="C26" t="n">
-        <v>11.3</v>
+        <v>12.5</v>
       </c>
       <c r="D26" t="n">
-        <v>11.6</v>
+        <v>12.6</v>
       </c>
       <c r="E26" t="n">
-        <v>11.2</v>
+        <v>12.3</v>
       </c>
       <c r="F26" t="n">
-        <v>571691.140326087</v>
+        <v>1963077.71</v>
       </c>
       <c r="G26" t="n">
-        <v>11.64666666666666</v>
+        <v>-14464067.97009099</v>
       </c>
       <c r="H26" t="n">
-        <v>11.97333333333333</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1426,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.3</v>
+        <v>12.4</v>
       </c>
       <c r="C27" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="D27" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="E27" t="n">
-        <v>11.1</v>
+        <v>12.4</v>
       </c>
       <c r="F27" t="n">
-        <v>1135841.9279</v>
+        <v>170230.28</v>
       </c>
       <c r="G27" t="n">
-        <v>11.59333333333333</v>
+        <v>-14464067.97009099</v>
       </c>
       <c r="H27" t="n">
-        <v>11.96833333333334</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1467,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="C28" t="n">
-        <v>11.5</v>
+        <v>12.1</v>
       </c>
       <c r="D28" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="E28" t="n">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="F28" t="n">
-        <v>1532387.8386</v>
+        <v>2187442.47</v>
       </c>
       <c r="G28" t="n">
-        <v>11.54666666666666</v>
+        <v>-16651510.44009099</v>
       </c>
       <c r="H28" t="n">
-        <v>11.96333333333334</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1508,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.5</v>
+        <v>12.1</v>
       </c>
       <c r="C29" t="n">
-        <v>11.5</v>
+        <v>12.1</v>
       </c>
       <c r="D29" t="n">
-        <v>11.5</v>
+        <v>12.2</v>
       </c>
       <c r="E29" t="n">
-        <v>11.4</v>
+        <v>12.1</v>
       </c>
       <c r="F29" t="n">
-        <v>220156.9542739131</v>
+        <v>1062846.273354545</v>
       </c>
       <c r="G29" t="n">
-        <v>11.54666666666666</v>
+        <v>-16651510.44009099</v>
       </c>
       <c r="H29" t="n">
-        <v>11.955</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1547,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.3</v>
+        <v>12.1</v>
       </c>
       <c r="C30" t="n">
-        <v>11.2</v>
+        <v>12.2</v>
       </c>
       <c r="D30" t="n">
-        <v>11.5</v>
+        <v>12.2</v>
       </c>
       <c r="E30" t="n">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
       <c r="F30" t="n">
-        <v>749520.0048</v>
+        <v>307188.4241454545</v>
       </c>
       <c r="G30" t="n">
-        <v>11.50666666666666</v>
+        <v>-16344322.01594554</v>
       </c>
       <c r="H30" t="n">
-        <v>11.94333333333334</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1586,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
       <c r="C31" t="n">
-        <v>11.3</v>
+        <v>12.1</v>
       </c>
       <c r="D31" t="n">
-        <v>11.3</v>
+        <v>12.1</v>
       </c>
       <c r="E31" t="n">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
       <c r="F31" t="n">
-        <v>126096.7309</v>
+        <v>361331.1893545454</v>
       </c>
       <c r="G31" t="n">
-        <v>11.47333333333333</v>
+        <v>-16705653.20530008</v>
       </c>
       <c r="H31" t="n">
-        <v>11.93333333333334</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1625,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.3</v>
+        <v>12.1</v>
       </c>
       <c r="C32" t="n">
-        <v>11.3</v>
+        <v>12.1</v>
       </c>
       <c r="D32" t="n">
-        <v>11.3</v>
+        <v>12.1</v>
       </c>
       <c r="E32" t="n">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
       <c r="F32" t="n">
-        <v>341339.0067</v>
+        <v>414326.9583</v>
       </c>
       <c r="G32" t="n">
-        <v>11.45333333333333</v>
+        <v>-16705653.20530008</v>
       </c>
       <c r="H32" t="n">
-        <v>11.92333333333334</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1664,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.3</v>
+        <v>12.1</v>
       </c>
       <c r="C33" t="n">
-        <v>11.4</v>
+        <v>12.1</v>
       </c>
       <c r="D33" t="n">
-        <v>11.4</v>
+        <v>12.2</v>
       </c>
       <c r="E33" t="n">
-        <v>11.3</v>
+        <v>12</v>
       </c>
       <c r="F33" t="n">
-        <v>428364.2398</v>
+        <v>381111.9234454546</v>
       </c>
       <c r="G33" t="n">
-        <v>11.44</v>
+        <v>-16705653.20530008</v>
       </c>
       <c r="H33" t="n">
-        <v>11.91</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1703,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.4</v>
+        <v>12.2</v>
       </c>
       <c r="C34" t="n">
-        <v>11.3</v>
+        <v>12.2</v>
       </c>
       <c r="D34" t="n">
-        <v>11.5</v>
+        <v>12.2</v>
       </c>
       <c r="E34" t="n">
-        <v>11.3</v>
+        <v>12.1</v>
       </c>
       <c r="F34" t="n">
-        <v>1113954.7691</v>
+        <v>513038.5508245901</v>
       </c>
       <c r="G34" t="n">
-        <v>11.42666666666666</v>
+        <v>-16192614.65447549</v>
       </c>
       <c r="H34" t="n">
-        <v>11.89666666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1742,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.3</v>
+        <v>12.1</v>
       </c>
       <c r="C35" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
       <c r="D35" t="n">
-        <v>11.5</v>
+        <v>12.3</v>
       </c>
       <c r="E35" t="n">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
       <c r="F35" t="n">
-        <v>1220463.290485965</v>
+        <v>692174.8077754099</v>
       </c>
       <c r="G35" t="n">
-        <v>11.4</v>
+        <v>-15500439.84670008</v>
       </c>
       <c r="H35" t="n">
-        <v>11.885</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1781,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
       <c r="C36" t="n">
-        <v>11.3</v>
+        <v>12.4</v>
       </c>
       <c r="D36" t="n">
-        <v>11.3</v>
+        <v>12.4</v>
       </c>
       <c r="E36" t="n">
-        <v>11.2</v>
+        <v>12.2</v>
       </c>
       <c r="F36" t="n">
-        <v>352890.2223</v>
+        <v>1398605.0335</v>
       </c>
       <c r="G36" t="n">
-        <v>11.37333333333333</v>
+        <v>-14101834.81320008</v>
       </c>
       <c r="H36" t="n">
-        <v>11.875</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1820,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.3</v>
+        <v>12.4</v>
       </c>
       <c r="C37" t="n">
-        <v>11.1</v>
+        <v>12.3</v>
       </c>
       <c r="D37" t="n">
-        <v>11.4</v>
+        <v>12.5</v>
       </c>
       <c r="E37" t="n">
-        <v>11.1</v>
+        <v>12.3</v>
       </c>
       <c r="F37" t="n">
-        <v>566168.7173</v>
+        <v>1815359.7187</v>
       </c>
       <c r="G37" t="n">
-        <v>11.34666666666667</v>
+        <v>-15917194.53190008</v>
       </c>
       <c r="H37" t="n">
-        <v>11.86666666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1859,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.1</v>
+        <v>12.3</v>
       </c>
       <c r="C38" t="n">
-        <v>10.5</v>
+        <v>12.2</v>
       </c>
       <c r="D38" t="n">
-        <v>11.1</v>
+        <v>12.3</v>
       </c>
       <c r="E38" t="n">
-        <v>10.5</v>
+        <v>12.2</v>
       </c>
       <c r="F38" t="n">
-        <v>2972070.149327273</v>
+        <v>1175059.45652459</v>
       </c>
       <c r="G38" t="n">
-        <v>11.28</v>
+        <v>-17092253.98842467</v>
       </c>
       <c r="H38" t="n">
-        <v>11.84666666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1898,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10.5</v>
+        <v>12.2</v>
       </c>
       <c r="C39" t="n">
-        <v>10.7</v>
+        <v>12.4</v>
       </c>
       <c r="D39" t="n">
-        <v>10.7</v>
+        <v>12.5</v>
       </c>
       <c r="E39" t="n">
-        <v>10.5</v>
+        <v>12.2</v>
       </c>
       <c r="F39" t="n">
-        <v>2680295.0504</v>
+        <v>3448482.81987541</v>
       </c>
       <c r="G39" t="n">
-        <v>11.22666666666666</v>
+        <v>-13643771.16854926</v>
       </c>
       <c r="H39" t="n">
-        <v>11.825</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1937,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10.7</v>
+        <v>12.4</v>
       </c>
       <c r="C40" t="n">
-        <v>10.8</v>
+        <v>12.2</v>
       </c>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="E40" t="n">
-        <v>10.7</v>
+        <v>12.2</v>
       </c>
       <c r="F40" t="n">
-        <v>2489323.57673945</v>
+        <v>6009872.6166</v>
       </c>
       <c r="G40" t="n">
-        <v>11.2</v>
+        <v>-19653643.78514927</v>
       </c>
       <c r="H40" t="n">
-        <v>11.805</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1976,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10.8</v>
+        <v>12.3</v>
       </c>
       <c r="C41" t="n">
-        <v>10.9</v>
+        <v>12.3</v>
       </c>
       <c r="D41" t="n">
-        <v>10.9</v>
+        <v>12.4</v>
       </c>
       <c r="E41" t="n">
-        <v>10.7</v>
+        <v>12.2</v>
       </c>
       <c r="F41" t="n">
-        <v>342160.7203</v>
+        <v>163333.8735395161</v>
       </c>
       <c r="G41" t="n">
-        <v>11.17333333333333</v>
+        <v>-19490309.91160975</v>
       </c>
       <c r="H41" t="n">
-        <v>11.78833333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +2015,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10.9</v>
+        <v>12.3</v>
       </c>
       <c r="C42" t="n">
-        <v>10.8</v>
+        <v>12.2</v>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>12.3</v>
       </c>
       <c r="E42" t="n">
-        <v>10.8</v>
+        <v>12.2</v>
       </c>
       <c r="F42" t="n">
-        <v>1339177.179960551</v>
+        <v>695209.8958000001</v>
       </c>
       <c r="G42" t="n">
-        <v>11.12666666666667</v>
+        <v>-20185519.80740975</v>
       </c>
       <c r="H42" t="n">
-        <v>11.77333333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +2054,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10.9</v>
+        <v>12.2</v>
       </c>
       <c r="C43" t="n">
-        <v>10.9</v>
+        <v>11.5</v>
       </c>
       <c r="D43" t="n">
-        <v>11</v>
+        <v>12.2</v>
       </c>
       <c r="E43" t="n">
-        <v>10.9</v>
+        <v>11.5</v>
       </c>
       <c r="F43" t="n">
-        <v>501705.3977818182</v>
+        <v>3036738.7403</v>
       </c>
       <c r="G43" t="n">
-        <v>11.08666666666667</v>
+        <v>-23222258.54770975</v>
       </c>
       <c r="H43" t="n">
-        <v>11.75833333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +2093,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10.9</v>
+        <v>11.5</v>
       </c>
       <c r="C44" t="n">
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="D44" t="n">
-        <v>11</v>
+        <v>11.9</v>
       </c>
       <c r="E44" t="n">
-        <v>10.8</v>
+        <v>11.4</v>
       </c>
       <c r="F44" t="n">
-        <v>1121074.379718182</v>
+        <v>1112733.0343</v>
       </c>
       <c r="G44" t="n">
-        <v>11.05333333333333</v>
+        <v>-22109525.51340975</v>
       </c>
       <c r="H44" t="n">
-        <v>11.74333333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2132,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="C45" t="n">
-        <v>10.9</v>
+        <v>11.8</v>
       </c>
       <c r="D45" t="n">
-        <v>11</v>
+        <v>11.9</v>
       </c>
       <c r="E45" t="n">
-        <v>10.8</v>
+        <v>11.8</v>
       </c>
       <c r="F45" t="n">
-        <v>722609.2377818181</v>
+        <v>631302.575</v>
       </c>
       <c r="G45" t="n">
-        <v>11.03333333333333</v>
+        <v>-22109525.51340975</v>
       </c>
       <c r="H45" t="n">
-        <v>11.725</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2171,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>10.9</v>
+        <v>11.8</v>
       </c>
       <c r="C46" t="n">
-        <v>10.9</v>
+        <v>11.6</v>
       </c>
       <c r="D46" t="n">
-        <v>11</v>
+        <v>11.9</v>
       </c>
       <c r="E46" t="n">
-        <v>10.9</v>
+        <v>11.6</v>
       </c>
       <c r="F46" t="n">
-        <v>137798.9438</v>
+        <v>1047779.283515254</v>
       </c>
       <c r="G46" t="n">
-        <v>11.00666666666667</v>
+        <v>-23157304.796925</v>
       </c>
       <c r="H46" t="n">
-        <v>11.70333333333333</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2210,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>10.8</v>
+        <v>11.5</v>
       </c>
       <c r="C47" t="n">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="D47" t="n">
-        <v>10.9</v>
+        <v>11.7</v>
       </c>
       <c r="E47" t="n">
-        <v>10.6</v>
+        <v>11.5</v>
       </c>
       <c r="F47" t="n">
-        <v>1754030.1733</v>
+        <v>1285694.0624</v>
       </c>
       <c r="G47" t="n">
-        <v>10.96</v>
+        <v>-23157304.796925</v>
       </c>
       <c r="H47" t="n">
-        <v>11.67666666666666</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2251,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="D48" t="n">
-        <v>10.6</v>
+        <v>11.8</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>11.3</v>
       </c>
       <c r="F48" t="n">
-        <v>8613065.7612</v>
+        <v>2860392.1584</v>
       </c>
       <c r="G48" t="n">
-        <v>10.86666666666667</v>
+        <v>-26017696.955325</v>
       </c>
       <c r="H48" t="n">
-        <v>11.64166666666666</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2292,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="C49" t="n">
-        <v>10.2</v>
+        <v>11.7</v>
       </c>
       <c r="D49" t="n">
-        <v>10.2</v>
+        <v>11.7</v>
       </c>
       <c r="E49" t="n">
-        <v>9.949999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="F49" t="n">
-        <v>5700266.4594</v>
+        <v>1527598.6664</v>
       </c>
       <c r="G49" t="n">
-        <v>10.79333333333333</v>
+        <v>-24490098.288925</v>
       </c>
       <c r="H49" t="n">
-        <v>11.61333333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2331,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>10.1</v>
+        <v>11.6</v>
       </c>
       <c r="C50" t="n">
-        <v>10</v>
+        <v>11.7</v>
       </c>
       <c r="D50" t="n">
-        <v>10.3</v>
+        <v>11.7</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="F50" t="n">
-        <v>8402080.042165048</v>
+        <v>790084.0399</v>
       </c>
       <c r="G50" t="n">
-        <v>10.70666666666667</v>
+        <v>-24490098.288925</v>
       </c>
       <c r="H50" t="n">
-        <v>11.58</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2370,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>10</v>
+        <v>11.7</v>
       </c>
       <c r="C51" t="n">
-        <v>9.94</v>
+        <v>11.5</v>
       </c>
       <c r="D51" t="n">
-        <v>10</v>
+        <v>11.7</v>
       </c>
       <c r="E51" t="n">
-        <v>9.82</v>
+        <v>11.5</v>
       </c>
       <c r="F51" t="n">
-        <v>4133550.5417</v>
+        <v>147752.8418</v>
       </c>
       <c r="G51" t="n">
-        <v>10.616</v>
+        <v>-24637851.130725</v>
       </c>
       <c r="H51" t="n">
-        <v>11.544</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2411,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9.94</v>
+        <v>11.6</v>
       </c>
       <c r="C52" t="n">
-        <v>9.949999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="D52" t="n">
-        <v>10.2</v>
+        <v>11.6</v>
       </c>
       <c r="E52" t="n">
-        <v>9.85</v>
+        <v>11.5</v>
       </c>
       <c r="F52" t="n">
-        <v>2459229.2119</v>
+        <v>19460.887</v>
       </c>
       <c r="G52" t="n">
-        <v>10.53933333333333</v>
+        <v>-24637851.130725</v>
       </c>
       <c r="H52" t="n">
-        <v>11.50983333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2450,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9.949999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="C53" t="n">
-        <v>10.1</v>
+        <v>11.5</v>
       </c>
       <c r="D53" t="n">
-        <v>10.1</v>
+        <v>11.6</v>
       </c>
       <c r="E53" t="n">
-        <v>9.949999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="F53" t="n">
-        <v>5228347.2596</v>
+        <v>301552.7994</v>
       </c>
       <c r="G53" t="n">
-        <v>10.51266666666666</v>
+        <v>-24637851.130725</v>
       </c>
       <c r="H53" t="n">
-        <v>11.47483333333333</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2489,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>10.1</v>
+        <v>11.5</v>
       </c>
       <c r="C54" t="n">
-        <v>9.92</v>
+        <v>11.2</v>
       </c>
       <c r="D54" t="n">
-        <v>10.1</v>
+        <v>11.5</v>
       </c>
       <c r="E54" t="n">
-        <v>9.859999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="F54" t="n">
-        <v>2063785.2134</v>
+        <v>1084874.331</v>
       </c>
       <c r="G54" t="n">
-        <v>10.46066666666666</v>
+        <v>-25722725.461725</v>
       </c>
       <c r="H54" t="n">
-        <v>11.43516666666667</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2530,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9.949999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="C55" t="n">
-        <v>9.81</v>
+        <v>11.3</v>
       </c>
       <c r="D55" t="n">
-        <v>9.949999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="E55" t="n">
-        <v>9.81</v>
+        <v>11.2</v>
       </c>
       <c r="F55" t="n">
-        <v>4016114.0676</v>
+        <v>571691.140326087</v>
       </c>
       <c r="G55" t="n">
-        <v>10.39466666666666</v>
+        <v>-25151034.32139891</v>
       </c>
       <c r="H55" t="n">
-        <v>11.392</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2569,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.9</v>
+        <v>11.3</v>
       </c>
       <c r="C56" t="n">
-        <v>9.91</v>
+        <v>11.5</v>
       </c>
       <c r="D56" t="n">
-        <v>9.91</v>
+        <v>11.5</v>
       </c>
       <c r="E56" t="n">
-        <v>9.789999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="F56" t="n">
-        <v>1516284.5484</v>
+        <v>1135841.9279</v>
       </c>
       <c r="G56" t="n">
-        <v>10.32866666666666</v>
+        <v>-24015192.39349891</v>
       </c>
       <c r="H56" t="n">
-        <v>11.34883333333333</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2608,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9.99</v>
+        <v>11.5</v>
       </c>
       <c r="C57" t="n">
-        <v>9.960000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="D57" t="n">
-        <v>10.1</v>
+        <v>11.5</v>
       </c>
       <c r="E57" t="n">
-        <v>9.9</v>
+        <v>11.4</v>
       </c>
       <c r="F57" t="n">
-        <v>4446805.1021</v>
+        <v>1532387.8386</v>
       </c>
       <c r="G57" t="n">
-        <v>10.27266666666666</v>
+        <v>-24015192.39349891</v>
       </c>
       <c r="H57" t="n">
-        <v>11.3065</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2647,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9.94</v>
+        <v>11.5</v>
       </c>
       <c r="C58" t="n">
-        <v>9.960000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="D58" t="n">
-        <v>10.1</v>
+        <v>11.5</v>
       </c>
       <c r="E58" t="n">
-        <v>9.94</v>
+        <v>11.4</v>
       </c>
       <c r="F58" t="n">
-        <v>2208706.0524</v>
+        <v>220156.9542739131</v>
       </c>
       <c r="G58" t="n">
-        <v>10.21</v>
+        <v>-24015192.39349891</v>
       </c>
       <c r="H58" t="n">
-        <v>11.26416666666666</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2686,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9.949999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="C59" t="n">
-        <v>9.800000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="D59" t="n">
-        <v>9.98</v>
+        <v>11.5</v>
       </c>
       <c r="E59" t="n">
-        <v>9.77</v>
+        <v>11.2</v>
       </c>
       <c r="F59" t="n">
-        <v>2265073.469663968</v>
+        <v>749520.0048</v>
       </c>
       <c r="G59" t="n">
-        <v>10.13</v>
+        <v>-24764712.39829891</v>
       </c>
       <c r="H59" t="n">
-        <v>11.22583333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2725,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9.779999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="C60" t="n">
-        <v>9.779999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="D60" t="n">
-        <v>9.800000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="E60" t="n">
-        <v>9.609999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="F60" t="n">
-        <v>2103354.486820778</v>
+        <v>126096.7309</v>
       </c>
       <c r="G60" t="n">
-        <v>10.05533333333333</v>
+        <v>-24638615.66739891</v>
       </c>
       <c r="H60" t="n">
-        <v>11.18716666666666</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2764,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9.74</v>
+        <v>11.3</v>
       </c>
       <c r="C61" t="n">
-        <v>9.76</v>
+        <v>11.3</v>
       </c>
       <c r="D61" t="n">
-        <v>9.800000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="E61" t="n">
-        <v>9.640000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="F61" t="n">
-        <v>1785391.0187</v>
+        <v>341339.0067</v>
       </c>
       <c r="G61" t="n">
-        <v>9.979333333333328</v>
+        <v>-24638615.66739891</v>
       </c>
       <c r="H61" t="n">
-        <v>11.1465</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2803,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9.76</v>
+        <v>11.3</v>
       </c>
       <c r="C62" t="n">
-        <v>9.85</v>
+        <v>11.4</v>
       </c>
       <c r="D62" t="n">
-        <v>9.869999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="E62" t="n">
-        <v>9.76</v>
+        <v>11.3</v>
       </c>
       <c r="F62" t="n">
-        <v>2828784.2478</v>
+        <v>428364.2398</v>
       </c>
       <c r="G62" t="n">
-        <v>9.929333333333327</v>
+        <v>-24210251.42759891</v>
       </c>
       <c r="H62" t="n">
-        <v>11.109</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2842,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.869999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="C63" t="n">
-        <v>9.9</v>
+        <v>11.3</v>
       </c>
       <c r="D63" t="n">
-        <v>9.99</v>
+        <v>11.5</v>
       </c>
       <c r="E63" t="n">
-        <v>9.800000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="F63" t="n">
-        <v>1360821.6287</v>
+        <v>1113954.7691</v>
       </c>
       <c r="G63" t="n">
-        <v>9.922666666666661</v>
+        <v>-25324206.19669891</v>
       </c>
       <c r="H63" t="n">
-        <v>11.07233333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2881,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.82</v>
+        <v>11.3</v>
       </c>
       <c r="C64" t="n">
-        <v>9.94</v>
+        <v>11.3</v>
       </c>
       <c r="D64" t="n">
-        <v>10.1</v>
+        <v>11.5</v>
       </c>
       <c r="E64" t="n">
-        <v>9.82</v>
+        <v>11.2</v>
       </c>
       <c r="F64" t="n">
-        <v>5085176.9231</v>
+        <v>1220463.290485965</v>
       </c>
       <c r="G64" t="n">
-        <v>9.905333333333328</v>
+        <v>-25324206.19669891</v>
       </c>
       <c r="H64" t="n">
-        <v>11.03633333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2920,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.98</v>
+        <v>11.3</v>
       </c>
       <c r="C65" t="n">
-        <v>10.2</v>
+        <v>11.3</v>
       </c>
       <c r="D65" t="n">
-        <v>10.2</v>
+        <v>11.3</v>
       </c>
       <c r="E65" t="n">
-        <v>9.98</v>
+        <v>11.2</v>
       </c>
       <c r="F65" t="n">
-        <v>2257843.3283</v>
+        <v>352890.2223</v>
       </c>
       <c r="G65" t="n">
-        <v>9.918666666666661</v>
+        <v>-25324206.19669891</v>
       </c>
       <c r="H65" t="n">
-        <v>11.00299999999999</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2959,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>10.2</v>
+        <v>11.3</v>
       </c>
       <c r="C66" t="n">
-        <v>9.880000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="D66" t="n">
-        <v>10.2</v>
+        <v>11.4</v>
       </c>
       <c r="E66" t="n">
-        <v>9.869999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="F66" t="n">
-        <v>4455805.533564356</v>
+        <v>566168.7173</v>
       </c>
       <c r="G66" t="n">
-        <v>9.91466666666666</v>
+        <v>-25890374.91399891</v>
       </c>
       <c r="H66" t="n">
-        <v>10.96266666666666</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2998,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.92</v>
+        <v>11.1</v>
       </c>
       <c r="C67" t="n">
-        <v>9.960000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="D67" t="n">
-        <v>9.960000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="E67" t="n">
-        <v>9.85</v>
+        <v>10.5</v>
       </c>
       <c r="F67" t="n">
-        <v>405345.5291</v>
+        <v>2972070.149327273</v>
       </c>
       <c r="G67" t="n">
-        <v>9.915333333333329</v>
+        <v>-28862445.06332619</v>
       </c>
       <c r="H67" t="n">
-        <v>10.922</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +3037,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.949999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="C68" t="n">
-        <v>9.9</v>
+        <v>10.7</v>
       </c>
       <c r="D68" t="n">
-        <v>9.949999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="E68" t="n">
-        <v>9.859999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="F68" t="n">
-        <v>1815000.3718</v>
+        <v>2680295.0504</v>
       </c>
       <c r="G68" t="n">
-        <v>9.901999999999996</v>
+        <v>-26182150.01292619</v>
       </c>
       <c r="H68" t="n">
-        <v>10.882</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +3076,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.890000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="C69" t="n">
-        <v>9.92</v>
+        <v>10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>9.949999999999999</v>
+        <v>11</v>
       </c>
       <c r="E69" t="n">
-        <v>9.880000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="F69" t="n">
-        <v>902713.1435</v>
+        <v>2489323.57673945</v>
       </c>
       <c r="G69" t="n">
-        <v>9.901999999999996</v>
+        <v>-23692826.43618674</v>
       </c>
       <c r="H69" t="n">
-        <v>10.844</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +3115,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.93</v>
+        <v>10.8</v>
       </c>
       <c r="C70" t="n">
-        <v>10.2</v>
+        <v>10.9</v>
       </c>
       <c r="D70" t="n">
-        <v>10.2</v>
+        <v>10.9</v>
       </c>
       <c r="E70" t="n">
-        <v>9.93</v>
+        <v>10.7</v>
       </c>
       <c r="F70" t="n">
-        <v>1724698.8504</v>
+        <v>342160.7203</v>
       </c>
       <c r="G70" t="n">
-        <v>9.927999999999995</v>
+        <v>-23350665.71588674</v>
       </c>
       <c r="H70" t="n">
-        <v>10.80733333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +3154,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10.1</v>
+        <v>10.9</v>
       </c>
       <c r="C71" t="n">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="D71" t="n">
-        <v>10.4</v>
+        <v>11</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="F71" t="n">
-        <v>2169496.5292</v>
+        <v>1339177.179960551</v>
       </c>
       <c r="G71" t="n">
-        <v>9.940666666666662</v>
+        <v>-24689842.89584729</v>
       </c>
       <c r="H71" t="n">
-        <v>10.77233333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +3193,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10</v>
+        <v>10.9</v>
       </c>
       <c r="C72" t="n">
-        <v>9.91</v>
+        <v>10.9</v>
       </c>
       <c r="D72" t="n">
-        <v>10.1</v>
+        <v>11</v>
       </c>
       <c r="E72" t="n">
-        <v>9.91</v>
+        <v>10.9</v>
       </c>
       <c r="F72" t="n">
-        <v>1097853.6251</v>
+        <v>501705.3977818182</v>
       </c>
       <c r="G72" t="n">
-        <v>9.937333333333328</v>
+        <v>-24188137.49806547</v>
       </c>
       <c r="H72" t="n">
-        <v>10.7325</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3232,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9.92</v>
+        <v>10.9</v>
       </c>
       <c r="C73" t="n">
-        <v>9.949999999999999</v>
+        <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>10.1</v>
+        <v>11</v>
       </c>
       <c r="E73" t="n">
-        <v>9.92</v>
+        <v>10.8</v>
       </c>
       <c r="F73" t="n">
-        <v>1228316.6457</v>
+        <v>1121074.379718182</v>
       </c>
       <c r="G73" t="n">
-        <v>9.93666666666666</v>
+        <v>-23067063.11834729</v>
       </c>
       <c r="H73" t="n">
-        <v>10.695</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3271,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10.1</v>
+        <v>11</v>
       </c>
       <c r="C74" t="n">
-        <v>10</v>
+        <v>10.9</v>
       </c>
       <c r="D74" t="n">
-        <v>10.1</v>
+        <v>11</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="F74" t="n">
-        <v>915894.1813000001</v>
+        <v>722609.2377818181</v>
       </c>
       <c r="G74" t="n">
-        <v>9.949999999999992</v>
+        <v>-23789672.35612911</v>
       </c>
       <c r="H74" t="n">
-        <v>10.67</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3310,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10</v>
+        <v>10.9</v>
       </c>
       <c r="C75" t="n">
-        <v>10.1</v>
+        <v>10.9</v>
       </c>
       <c r="D75" t="n">
-        <v>10.3</v>
+        <v>11</v>
       </c>
       <c r="E75" t="n">
-        <v>9.99</v>
+        <v>10.9</v>
       </c>
       <c r="F75" t="n">
-        <v>1534686.8781</v>
+        <v>137798.9438</v>
       </c>
       <c r="G75" t="n">
-        <v>9.971333333333325</v>
+        <v>-23789672.35612911</v>
       </c>
       <c r="H75" t="n">
-        <v>10.64166666666666</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3349,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="C76" t="n">
-        <v>10.1</v>
+        <v>10.6</v>
       </c>
       <c r="D76" t="n">
-        <v>10.1</v>
+        <v>10.9</v>
       </c>
       <c r="E76" t="n">
-        <v>10.1</v>
+        <v>10.6</v>
       </c>
       <c r="F76" t="n">
-        <v>512770.6067</v>
+        <v>1754030.1733</v>
       </c>
       <c r="G76" t="n">
-        <v>9.993999999999993</v>
+        <v>-25543702.52942911</v>
       </c>
       <c r="H76" t="n">
-        <v>10.61333333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3388,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
       <c r="C77" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="D77" t="n">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
       <c r="E77" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="F77" t="n">
-        <v>130855.5394313726</v>
+        <v>8613065.7612</v>
       </c>
       <c r="G77" t="n">
-        <v>10.01733333333332</v>
+        <v>-34156768.2906291</v>
       </c>
       <c r="H77" t="n">
-        <v>10.59</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3427,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>10</v>
+      </c>
+      <c r="C78" t="n">
         <v>10.2</v>
       </c>
-      <c r="C78" t="n">
-        <v>10.3</v>
-      </c>
       <c r="D78" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="E78" t="n">
-        <v>10.1</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>1035707.684630166</v>
+        <v>5700266.4594</v>
       </c>
       <c r="G78" t="n">
-        <v>10.04399999999999</v>
+        <v>-28456501.83122911</v>
       </c>
       <c r="H78" t="n">
-        <v>10.56833333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,10 +3466,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="C79" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="D79" t="n">
         <v>10.3</v>
@@ -3376,24 +3478,25 @@
         <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>2752415.7345</v>
+        <v>8402080.042165048</v>
       </c>
       <c r="G79" t="n">
-        <v>10.05466666666666</v>
+        <v>-36858581.87339415</v>
       </c>
       <c r="H79" t="n">
-        <v>10.545</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3505,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="C80" t="n">
-        <v>9.960000000000001</v>
+        <v>9.94</v>
       </c>
       <c r="D80" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>9.960000000000001</v>
+        <v>9.82</v>
       </c>
       <c r="F80" t="n">
-        <v>1413031.6586</v>
+        <v>4133550.5417</v>
       </c>
       <c r="G80" t="n">
-        <v>10.03866666666666</v>
+        <v>-40992132.41509415</v>
       </c>
       <c r="H80" t="n">
-        <v>10.516</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3544,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.93</v>
+        <v>9.94</v>
       </c>
       <c r="C81" t="n">
-        <v>9.93</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>9.949999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="E81" t="n">
-        <v>9.82</v>
+        <v>9.85</v>
       </c>
       <c r="F81" t="n">
-        <v>1170482.9236</v>
+        <v>2459229.2119</v>
       </c>
       <c r="G81" t="n">
-        <v>10.04199999999999</v>
+        <v>-38532903.20319415</v>
       </c>
       <c r="H81" t="n">
-        <v>10.4865</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3583,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.93</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>9.92</v>
+        <v>10.1</v>
       </c>
       <c r="D82" t="n">
-        <v>9.93</v>
+        <v>10.1</v>
       </c>
       <c r="E82" t="n">
-        <v>9.859999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>335972.8460529708</v>
+        <v>5228347.2596</v>
       </c>
       <c r="G82" t="n">
-        <v>10.03933333333333</v>
+        <v>-33304555.94359415</v>
       </c>
       <c r="H82" t="n">
-        <v>10.46016666666666</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3622,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="D83" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E83" t="n">
         <v>9.859999999999999</v>
       </c>
-      <c r="C83" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="D83" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="E83" t="n">
-        <v>9.6</v>
-      </c>
       <c r="F83" t="n">
-        <v>2324715.0985</v>
+        <v>2063785.2134</v>
       </c>
       <c r="G83" t="n">
-        <v>10.03133333333333</v>
+        <v>-35368341.15699415</v>
       </c>
       <c r="H83" t="n">
-        <v>10.4315</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3661,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.85</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>9.83</v>
+        <v>9.81</v>
       </c>
       <c r="D84" t="n">
-        <v>9.85</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>9.67</v>
+        <v>9.81</v>
       </c>
       <c r="F84" t="n">
-        <v>279659.8361</v>
+        <v>4016114.0676</v>
       </c>
       <c r="G84" t="n">
-        <v>10.02533333333333</v>
+        <v>-39384455.22459415</v>
       </c>
       <c r="H84" t="n">
-        <v>10.40366666666666</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3700,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.81</v>
+        <v>9.9</v>
       </c>
       <c r="C85" t="n">
-        <v>9.9</v>
+        <v>9.91</v>
       </c>
       <c r="D85" t="n">
-        <v>9.9</v>
+        <v>9.91</v>
       </c>
       <c r="E85" t="n">
-        <v>9.800000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>150935.8067</v>
+        <v>1516284.5484</v>
       </c>
       <c r="G85" t="n">
-        <v>10.00533333333333</v>
+        <v>-37868170.67619415</v>
       </c>
       <c r="H85" t="n">
-        <v>10.382</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3739,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.800000000000001</v>
+        <v>9.99</v>
       </c>
       <c r="C86" t="n">
-        <v>9.800000000000001</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>9.869999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="E86" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="F86" t="n">
-        <v>212156.3323677811</v>
+        <v>4446805.1021</v>
       </c>
       <c r="G86" t="n">
-        <v>9.98533333333333</v>
+        <v>-33421365.57409415</v>
       </c>
       <c r="H86" t="n">
-        <v>10.357</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3778,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.859999999999999</v>
+        <v>9.94</v>
       </c>
       <c r="C87" t="n">
-        <v>9.880000000000001</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>9.949999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="E87" t="n">
-        <v>9.800000000000001</v>
+        <v>9.94</v>
       </c>
       <c r="F87" t="n">
-        <v>404305.1614</v>
+        <v>2208706.0524</v>
       </c>
       <c r="G87" t="n">
-        <v>9.983333333333329</v>
+        <v>-33421365.57409415</v>
       </c>
       <c r="H87" t="n">
-        <v>10.32999999999999</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3817,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="C88" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="C88" t="n">
-        <v>9.789999999999999</v>
-      </c>
       <c r="D88" t="n">
-        <v>9.859999999999999</v>
+        <v>9.98</v>
       </c>
       <c r="E88" t="n">
-        <v>9.67</v>
+        <v>9.77</v>
       </c>
       <c r="F88" t="n">
-        <v>758739.8808</v>
+        <v>2265073.469663968</v>
       </c>
       <c r="G88" t="n">
-        <v>9.972666666666663</v>
+        <v>-35686439.04375812</v>
       </c>
       <c r="H88" t="n">
-        <v>10.3015</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3856,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.710000000000001</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>9.869999999999999</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>9.869999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>9.710000000000001</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>168976.4122</v>
+        <v>2103354.486820778</v>
       </c>
       <c r="G89" t="n">
-        <v>9.963999999999997</v>
+        <v>-37789793.5305789</v>
       </c>
       <c r="H89" t="n">
-        <v>10.27433333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3895,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9.75</v>
+        <v>9.74</v>
       </c>
       <c r="C90" t="n">
-        <v>9.75</v>
+        <v>9.76</v>
       </c>
       <c r="D90" t="n">
-        <v>9.81</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>9.75</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>371869.3897</v>
+        <v>1785391.0187</v>
       </c>
       <c r="G90" t="n">
-        <v>9.940666666666663</v>
+        <v>-39575184.5492789</v>
       </c>
       <c r="H90" t="n">
-        <v>10.25016666666666</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3934,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9.75</v>
+        <v>9.76</v>
       </c>
       <c r="C91" t="n">
-        <v>9.77</v>
+        <v>9.85</v>
       </c>
       <c r="D91" t="n">
-        <v>9.85</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>9.75</v>
+        <v>9.76</v>
       </c>
       <c r="F91" t="n">
-        <v>82829.70318130081</v>
+        <v>2828784.2478</v>
       </c>
       <c r="G91" t="n">
-        <v>9.918666666666665</v>
+        <v>-36746400.3014789</v>
       </c>
       <c r="H91" t="n">
-        <v>10.22466666666666</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3973,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9.83</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>9.83</v>
+        <v>9.9</v>
       </c>
       <c r="D92" t="n">
-        <v>9.880000000000001</v>
+        <v>9.99</v>
       </c>
       <c r="E92" t="n">
-        <v>9.75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>1225284.0495</v>
+        <v>1360821.6287</v>
       </c>
       <c r="G92" t="n">
-        <v>9.894</v>
+        <v>-35385578.6727789</v>
       </c>
       <c r="H92" t="n">
-        <v>10.20016666666666</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +4012,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.83</v>
+        <v>9.82</v>
       </c>
       <c r="C93" t="n">
-        <v>9.890000000000001</v>
+        <v>9.94</v>
       </c>
       <c r="D93" t="n">
-        <v>9.949999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="E93" t="n">
-        <v>9.800000000000001</v>
+        <v>9.82</v>
       </c>
       <c r="F93" t="n">
-        <v>2729353.367933166</v>
+        <v>5085176.9231</v>
       </c>
       <c r="G93" t="n">
-        <v>9.866666666666667</v>
+        <v>-30300401.74967889</v>
       </c>
       <c r="H93" t="n">
-        <v>10.175</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +4051,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9.869999999999999</v>
+        <v>9.98</v>
       </c>
       <c r="C94" t="n">
-        <v>9.84</v>
+        <v>10.2</v>
       </c>
       <c r="D94" t="n">
-        <v>9.869999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="E94" t="n">
-        <v>9.800000000000001</v>
+        <v>9.98</v>
       </c>
       <c r="F94" t="n">
-        <v>15248201.4463</v>
+        <v>2257843.3283</v>
       </c>
       <c r="G94" t="n">
-        <v>9.849333333333334</v>
+        <v>-28042558.4213789</v>
       </c>
       <c r="H94" t="n">
-        <v>10.15066666666666</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +4090,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9.84</v>
+        <v>10.2</v>
       </c>
       <c r="C95" t="n">
-        <v>9.84</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>9.890000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="E95" t="n">
-        <v>9.789999999999999</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>56177306.6863</v>
+        <v>4455805.533564356</v>
       </c>
       <c r="G95" t="n">
-        <v>9.841333333333333</v>
+        <v>-32498363.95494325</v>
       </c>
       <c r="H95" t="n">
-        <v>10.12633333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +4129,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9.84</v>
+        <v>9.92</v>
       </c>
       <c r="C96" t="n">
-        <v>9.779999999999999</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D96" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="E96" t="n">
         <v>9.85</v>
       </c>
-      <c r="E96" t="n">
-        <v>9.77</v>
-      </c>
       <c r="F96" t="n">
-        <v>94032356.28955285</v>
+        <v>405345.5291</v>
       </c>
       <c r="G96" t="n">
-        <v>9.831333333333333</v>
+        <v>-32093018.42584325</v>
       </c>
       <c r="H96" t="n">
-        <v>10.101</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +4168,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9.77</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>9.76</v>
+        <v>9.9</v>
       </c>
       <c r="D97" t="n">
-        <v>9.84</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>9.75</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>82598427.7369</v>
+        <v>1815000.3718</v>
       </c>
       <c r="G97" t="n">
-        <v>9.820666666666666</v>
+        <v>-33908018.79764325</v>
       </c>
       <c r="H97" t="n">
-        <v>10.07866666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +4207,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9.75</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>9.710000000000001</v>
+        <v>9.92</v>
       </c>
       <c r="D98" t="n">
-        <v>9.82</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>9.699999999999999</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>84878950.473</v>
+        <v>902713.1435</v>
       </c>
       <c r="G98" t="n">
-        <v>9.816000000000001</v>
+        <v>-33005305.65414325</v>
       </c>
       <c r="H98" t="n">
-        <v>10.0655</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +4246,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9.710000000000001</v>
+        <v>9.93</v>
       </c>
       <c r="C99" t="n">
-        <v>9.699999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="D99" t="n">
-        <v>9.710000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="E99" t="n">
-        <v>9.67</v>
+        <v>9.93</v>
       </c>
       <c r="F99" t="n">
-        <v>120564999.3868</v>
+        <v>1724698.8504</v>
       </c>
       <c r="G99" t="n">
-        <v>9.807333333333332</v>
+        <v>-31280606.80374325</v>
       </c>
       <c r="H99" t="n">
-        <v>10.04883333333333</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +4285,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="C100" t="n">
-        <v>9.68</v>
+        <v>10.1</v>
       </c>
       <c r="D100" t="n">
-        <v>9.699999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="E100" t="n">
-        <v>9.67</v>
+        <v>10</v>
       </c>
       <c r="F100" t="n">
-        <v>55048673.39735773</v>
+        <v>2169496.5292</v>
       </c>
       <c r="G100" t="n">
-        <v>9.792666666666666</v>
+        <v>-33450103.33294325</v>
       </c>
       <c r="H100" t="n">
-        <v>10.03016666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +4324,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9.67</v>
+        <v>10</v>
       </c>
       <c r="C101" t="n">
-        <v>9.210000000000001</v>
+        <v>9.91</v>
       </c>
       <c r="D101" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="E101" t="n">
-        <v>9.18</v>
+        <v>9.91</v>
       </c>
       <c r="F101" t="n">
-        <v>2398499.7259</v>
+        <v>1097853.6251</v>
       </c>
       <c r="G101" t="n">
-        <v>9.753333333333332</v>
+        <v>-34547956.95804325</v>
       </c>
       <c r="H101" t="n">
-        <v>10.002</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +4363,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9.210000000000001</v>
+        <v>9.92</v>
       </c>
       <c r="C102" t="n">
-        <v>9.35</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>9.449999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="E102" t="n">
-        <v>9.109999999999999</v>
+        <v>9.92</v>
       </c>
       <c r="F102" t="n">
-        <v>3143565.38</v>
+        <v>1228316.6457</v>
       </c>
       <c r="G102" t="n">
-        <v>9.717999999999998</v>
+        <v>-33319640.31234325</v>
       </c>
       <c r="H102" t="n">
-        <v>9.977833333333335</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +4402,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9.35</v>
+        <v>10.1</v>
       </c>
       <c r="C103" t="n">
-        <v>9.279999999999999</v>
+        <v>10</v>
       </c>
       <c r="D103" t="n">
-        <v>9.35</v>
+        <v>10.1</v>
       </c>
       <c r="E103" t="n">
-        <v>9.27</v>
+        <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>3338810.645</v>
+        <v>915894.1813000001</v>
       </c>
       <c r="G103" t="n">
-        <v>9.683999999999999</v>
+        <v>-32403746.13104325</v>
       </c>
       <c r="H103" t="n">
-        <v>9.950833333333334</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4441,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9.279999999999999</v>
+        <v>10</v>
       </c>
       <c r="C104" t="n">
-        <v>9.470000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="D104" t="n">
-        <v>9.48</v>
+        <v>10.3</v>
       </c>
       <c r="E104" t="n">
-        <v>9.279999999999999</v>
+        <v>9.99</v>
       </c>
       <c r="F104" t="n">
-        <v>2265182.9607</v>
+        <v>1534686.8781</v>
       </c>
       <c r="G104" t="n">
-        <v>9.657333333333332</v>
+        <v>-30869059.25294325</v>
       </c>
       <c r="H104" t="n">
-        <v>9.925333333333334</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4480,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="C105" t="n">
-        <v>9.25</v>
+        <v>10.1</v>
       </c>
       <c r="D105" t="n">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="E105" t="n">
-        <v>9.16</v>
+        <v>10.1</v>
       </c>
       <c r="F105" t="n">
-        <v>940091.0578</v>
+        <v>512770.6067</v>
       </c>
       <c r="G105" t="n">
-        <v>9.623999999999999</v>
+        <v>-30869059.25294325</v>
       </c>
       <c r="H105" t="n">
-        <v>9.897833333333335</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4519,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9.25</v>
+        <v>10.2</v>
       </c>
       <c r="C106" t="n">
-        <v>9.31</v>
+        <v>10.2</v>
       </c>
       <c r="D106" t="n">
-        <v>9.31</v>
+        <v>10.2</v>
       </c>
       <c r="E106" t="n">
-        <v>9.23</v>
+        <v>10.1</v>
       </c>
       <c r="F106" t="n">
-        <v>999970.6159</v>
+        <v>130855.5394313726</v>
       </c>
       <c r="G106" t="n">
-        <v>9.593333333333332</v>
+        <v>-30738203.71351188</v>
       </c>
       <c r="H106" t="n">
-        <v>9.871333333333334</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4558,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9.279999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="C107" t="n">
-        <v>9.23</v>
+        <v>10.3</v>
       </c>
       <c r="D107" t="n">
-        <v>9.300000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="E107" t="n">
-        <v>9.23</v>
+        <v>10.1</v>
       </c>
       <c r="F107" t="n">
-        <v>1669706.991561464</v>
+        <v>1035707.684630166</v>
       </c>
       <c r="G107" t="n">
-        <v>9.553333333333331</v>
+        <v>-29702496.02888171</v>
       </c>
       <c r="H107" t="n">
-        <v>9.848500000000001</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4597,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9.25</v>
+        <v>10.3</v>
       </c>
       <c r="C108" t="n">
-        <v>9.23</v>
+        <v>10.1</v>
       </c>
       <c r="D108" t="n">
-        <v>9.25</v>
+        <v>10.3</v>
       </c>
       <c r="E108" t="n">
-        <v>9.15</v>
+        <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>2883308.0678</v>
+        <v>2752415.7345</v>
       </c>
       <c r="G108" t="n">
-        <v>9.509333333333329</v>
+        <v>-32454911.76338171</v>
       </c>
       <c r="H108" t="n">
-        <v>9.835666666666668</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4636,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9.18</v>
+        <v>10.1</v>
       </c>
       <c r="C109" t="n">
-        <v>8.99</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>9.220000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="E109" t="n">
-        <v>8.99</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>4524792.359766667</v>
+        <v>1413031.6586</v>
       </c>
       <c r="G109" t="n">
-        <v>9.452666666666662</v>
+        <v>-33867943.42198171</v>
       </c>
       <c r="H109" t="n">
-        <v>9.815500000000002</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4675,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>8.98</v>
+        <v>9.93</v>
       </c>
       <c r="C110" t="n">
-        <v>8.98</v>
+        <v>9.93</v>
       </c>
       <c r="D110" t="n">
-        <v>9.050000000000001</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>8.83</v>
+        <v>9.82</v>
       </c>
       <c r="F110" t="n">
-        <v>1624426.4203</v>
+        <v>1170482.9236</v>
       </c>
       <c r="G110" t="n">
-        <v>9.395333333333328</v>
+        <v>-35038426.34558171</v>
       </c>
       <c r="H110" t="n">
-        <v>9.798500000000001</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4714,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9</v>
+        <v>9.93</v>
       </c>
       <c r="C111" t="n">
-        <v>8.92</v>
+        <v>9.92</v>
       </c>
       <c r="D111" t="n">
-        <v>9</v>
+        <v>9.93</v>
       </c>
       <c r="E111" t="n">
-        <v>8.75</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>4426088.9271</v>
+        <v>335972.8460529708</v>
       </c>
       <c r="G111" t="n">
-        <v>9.337999999999994</v>
+        <v>-35374399.19163468</v>
       </c>
       <c r="H111" t="n">
-        <v>9.781499999999999</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4753,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>8.92</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>8.68</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>8.93</v>
+        <v>9.93</v>
       </c>
       <c r="E112" t="n">
-        <v>8.68</v>
+        <v>9.6</v>
       </c>
       <c r="F112" t="n">
-        <v>1570728.8306</v>
+        <v>2324715.0985</v>
       </c>
       <c r="G112" t="n">
-        <v>9.265999999999995</v>
+        <v>-37699114.29013468</v>
       </c>
       <c r="H112" t="n">
-        <v>9.760333333333332</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4792,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>8.69</v>
+        <v>9.85</v>
       </c>
       <c r="C113" t="n">
-        <v>8.800000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="D113" t="n">
-        <v>8.880000000000001</v>
+        <v>9.85</v>
       </c>
       <c r="E113" t="n">
-        <v>8.69</v>
+        <v>9.67</v>
       </c>
       <c r="F113" t="n">
-        <v>2352194.6862</v>
+        <v>279659.8361</v>
       </c>
       <c r="G113" t="n">
-        <v>9.205333333333328</v>
+        <v>-37419454.45403469</v>
       </c>
       <c r="H113" t="n">
-        <v>9.738666666666663</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +4831,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>8.800000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="C114" t="n">
-        <v>8.77</v>
+        <v>9.9</v>
       </c>
       <c r="D114" t="n">
-        <v>8.859999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="E114" t="n">
-        <v>8.75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>979716.6282</v>
+        <v>150935.8067</v>
       </c>
       <c r="G114" t="n">
-        <v>9.143333333333329</v>
+        <v>-37268518.64733469</v>
       </c>
       <c r="H114" t="n">
-        <v>9.719499999999998</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +4870,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>8.77</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>8.69</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>8.82</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>8.69</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>1062756.5178</v>
+        <v>212156.3323677811</v>
       </c>
       <c r="G115" t="n">
-        <v>9.07733333333333</v>
+        <v>-37480674.97970247</v>
       </c>
       <c r="H115" t="n">
-        <v>9.700833333333332</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +4909,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>8.75</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>8.82</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>8.9</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>8.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>1672683.2135</v>
+        <v>404305.1614</v>
       </c>
       <c r="G116" t="n">
-        <v>9.051333333333329</v>
+        <v>-37076369.81830247</v>
       </c>
       <c r="H116" t="n">
-        <v>9.682666666666668</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,42 +4948,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>8.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>8.880000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>8.91</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>8.73</v>
+        <v>9.67</v>
       </c>
       <c r="F117" t="n">
-        <v>795956.9815</v>
+        <v>758739.8808</v>
       </c>
       <c r="G117" t="n">
-        <v>9.019999999999994</v>
+        <v>-37835109.69910247</v>
       </c>
       <c r="H117" t="n">
-        <v>9.664666666666667</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4852,42 +4987,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>8.869999999999999</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>8.98</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>9</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>8.83</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>943086.0889</v>
+        <v>168976.4122</v>
       </c>
       <c r="G118" t="n">
-        <v>8.999999999999995</v>
+        <v>-37666133.28690247</v>
       </c>
       <c r="H118" t="n">
-        <v>9.648333333333333</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4896,42 +5026,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>8.98</v>
+        <v>9.75</v>
       </c>
       <c r="C119" t="n">
-        <v>9.09</v>
+        <v>9.75</v>
       </c>
       <c r="D119" t="n">
-        <v>9.109999999999999</v>
+        <v>9.81</v>
       </c>
       <c r="E119" t="n">
-        <v>8.949999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="F119" t="n">
-        <v>1911990.770546871</v>
+        <v>371869.3897</v>
       </c>
       <c r="G119" t="n">
-        <v>8.974666666666661</v>
+        <v>-38038002.67660248</v>
       </c>
       <c r="H119" t="n">
-        <v>9.636500000000002</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4940,42 +5065,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9.01</v>
+        <v>9.75</v>
       </c>
       <c r="C120" t="n">
-        <v>9.09</v>
+        <v>9.77</v>
       </c>
       <c r="D120" t="n">
-        <v>9.119999999999999</v>
+        <v>9.85</v>
       </c>
       <c r="E120" t="n">
-        <v>9.01</v>
+        <v>9.75</v>
       </c>
       <c r="F120" t="n">
-        <v>1142806.411553128</v>
+        <v>82829.70318130081</v>
       </c>
       <c r="G120" t="n">
-        <v>8.963999999999995</v>
+        <v>-37955172.97342117</v>
       </c>
       <c r="H120" t="n">
-        <v>9.625000000000002</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,42 +5104,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9.09</v>
+        <v>9.83</v>
       </c>
       <c r="C121" t="n">
-        <v>9</v>
+        <v>9.83</v>
       </c>
       <c r="D121" t="n">
-        <v>9.09</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>8.98</v>
+        <v>9.75</v>
       </c>
       <c r="F121" t="n">
-        <v>1746646.1814</v>
+        <v>1225284.0495</v>
       </c>
       <c r="G121" t="n">
-        <v>8.943333333333328</v>
+        <v>-36729888.92392117</v>
       </c>
       <c r="H121" t="n">
-        <v>9.612333333333336</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5028,42 +5143,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9</v>
+        <v>9.83</v>
       </c>
       <c r="C122" t="n">
-        <v>8.92</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>9</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>8.84</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>1827706.1624</v>
+        <v>2729353.367933166</v>
       </c>
       <c r="G122" t="n">
-        <v>8.922666666666661</v>
+        <v>-34000535.555988</v>
       </c>
       <c r="H122" t="n">
-        <v>9.596833333333334</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>9</v>
-      </c>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5072,42 +5182,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>8.92</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>8.869999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="D123" t="n">
-        <v>8.92</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>8.85</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>1174906.683</v>
+        <v>15248201.4463</v>
       </c>
       <c r="G123" t="n">
-        <v>8.898666666666662</v>
+        <v>-49248737.002288</v>
       </c>
       <c r="H123" t="n">
-        <v>9.579666666666668</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5116,42 +5221,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>8.869999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="C124" t="n">
-        <v>8.960000000000001</v>
+        <v>9.84</v>
       </c>
       <c r="D124" t="n">
-        <v>8.960000000000001</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>8.800000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>19030870.92628571</v>
+        <v>56177306.6863</v>
       </c>
       <c r="G124" t="n">
-        <v>8.896666666666663</v>
+        <v>-49248737.002288</v>
       </c>
       <c r="H124" t="n">
-        <v>9.563333333333334</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5160,42 +5260,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>8.869999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="C125" t="n">
-        <v>8.890000000000001</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>8.949999999999999</v>
+        <v>9.85</v>
       </c>
       <c r="E125" t="n">
-        <v>8.869999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="F125" t="n">
-        <v>43524186.718</v>
+        <v>94032356.28955285</v>
       </c>
       <c r="G125" t="n">
-        <v>8.890666666666663</v>
+        <v>-143281093.2918409</v>
       </c>
       <c r="H125" t="n">
-        <v>9.541500000000001</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5204,42 +5299,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>8.869999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="C126" t="n">
-        <v>8.9</v>
+        <v>9.76</v>
       </c>
       <c r="D126" t="n">
-        <v>8.9</v>
+        <v>9.84</v>
       </c>
       <c r="E126" t="n">
-        <v>8.869999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="F126" t="n">
-        <v>153889251.3019</v>
+        <v>82598427.7369</v>
       </c>
       <c r="G126" t="n">
-        <v>8.88933333333333</v>
+        <v>-225879521.0287409</v>
       </c>
       <c r="H126" t="n">
-        <v>9.525166666666667</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5248,40 +5338,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>8.890000000000001</v>
+        <v>9.75</v>
       </c>
       <c r="C127" t="n">
-        <v>8.890000000000001</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>8.93</v>
+        <v>9.82</v>
       </c>
       <c r="E127" t="n">
-        <v>8.869999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>109986897.5702</v>
+        <v>84878950.473</v>
       </c>
       <c r="G127" t="n">
-        <v>8.903333333333331</v>
+        <v>-310758471.5017409</v>
       </c>
       <c r="H127" t="n">
-        <v>9.507333333333332</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5290,40 +5377,37 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>8.890000000000001</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>8.880000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>8.93</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>8.85</v>
+        <v>9.67</v>
       </c>
       <c r="F128" t="n">
-        <v>77373074.19329999</v>
+        <v>120564999.3868</v>
       </c>
       <c r="G128" t="n">
-        <v>8.908666666666663</v>
+        <v>-431323470.8885409</v>
       </c>
       <c r="H128" t="n">
-        <v>9.490333333333332</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5332,40 +5416,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>8.869999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>8.859999999999999</v>
+        <v>9.68</v>
       </c>
       <c r="D129" t="n">
-        <v>8.869999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>8.779999999999999</v>
+        <v>9.67</v>
       </c>
       <c r="F129" t="n">
-        <v>116617880.5436</v>
+        <v>55048673.39735773</v>
       </c>
       <c r="G129" t="n">
-        <v>8.914666666666664</v>
+        <v>-486372144.2858986</v>
       </c>
       <c r="H129" t="n">
-        <v>9.472666666666667</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5374,40 +5455,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>8.859999999999999</v>
+        <v>9.67</v>
       </c>
       <c r="C130" t="n">
-        <v>8.85</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>8.859999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>8.800000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="F130" t="n">
-        <v>148801650</v>
+        <v>2398499.7259</v>
       </c>
       <c r="G130" t="n">
-        <v>8.925333333333329</v>
+        <v>-488770644.0117986</v>
       </c>
       <c r="H130" t="n">
-        <v>9.450166666666666</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5416,40 +5494,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>8.85</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>8.869999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="D131" t="n">
-        <v>8.869999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>8.82</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>30141424.6055</v>
+        <v>3143565.38</v>
       </c>
       <c r="G131" t="n">
-        <v>8.928666666666663</v>
+        <v>-485627078.6317986</v>
       </c>
       <c r="H131" t="n">
-        <v>9.429666666666666</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5458,40 +5533,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>8.85</v>
+        <v>9.35</v>
       </c>
       <c r="C132" t="n">
-        <v>8.85</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>8.869999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="E132" t="n">
-        <v>8.84</v>
+        <v>9.27</v>
       </c>
       <c r="F132" t="n">
-        <v>124720756.0081</v>
+        <v>3338810.645</v>
       </c>
       <c r="G132" t="n">
-        <v>8.926666666666664</v>
+        <v>-488965889.2767985</v>
       </c>
       <c r="H132" t="n">
-        <v>9.412000000000001</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5500,40 +5572,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>8.85</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>8.880000000000001</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>8.880000000000001</v>
+        <v>9.48</v>
       </c>
       <c r="E133" t="n">
-        <v>8.85</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>146706111.4443327</v>
+        <v>2265182.9607</v>
       </c>
       <c r="G133" t="n">
-        <v>8.919999999999996</v>
+        <v>-486700706.3160986</v>
       </c>
       <c r="H133" t="n">
-        <v>9.394166666666667</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5542,40 +5611,37 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>8.880000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C134" t="n">
-        <v>8.890000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="D134" t="n">
-        <v>8.890000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="E134" t="n">
-        <v>8.869999999999999</v>
+        <v>9.16</v>
       </c>
       <c r="F134" t="n">
-        <v>52417926.0242</v>
+        <v>940091.0578</v>
       </c>
       <c r="G134" t="n">
-        <v>8.906666666666663</v>
+        <v>-487640797.3738986</v>
       </c>
       <c r="H134" t="n">
-        <v>9.375666666666666</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5584,40 +5650,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>8.890000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="C135" t="n">
-        <v>8.880000000000001</v>
+        <v>9.31</v>
       </c>
       <c r="D135" t="n">
-        <v>8.949999999999999</v>
+        <v>9.31</v>
       </c>
       <c r="E135" t="n">
-        <v>8.880000000000001</v>
+        <v>9.23</v>
       </c>
       <c r="F135" t="n">
-        <v>18551927.3088</v>
+        <v>999970.6159</v>
       </c>
       <c r="G135" t="n">
-        <v>8.892666666666662</v>
+        <v>-486640826.7579986</v>
       </c>
       <c r="H135" t="n">
-        <v>9.355333333333332</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5626,40 +5689,37 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>8.9</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>8.93</v>
+        <v>9.23</v>
       </c>
       <c r="D136" t="n">
-        <v>8.949999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>8.880000000000001</v>
+        <v>9.23</v>
       </c>
       <c r="F136" t="n">
-        <v>1140163.2834</v>
+        <v>1669706.991561464</v>
       </c>
       <c r="G136" t="n">
-        <v>8.887999999999996</v>
+        <v>-488310533.7495601</v>
       </c>
       <c r="H136" t="n">
-        <v>9.335833333333332</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5668,40 +5728,37 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>8.92</v>
+        <v>9.25</v>
       </c>
       <c r="C137" t="n">
-        <v>8.94</v>
+        <v>9.23</v>
       </c>
       <c r="D137" t="n">
-        <v>8.949999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="E137" t="n">
-        <v>8.92</v>
+        <v>9.15</v>
       </c>
       <c r="F137" t="n">
-        <v>16758508.611</v>
+        <v>2883308.0678</v>
       </c>
       <c r="G137" t="n">
-        <v>8.88933333333333</v>
+        <v>-488310533.7495601</v>
       </c>
       <c r="H137" t="n">
-        <v>9.314833333333331</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5710,40 +5767,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>8.94</v>
+        <v>9.18</v>
       </c>
       <c r="C138" t="n">
-        <v>8.960000000000001</v>
+        <v>8.99</v>
       </c>
       <c r="D138" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E138" t="n">
         <v>8.99</v>
       </c>
-      <c r="E138" t="n">
-        <v>8.93</v>
-      </c>
       <c r="F138" t="n">
-        <v>46452635.868</v>
+        <v>4524792.359766667</v>
       </c>
       <c r="G138" t="n">
-        <v>8.89533333333333</v>
+        <v>-492835326.1093267</v>
       </c>
       <c r="H138" t="n">
-        <v>9.292499999999999</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5755,37 +5809,34 @@
         <v>8.98</v>
       </c>
       <c r="C139" t="n">
-        <v>8.99</v>
+        <v>8.98</v>
       </c>
       <c r="D139" t="n">
-        <v>9</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>8.960000000000001</v>
+        <v>8.83</v>
       </c>
       <c r="F139" t="n">
-        <v>1388788.3778</v>
+        <v>1624426.4203</v>
       </c>
       <c r="G139" t="n">
-        <v>8.89733333333333</v>
+        <v>-494459752.5296267</v>
       </c>
       <c r="H139" t="n">
-        <v>9.273999999999999</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5797,37 +5848,34 @@
         <v>9</v>
       </c>
       <c r="C140" t="n">
-        <v>9.029999999999999</v>
+        <v>8.92</v>
       </c>
       <c r="D140" t="n">
-        <v>9.029999999999999</v>
+        <v>9</v>
       </c>
       <c r="E140" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="F140" t="n">
-        <v>4284803.0762</v>
+        <v>4426088.9271</v>
       </c>
       <c r="G140" t="n">
-        <v>8.906666666666665</v>
+        <v>-498885841.4567267</v>
       </c>
       <c r="H140" t="n">
-        <v>9.258499999999998</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5836,40 +5884,37 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9.029999999999999</v>
+        <v>8.92</v>
       </c>
       <c r="C141" t="n">
-        <v>9.390000000000001</v>
+        <v>8.68</v>
       </c>
       <c r="D141" t="n">
-        <v>9.390000000000001</v>
+        <v>8.93</v>
       </c>
       <c r="E141" t="n">
-        <v>9.029999999999999</v>
+        <v>8.68</v>
       </c>
       <c r="F141" t="n">
-        <v>6633341.665005112</v>
+        <v>1570728.8306</v>
       </c>
       <c r="G141" t="n">
-        <v>8.93933333333333</v>
+        <v>-500456570.2873268</v>
       </c>
       <c r="H141" t="n">
-        <v>9.249499999999999</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5878,40 +5923,37 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9.449999999999999</v>
+        <v>8.69</v>
       </c>
       <c r="C142" t="n">
-        <v>9.289999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>9.449999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="E142" t="n">
-        <v>9.15</v>
+        <v>8.69</v>
       </c>
       <c r="F142" t="n">
-        <v>2413117.4231</v>
+        <v>2352194.6862</v>
       </c>
       <c r="G142" t="n">
-        <v>8.965999999999998</v>
+        <v>-498104375.6011267</v>
       </c>
       <c r="H142" t="n">
-        <v>9.238999999999999</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5920,40 +5962,1180 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C143" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="D143" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="E143" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="F143" t="n">
+        <v>979716.6282</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-499084092.2293267</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="C144" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="D144" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="E144" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1062756.5178</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-500146848.7471267</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="C145" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="D145" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1672683.2135</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-498474165.5336267</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C146" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D146" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="E146" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F146" t="n">
+        <v>795956.9815</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-497678208.5521266</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C147" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="D147" t="n">
+        <v>9</v>
+      </c>
+      <c r="E147" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="F147" t="n">
+        <v>943086.0889</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-496735122.4632266</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="C148" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D148" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="E148" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1911990.770546871</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-494823131.6926798</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="C149" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D149" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="E149" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1142806.411553128</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-494823131.6926798</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="C150" t="n">
+        <v>9</v>
+      </c>
+      <c r="D150" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="E150" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1746646.1814</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-496569777.8740798</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9</v>
+      </c>
+      <c r="C151" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="D151" t="n">
+        <v>9</v>
+      </c>
+      <c r="E151" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1827706.1624</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-498397484.0364798</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="C152" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D152" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="E152" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1174906.683</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-499572390.7194798</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C153" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="D153" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="E153" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F153" t="n">
+        <v>19030870.92628571</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-480541519.7931941</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C154" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="D154" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E154" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F154" t="n">
+        <v>43524186.718</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-524065706.5111941</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F155" t="n">
+        <v>153889251.3019</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-370176455.2092941</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="C156" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="E156" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F156" t="n">
+        <v>109986897.5702</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-480163352.779494</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="C157" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D157" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="E157" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F157" t="n">
+        <v>77373074.19329999</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-557536426.9727941</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C158" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="D158" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E158" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="F158" t="n">
+        <v>116617880.5436</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-674154307.516394</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="C159" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="D159" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="E159" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F159" t="n">
+        <v>148801650</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-822955957.516394</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="C160" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D160" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E160" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="F160" t="n">
+        <v>30141424.6055</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-792814532.910894</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="C161" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="D161" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E161" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="F161" t="n">
+        <v>124720756.0081</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-917535288.9189941</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="C162" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D162" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E162" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F162" t="n">
+        <v>146706111.4443327</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-770829177.4746614</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="C163" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="D163" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="E163" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F163" t="n">
+        <v>52417926.0242</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-718411251.4504614</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="C164" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D164" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E164" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F164" t="n">
+        <v>18551927.3088</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-736963178.7592614</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C165" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="D165" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E165" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1140163.2834</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-735823015.4758613</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="C166" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="D166" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E166" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="F166" t="n">
+        <v>16758508.611</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-719064506.8648614</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="C167" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="D167" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E167" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="F167" t="n">
+        <v>46452635.868</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-672611870.9968613</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="C168" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9</v>
+      </c>
+      <c r="E168" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1388788.3778</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-671223082.6190614</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>9</v>
+      </c>
+      <c r="C169" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="D169" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="E169" t="n">
+        <v>9</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4284803.0762</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-666938279.5428613</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="D170" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="F170" t="n">
+        <v>6633341.665005112</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-660304937.8778563</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C171" t="n">
         <v>9.289999999999999</v>
       </c>
-      <c r="C143" t="n">
+      <c r="D171" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E171" t="n">
         <v>9.15</v>
       </c>
-      <c r="D143" t="n">
+      <c r="F171" t="n">
+        <v>2413117.4231</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-662718055.3009562</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="C172" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="D172" t="n">
         <v>9.359999999999999</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E172" t="n">
         <v>9.15</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F172" t="n">
         <v>3569162.0238</v>
       </c>
-      <c r="G143" t="n">
-        <v>8.983999999999998</v>
-      </c>
-      <c r="H143" t="n">
-        <v>9.228499999999999</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+      <c r="G172" t="n">
+        <v>-666287217.3247563</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-22 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-22 BackTest FZZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.5</v>
+        <v>12.7</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>11.9</v>
+        <v>13.3</v>
       </c>
       <c r="E2" t="n">
-        <v>11.4</v>
+        <v>12.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1112733.0343</v>
+        <v>4376918.9113</v>
       </c>
       <c r="G2" t="n">
-        <v>-22109525.51340975</v>
+        <v>12313055.82812206</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.8</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>11.8</v>
+        <v>13.4</v>
       </c>
       <c r="D3" t="n">
-        <v>11.9</v>
+        <v>13.6</v>
       </c>
       <c r="E3" t="n">
-        <v>11.8</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>631302.575</v>
+        <v>2757246.2796</v>
       </c>
       <c r="G3" t="n">
-        <v>-22109525.51340975</v>
+        <v>15070302.10772206</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.8</v>
+        <v>13.4</v>
       </c>
       <c r="C4" t="n">
-        <v>11.6</v>
+        <v>13.8</v>
       </c>
       <c r="D4" t="n">
-        <v>11.9</v>
+        <v>13.9</v>
       </c>
       <c r="E4" t="n">
-        <v>11.6</v>
+        <v>13.2</v>
       </c>
       <c r="F4" t="n">
-        <v>1047779.283515254</v>
+        <v>2570927.4723</v>
       </c>
       <c r="G4" t="n">
-        <v>-23157304.796925</v>
+        <v>17641229.58002206</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.5</v>
+        <v>13.8</v>
       </c>
       <c r="C5" t="n">
-        <v>11.6</v>
+        <v>13.6</v>
       </c>
       <c r="D5" t="n">
-        <v>11.7</v>
+        <v>14.1</v>
       </c>
       <c r="E5" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1285694.0624</v>
+        <v>4918182.050479771</v>
       </c>
       <c r="G5" t="n">
-        <v>-23157304.796925</v>
+        <v>12723047.52954229</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.6</v>
+        <v>13.8</v>
       </c>
       <c r="C6" t="n">
-        <v>11.5</v>
+        <v>13.8</v>
       </c>
       <c r="D6" t="n">
-        <v>11.8</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>11.3</v>
+        <v>13.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2860392.1584</v>
+        <v>1568910.51819499</v>
       </c>
       <c r="G6" t="n">
-        <v>-26017696.955325</v>
+        <v>14291958.04773728</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.5</v>
+        <v>13.8</v>
       </c>
       <c r="C7" t="n">
-        <v>11.7</v>
+        <v>13.6</v>
       </c>
       <c r="D7" t="n">
-        <v>11.7</v>
+        <v>14.1</v>
       </c>
       <c r="E7" t="n">
-        <v>11.4</v>
+        <v>13.6</v>
       </c>
       <c r="F7" t="n">
-        <v>1527598.6664</v>
+        <v>3986526.719026003</v>
       </c>
       <c r="G7" t="n">
-        <v>-24490098.288925</v>
+        <v>10305431.32871128</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.6</v>
+        <v>13.6</v>
       </c>
       <c r="C8" t="n">
-        <v>11.7</v>
+        <v>13.2</v>
       </c>
       <c r="D8" t="n">
-        <v>11.7</v>
+        <v>13.7</v>
       </c>
       <c r="E8" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>790084.0399</v>
+        <v>1503416.5531</v>
       </c>
       <c r="G8" t="n">
-        <v>-24490098.288925</v>
+        <v>8802014.775611281</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.7</v>
+        <v>13.2</v>
       </c>
       <c r="C9" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="E9" t="n">
-        <v>11.5</v>
+        <v>12.9</v>
       </c>
       <c r="F9" t="n">
-        <v>147752.8418</v>
+        <v>1048484.354633333</v>
       </c>
       <c r="G9" t="n">
-        <v>-24637851.130725</v>
+        <v>7753530.420977948</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.6</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="D10" t="n">
-        <v>11.6</v>
+        <v>13.5</v>
       </c>
       <c r="E10" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>19460.887</v>
+        <v>3861726.0843</v>
       </c>
       <c r="G10" t="n">
-        <v>-24637851.130725</v>
+        <v>11615256.50527795</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.6</v>
+        <v>13.5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="D11" t="n">
-        <v>11.6</v>
+        <v>13.8</v>
       </c>
       <c r="E11" t="n">
-        <v>11.5</v>
+        <v>13.3</v>
       </c>
       <c r="F11" t="n">
-        <v>301552.7994</v>
+        <v>1583085.8152</v>
       </c>
       <c r="G11" t="n">
-        <v>-24637851.130725</v>
+        <v>11615256.50527795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="C12" t="n">
-        <v>11.2</v>
+        <v>13.6</v>
       </c>
       <c r="D12" t="n">
-        <v>11.5</v>
+        <v>13.6</v>
       </c>
       <c r="E12" t="n">
-        <v>11.2</v>
+        <v>13.3</v>
       </c>
       <c r="F12" t="n">
-        <v>1084874.331</v>
+        <v>985586.3742</v>
       </c>
       <c r="G12" t="n">
-        <v>-25722725.461725</v>
+        <v>12600842.87947795</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.3</v>
+        <v>13.6</v>
       </c>
       <c r="C13" t="n">
-        <v>11.3</v>
+        <v>13.3</v>
       </c>
       <c r="D13" t="n">
-        <v>11.6</v>
+        <v>13.7</v>
       </c>
       <c r="E13" t="n">
-        <v>11.2</v>
+        <v>13.3</v>
       </c>
       <c r="F13" t="n">
-        <v>571691.140326087</v>
+        <v>1326076.8047</v>
       </c>
       <c r="G13" t="n">
-        <v>-25151034.32139891</v>
+        <v>11274766.07477795</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.3</v>
+        <v>13.5</v>
       </c>
       <c r="C14" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="D14" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="E14" t="n">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="F14" t="n">
-        <v>1135841.9279</v>
+        <v>887501.3855592592</v>
       </c>
       <c r="G14" t="n">
-        <v>-24015192.39349891</v>
+        <v>12162267.46033721</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.5</v>
+        <v>13.4</v>
       </c>
       <c r="C15" t="n">
-        <v>11.5</v>
+        <v>13.2</v>
       </c>
       <c r="D15" t="n">
-        <v>11.5</v>
+        <v>13.4</v>
       </c>
       <c r="E15" t="n">
-        <v>11.4</v>
+        <v>12.9</v>
       </c>
       <c r="F15" t="n">
-        <v>1532387.8386</v>
+        <v>2388782.591</v>
       </c>
       <c r="G15" t="n">
-        <v>-24015192.39349891</v>
+        <v>9773484.869337207</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.5</v>
+        <v>13.2</v>
       </c>
       <c r="C16" t="n">
-        <v>11.5</v>
+        <v>12.9</v>
       </c>
       <c r="D16" t="n">
-        <v>11.5</v>
+        <v>13.2</v>
       </c>
       <c r="E16" t="n">
-        <v>11.4</v>
+        <v>12.9</v>
       </c>
       <c r="F16" t="n">
-        <v>220156.9542739131</v>
+        <v>3024267.960971318</v>
       </c>
       <c r="G16" t="n">
-        <v>-24015192.39349891</v>
+        <v>6749216.908365889</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.3</v>
+        <v>12.8</v>
       </c>
       <c r="C17" t="n">
-        <v>11.2</v>
+        <v>13.1</v>
       </c>
       <c r="D17" t="n">
-        <v>11.5</v>
+        <v>13.1</v>
       </c>
       <c r="E17" t="n">
-        <v>11.2</v>
+        <v>12.8</v>
       </c>
       <c r="F17" t="n">
-        <v>749520.0048</v>
+        <v>793122.91</v>
       </c>
       <c r="G17" t="n">
-        <v>-24764712.39829891</v>
+        <v>7542339.818365889</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.2</v>
+        <v>12.9</v>
       </c>
       <c r="C18" t="n">
-        <v>11.3</v>
+        <v>12.5</v>
       </c>
       <c r="D18" t="n">
-        <v>11.3</v>
+        <v>12.9</v>
       </c>
       <c r="E18" t="n">
-        <v>11.2</v>
+        <v>12.3</v>
       </c>
       <c r="F18" t="n">
-        <v>126096.7309</v>
+        <v>4597596.892723256</v>
       </c>
       <c r="G18" t="n">
-        <v>-24638615.66739891</v>
+        <v>2944742.925642633</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.3</v>
+        <v>12.5</v>
       </c>
       <c r="C19" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
       <c r="D19" t="n">
-        <v>11.3</v>
+        <v>12.5</v>
       </c>
       <c r="E19" t="n">
-        <v>11.2</v>
+        <v>12.2</v>
       </c>
       <c r="F19" t="n">
-        <v>341339.0067</v>
+        <v>3248960.1208</v>
       </c>
       <c r="G19" t="n">
-        <v>-24638615.66739891</v>
+        <v>-304217.1951573673</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.3</v>
+        <v>12.2</v>
       </c>
       <c r="C20" t="n">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>11.4</v>
+        <v>12.2</v>
       </c>
       <c r="E20" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="F20" t="n">
-        <v>428364.2398</v>
+        <v>7179391.833738983</v>
       </c>
       <c r="G20" t="n">
-        <v>-24210251.42759891</v>
+        <v>-7483609.02889635</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12</v>
+      </c>
+      <c r="E21" t="n">
         <v>11.4</v>
       </c>
-      <c r="C21" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E21" t="n">
-        <v>11.3</v>
-      </c>
       <c r="F21" t="n">
-        <v>1113954.7691</v>
+        <v>4767197.1456</v>
       </c>
       <c r="G21" t="n">
-        <v>-25324206.19669891</v>
+        <v>-12250806.17449635</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="C22" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="D22" t="n">
+        <v>12</v>
+      </c>
+      <c r="E22" t="n">
         <v>11.5</v>
       </c>
-      <c r="E22" t="n">
-        <v>11.2</v>
-      </c>
       <c r="F22" t="n">
-        <v>1220463.290485965</v>
+        <v>5001488.188567797</v>
       </c>
       <c r="G22" t="n">
-        <v>-25324206.19669891</v>
+        <v>-17252294.36306415</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="C23" t="n">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="D23" t="n">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="E23" t="n">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="F23" t="n">
-        <v>352890.2223</v>
+        <v>1594852.578752941</v>
       </c>
       <c r="G23" t="n">
-        <v>-25324206.19669891</v>
+        <v>-15657441.78431121</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="C24" t="n">
-        <v>11.1</v>
+        <v>11.9</v>
       </c>
       <c r="D24" t="n">
-        <v>11.4</v>
+        <v>12.1</v>
       </c>
       <c r="E24" t="n">
-        <v>11.1</v>
+        <v>11.9</v>
       </c>
       <c r="F24" t="n">
-        <v>566168.7173</v>
+        <v>2299591.371766667</v>
       </c>
       <c r="G24" t="n">
-        <v>-25890374.91399891</v>
+        <v>-15657441.78431121</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.1</v>
+        <v>11.8</v>
       </c>
       <c r="C25" t="n">
-        <v>10.5</v>
+        <v>11.8</v>
       </c>
       <c r="D25" t="n">
-        <v>11.1</v>
+        <v>11.8</v>
       </c>
       <c r="E25" t="n">
-        <v>10.5</v>
+        <v>11.7</v>
       </c>
       <c r="F25" t="n">
-        <v>2972070.149327273</v>
+        <v>2128089.3629</v>
       </c>
       <c r="G25" t="n">
-        <v>-28862445.06332619</v>
+        <v>-17785531.14721121</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10.5</v>
+        <v>11.9</v>
       </c>
       <c r="C26" t="n">
-        <v>10.7</v>
+        <v>11.8</v>
       </c>
       <c r="D26" t="n">
-        <v>10.7</v>
+        <v>11.9</v>
       </c>
       <c r="E26" t="n">
-        <v>10.5</v>
+        <v>11.7</v>
       </c>
       <c r="F26" t="n">
-        <v>2680295.0504</v>
+        <v>1809955.8903</v>
       </c>
       <c r="G26" t="n">
-        <v>-26182150.01292619</v>
+        <v>-17785531.14721121</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10.7</v>
+        <v>11.9</v>
       </c>
       <c r="C27" t="n">
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="E27" t="n">
-        <v>10.7</v>
+        <v>11.8</v>
       </c>
       <c r="F27" t="n">
-        <v>2489323.57673945</v>
+        <v>1779940.7412</v>
       </c>
       <c r="G27" t="n">
-        <v>-23692826.43618674</v>
+        <v>-16005590.40601121</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="C28" t="n">
-        <v>10.9</v>
+        <v>11.9</v>
       </c>
       <c r="D28" t="n">
-        <v>10.9</v>
+        <v>12</v>
       </c>
       <c r="E28" t="n">
-        <v>10.7</v>
+        <v>11.8</v>
       </c>
       <c r="F28" t="n">
-        <v>342160.7203</v>
+        <v>1667417.0284</v>
       </c>
       <c r="G28" t="n">
-        <v>-23350665.71588674</v>
+        <v>-17673007.43441121</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>10.9</v>
+        <v>11.9</v>
       </c>
       <c r="C29" t="n">
-        <v>10.8</v>
+        <v>11.9</v>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>10.8</v>
+        <v>11.8</v>
       </c>
       <c r="F29" t="n">
-        <v>1339177.179960551</v>
+        <v>1585374.8649</v>
       </c>
       <c r="G29" t="n">
-        <v>-24689842.89584729</v>
+        <v>-17673007.43441121</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10.9</v>
+        <v>11.9</v>
       </c>
       <c r="C30" t="n">
-        <v>10.9</v>
+        <v>11.9</v>
       </c>
       <c r="D30" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="E30" t="n">
-        <v>10.9</v>
+        <v>11.8</v>
       </c>
       <c r="F30" t="n">
-        <v>501705.3977818182</v>
+        <v>2847428.6962</v>
       </c>
       <c r="G30" t="n">
-        <v>-24188137.49806547</v>
+        <v>-17673007.43441121</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10.9</v>
+        <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>12.2</v>
       </c>
       <c r="D31" t="n">
-        <v>11</v>
+        <v>12.2</v>
       </c>
       <c r="E31" t="n">
-        <v>10.8</v>
+        <v>11.9</v>
       </c>
       <c r="F31" t="n">
-        <v>1121074.379718182</v>
+        <v>2686209.5994</v>
       </c>
       <c r="G31" t="n">
-        <v>-23067063.11834729</v>
+        <v>-14986797.83501121</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11</v>
+        <v>12.2</v>
       </c>
       <c r="C32" t="n">
-        <v>10.9</v>
+        <v>12.1</v>
       </c>
       <c r="D32" t="n">
-        <v>11</v>
+        <v>12.2</v>
       </c>
       <c r="E32" t="n">
-        <v>10.8</v>
+        <v>11.9</v>
       </c>
       <c r="F32" t="n">
-        <v>722609.2377818181</v>
+        <v>1839711.5886</v>
       </c>
       <c r="G32" t="n">
-        <v>-23789672.35612911</v>
+        <v>-16826509.42361121</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10.9</v>
+        <v>12</v>
       </c>
       <c r="C33" t="n">
-        <v>10.9</v>
+        <v>12</v>
       </c>
       <c r="D33" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="E33" t="n">
-        <v>10.9</v>
+        <v>11.9</v>
       </c>
       <c r="F33" t="n">
-        <v>137798.9438</v>
+        <v>1709000.1446</v>
       </c>
       <c r="G33" t="n">
-        <v>-23789672.35612911</v>
+        <v>-18535509.56821121</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10.8</v>
+        <v>12.1</v>
       </c>
       <c r="C34" t="n">
-        <v>10.6</v>
+        <v>11.9</v>
       </c>
       <c r="D34" t="n">
-        <v>10.9</v>
+        <v>12.1</v>
       </c>
       <c r="E34" t="n">
-        <v>10.6</v>
+        <v>11.9</v>
       </c>
       <c r="F34" t="n">
-        <v>1754030.1733</v>
+        <v>1090565.148566667</v>
       </c>
       <c r="G34" t="n">
-        <v>-25543702.52942911</v>
+        <v>-19626074.71677788</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>10.6</v>
+        <v>11.9</v>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>11.6</v>
       </c>
       <c r="D35" t="n">
-        <v>10.6</v>
+        <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>11.6</v>
       </c>
       <c r="F35" t="n">
-        <v>8613065.7612</v>
+        <v>2044971.1093</v>
       </c>
       <c r="G35" t="n">
-        <v>-34156768.2906291</v>
+        <v>-21671045.82607787</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10</v>
+        <v>11.6</v>
       </c>
       <c r="C36" t="n">
-        <v>10.2</v>
+        <v>11.7</v>
       </c>
       <c r="D36" t="n">
-        <v>10.2</v>
+        <v>11.8</v>
       </c>
       <c r="E36" t="n">
-        <v>9.949999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="F36" t="n">
-        <v>5700266.4594</v>
+        <v>851289.8443</v>
       </c>
       <c r="G36" t="n">
-        <v>-28456501.83122911</v>
+        <v>-20819755.98177788</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>10.1</v>
+        <v>11.8</v>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>10.3</v>
+        <v>12</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>11.7</v>
       </c>
       <c r="F37" t="n">
-        <v>8402080.042165048</v>
+        <v>1311813.4437</v>
       </c>
       <c r="G37" t="n">
-        <v>-36858581.87339415</v>
+        <v>-19507942.53807788</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>10</v>
+        <v>11.9</v>
       </c>
       <c r="C38" t="n">
-        <v>9.94</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>12.1</v>
       </c>
       <c r="E38" t="n">
-        <v>9.82</v>
+        <v>11.9</v>
       </c>
       <c r="F38" t="n">
-        <v>4133550.5417</v>
+        <v>1247719.0118</v>
       </c>
       <c r="G38" t="n">
-        <v>-40992132.41509415</v>
+        <v>-19507942.53807788</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9.94</v>
+        <v>12</v>
       </c>
       <c r="C39" t="n">
-        <v>9.949999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="D39" t="n">
-        <v>10.2</v>
+        <v>12</v>
       </c>
       <c r="E39" t="n">
-        <v>9.85</v>
+        <v>11.9</v>
       </c>
       <c r="F39" t="n">
-        <v>2459229.2119</v>
+        <v>393243.3939</v>
       </c>
       <c r="G39" t="n">
-        <v>-38532903.20319415</v>
+        <v>-19901185.93197788</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.949999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="C40" t="n">
-        <v>10.1</v>
+        <v>11.7</v>
       </c>
       <c r="D40" t="n">
-        <v>10.1</v>
+        <v>11.9</v>
       </c>
       <c r="E40" t="n">
-        <v>9.949999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="F40" t="n">
-        <v>5228347.2596</v>
+        <v>188843.9257</v>
       </c>
       <c r="G40" t="n">
-        <v>-33304555.94359415</v>
+        <v>-20090029.85767788</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10.1</v>
+        <v>11.9</v>
       </c>
       <c r="C41" t="n">
-        <v>9.92</v>
+        <v>11.8</v>
       </c>
       <c r="D41" t="n">
-        <v>10.1</v>
+        <v>11.9</v>
       </c>
       <c r="E41" t="n">
-        <v>9.859999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="F41" t="n">
-        <v>2063785.2134</v>
+        <v>236149.1817</v>
       </c>
       <c r="G41" t="n">
-        <v>-35368341.15699415</v>
+        <v>-19853880.67597788</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9.949999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="C42" t="n">
-        <v>9.81</v>
+        <v>11.9</v>
       </c>
       <c r="D42" t="n">
-        <v>9.949999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="E42" t="n">
-        <v>9.81</v>
+        <v>11.8</v>
       </c>
       <c r="F42" t="n">
-        <v>4016114.0676</v>
+        <v>576905.8841</v>
       </c>
       <c r="G42" t="n">
-        <v>-39384455.22459415</v>
+        <v>-19276974.79187788</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9.9</v>
+        <v>11.9</v>
       </c>
       <c r="C43" t="n">
-        <v>9.91</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>9.91</v>
+        <v>12</v>
       </c>
       <c r="E43" t="n">
-        <v>9.789999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="F43" t="n">
-        <v>1516284.5484</v>
+        <v>658664.8334999999</v>
       </c>
       <c r="G43" t="n">
-        <v>-37868170.67619415</v>
+        <v>-18618309.95837788</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9.99</v>
+        <v>12</v>
       </c>
       <c r="C44" t="n">
-        <v>9.960000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="D44" t="n">
-        <v>10.1</v>
+        <v>12.2</v>
       </c>
       <c r="E44" t="n">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>4446805.1021</v>
+        <v>339786.1795</v>
       </c>
       <c r="G44" t="n">
-        <v>-33421365.57409415</v>
+        <v>-18278523.77887788</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9.94</v>
+        <v>12</v>
       </c>
       <c r="C45" t="n">
-        <v>9.960000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="D45" t="n">
-        <v>10.1</v>
+        <v>12.2</v>
       </c>
       <c r="E45" t="n">
-        <v>9.94</v>
+        <v>12</v>
       </c>
       <c r="F45" t="n">
-        <v>2208706.0524</v>
+        <v>1249634.3279</v>
       </c>
       <c r="G45" t="n">
-        <v>-33421365.57409415</v>
+        <v>-18278523.77887788</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9.949999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="C46" t="n">
-        <v>9.800000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="D46" t="n">
-        <v>9.98</v>
+        <v>12.3</v>
       </c>
       <c r="E46" t="n">
-        <v>9.77</v>
+        <v>12</v>
       </c>
       <c r="F46" t="n">
-        <v>2265073.469663968</v>
+        <v>677945.7581131147</v>
       </c>
       <c r="G46" t="n">
-        <v>-35686439.04375812</v>
+        <v>-18956469.53699099</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9.779999999999999</v>
+        <v>12</v>
       </c>
       <c r="C47" t="n">
-        <v>9.779999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="D47" t="n">
-        <v>9.800000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="E47" t="n">
-        <v>9.609999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="F47" t="n">
-        <v>2103354.486820778</v>
+        <v>1195278.3905</v>
       </c>
       <c r="G47" t="n">
-        <v>-37789793.5305789</v>
+        <v>-20151747.92749099</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9.74</v>
+        <v>11.9</v>
       </c>
       <c r="C48" t="n">
-        <v>9.76</v>
+        <v>12</v>
       </c>
       <c r="D48" t="n">
-        <v>9.800000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="E48" t="n">
-        <v>9.640000000000001</v>
+        <v>11.9</v>
       </c>
       <c r="F48" t="n">
-        <v>1785391.0187</v>
+        <v>1028698.9434</v>
       </c>
       <c r="G48" t="n">
-        <v>-39575184.5492789</v>
+        <v>-19123048.984091</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9.76</v>
+        <v>12</v>
       </c>
       <c r="C49" t="n">
-        <v>9.85</v>
+        <v>12.1</v>
       </c>
       <c r="D49" t="n">
-        <v>9.869999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="E49" t="n">
-        <v>9.76</v>
+        <v>11.9</v>
       </c>
       <c r="F49" t="n">
-        <v>2828784.2478</v>
+        <v>565298.1183876033</v>
       </c>
       <c r="G49" t="n">
-        <v>-36746400.3014789</v>
+        <v>-18557750.86570339</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9.869999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="C50" t="n">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="D50" t="n">
-        <v>9.99</v>
+        <v>12.2</v>
       </c>
       <c r="E50" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="F50" t="n">
-        <v>1360821.6287</v>
+        <v>1424400.8606</v>
       </c>
       <c r="G50" t="n">
-        <v>-35385578.6727789</v>
+        <v>-19982151.72630339</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,28 +2202,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9.82</v>
+        <v>12.1</v>
       </c>
       <c r="C51" t="n">
-        <v>9.94</v>
+        <v>12.2</v>
       </c>
       <c r="D51" t="n">
-        <v>10.1</v>
+        <v>12.2</v>
       </c>
       <c r="E51" t="n">
-        <v>9.82</v>
+        <v>12</v>
       </c>
       <c r="F51" t="n">
-        <v>5085176.9231</v>
+        <v>279971.3464</v>
       </c>
       <c r="G51" t="n">
-        <v>-30300401.74967889</v>
+        <v>-19702180.37990339</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,28 +2238,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9.98</v>
+        <v>12.2</v>
       </c>
       <c r="C52" t="n">
-        <v>10.2</v>
+        <v>12.3</v>
       </c>
       <c r="D52" t="n">
-        <v>10.2</v>
+        <v>12.3</v>
       </c>
       <c r="E52" t="n">
-        <v>9.98</v>
+        <v>12.1</v>
       </c>
       <c r="F52" t="n">
-        <v>2257843.3283</v>
+        <v>1555824.534112397</v>
       </c>
       <c r="G52" t="n">
-        <v>-28042558.4213789</v>
+        <v>-18146355.84579099</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>10.2</v>
+        <v>12.4</v>
       </c>
       <c r="C53" t="n">
-        <v>9.880000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="D53" t="n">
-        <v>10.2</v>
+        <v>12.5</v>
       </c>
       <c r="E53" t="n">
-        <v>9.869999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="F53" t="n">
-        <v>4455805.533564356</v>
+        <v>1600781.4384</v>
       </c>
       <c r="G53" t="n">
-        <v>-32498363.95494325</v>
+        <v>-16545574.40739099</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2310,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9.92</v>
+        <v>12.4</v>
       </c>
       <c r="C54" t="n">
-        <v>9.960000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="D54" t="n">
-        <v>9.960000000000001</v>
+        <v>12.7</v>
       </c>
       <c r="E54" t="n">
-        <v>9.85</v>
+        <v>12.4</v>
       </c>
       <c r="F54" t="n">
-        <v>405345.5291</v>
+        <v>2081506.4373</v>
       </c>
       <c r="G54" t="n">
-        <v>-32093018.42584325</v>
+        <v>-14464067.97009099</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9.949999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="C55" t="n">
-        <v>9.9</v>
+        <v>12.5</v>
       </c>
       <c r="D55" t="n">
-        <v>9.949999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="E55" t="n">
-        <v>9.859999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="F55" t="n">
-        <v>1815000.3718</v>
+        <v>1963077.71</v>
       </c>
       <c r="G55" t="n">
-        <v>-33908018.79764325</v>
+        <v>-14464067.97009099</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.890000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="C56" t="n">
-        <v>9.92</v>
+        <v>12.5</v>
       </c>
       <c r="D56" t="n">
-        <v>9.949999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="E56" t="n">
-        <v>9.880000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="F56" t="n">
-        <v>902713.1435</v>
+        <v>170230.28</v>
       </c>
       <c r="G56" t="n">
-        <v>-33005305.65414325</v>
+        <v>-14464067.97009099</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9.93</v>
+        <v>12.4</v>
       </c>
       <c r="C57" t="n">
-        <v>10.2</v>
+        <v>12.1</v>
       </c>
       <c r="D57" t="n">
-        <v>10.2</v>
+        <v>12.5</v>
       </c>
       <c r="E57" t="n">
-        <v>9.93</v>
+        <v>12</v>
       </c>
       <c r="F57" t="n">
-        <v>1724698.8504</v>
+        <v>2187442.47</v>
       </c>
       <c r="G57" t="n">
-        <v>-31280606.80374325</v>
+        <v>-16651510.44009099</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,28 +2454,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10.1</v>
+        <v>12.1</v>
       </c>
       <c r="C58" t="n">
-        <v>10.1</v>
+        <v>12.1</v>
       </c>
       <c r="D58" t="n">
-        <v>10.4</v>
+        <v>12.2</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>12.1</v>
       </c>
       <c r="F58" t="n">
-        <v>2169496.5292</v>
+        <v>1062846.273354545</v>
       </c>
       <c r="G58" t="n">
-        <v>-33450103.33294325</v>
+        <v>-16651510.44009099</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10</v>
+        <v>12.1</v>
       </c>
       <c r="C59" t="n">
-        <v>9.91</v>
+        <v>12.2</v>
       </c>
       <c r="D59" t="n">
-        <v>10.1</v>
+        <v>12.2</v>
       </c>
       <c r="E59" t="n">
-        <v>9.91</v>
+        <v>12.1</v>
       </c>
       <c r="F59" t="n">
-        <v>1097853.6251</v>
+        <v>307188.4241454545</v>
       </c>
       <c r="G59" t="n">
-        <v>-34547956.95804325</v>
+        <v>-16344322.01594554</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,28 +2526,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9.92</v>
+        <v>12.1</v>
       </c>
       <c r="C60" t="n">
-        <v>9.949999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="D60" t="n">
-        <v>10.1</v>
+        <v>12.1</v>
       </c>
       <c r="E60" t="n">
-        <v>9.92</v>
+        <v>12.1</v>
       </c>
       <c r="F60" t="n">
-        <v>1228316.6457</v>
+        <v>361331.1893545454</v>
       </c>
       <c r="G60" t="n">
-        <v>-33319640.31234325</v>
+        <v>-16705653.20530008</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2562,28 +2562,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10.1</v>
+        <v>12.1</v>
       </c>
       <c r="C61" t="n">
-        <v>10</v>
+        <v>12.1</v>
       </c>
       <c r="D61" t="n">
-        <v>10.1</v>
+        <v>12.1</v>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>12.1</v>
       </c>
       <c r="F61" t="n">
-        <v>915894.1813000001</v>
+        <v>414326.9583</v>
       </c>
       <c r="G61" t="n">
-        <v>-32403746.13104325</v>
+        <v>-16705653.20530008</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2598,28 +2598,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>10</v>
+        <v>12.1</v>
       </c>
       <c r="C62" t="n">
-        <v>10.1</v>
+        <v>12.1</v>
       </c>
       <c r="D62" t="n">
-        <v>10.3</v>
+        <v>12.2</v>
       </c>
       <c r="E62" t="n">
-        <v>9.99</v>
+        <v>12</v>
       </c>
       <c r="F62" t="n">
-        <v>1534686.8781</v>
+        <v>381111.9234454546</v>
       </c>
       <c r="G62" t="n">
-        <v>-30869059.25294325</v>
+        <v>-16705653.20530008</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2634,28 +2634,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>10.1</v>
+        <v>12.2</v>
       </c>
       <c r="C63" t="n">
-        <v>10.1</v>
+        <v>12.2</v>
       </c>
       <c r="D63" t="n">
-        <v>10.1</v>
+        <v>12.2</v>
       </c>
       <c r="E63" t="n">
-        <v>10.1</v>
+        <v>12.1</v>
       </c>
       <c r="F63" t="n">
-        <v>512770.6067</v>
+        <v>513038.5508245901</v>
       </c>
       <c r="G63" t="n">
-        <v>-30869059.25294325</v>
+        <v>-16192614.65447549</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2670,28 +2670,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10.2</v>
+        <v>12.1</v>
       </c>
       <c r="C64" t="n">
-        <v>10.2</v>
+        <v>12.3</v>
       </c>
       <c r="D64" t="n">
-        <v>10.2</v>
+        <v>12.3</v>
       </c>
       <c r="E64" t="n">
-        <v>10.1</v>
+        <v>12.1</v>
       </c>
       <c r="F64" t="n">
-        <v>130855.5394313726</v>
+        <v>692174.8077754099</v>
       </c>
       <c r="G64" t="n">
-        <v>-30738203.71351188</v>
+        <v>-15500439.84670008</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2706,28 +2706,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>10.2</v>
+        <v>12.3</v>
       </c>
       <c r="C65" t="n">
-        <v>10.3</v>
+        <v>12.4</v>
       </c>
       <c r="D65" t="n">
-        <v>10.4</v>
+        <v>12.4</v>
       </c>
       <c r="E65" t="n">
-        <v>10.1</v>
+        <v>12.2</v>
       </c>
       <c r="F65" t="n">
-        <v>1035707.684630166</v>
+        <v>1398605.0335</v>
       </c>
       <c r="G65" t="n">
-        <v>-29702496.02888171</v>
+        <v>-14101834.81320008</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2742,28 +2742,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>10.3</v>
+        <v>12.4</v>
       </c>
       <c r="C66" t="n">
-        <v>10.1</v>
+        <v>12.3</v>
       </c>
       <c r="D66" t="n">
-        <v>10.3</v>
+        <v>12.5</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>12.3</v>
       </c>
       <c r="F66" t="n">
-        <v>2752415.7345</v>
+        <v>1815359.7187</v>
       </c>
       <c r="G66" t="n">
-        <v>-32454911.76338171</v>
+        <v>-15917194.53190008</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2778,28 +2778,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>10.1</v>
+        <v>12.3</v>
       </c>
       <c r="C67" t="n">
-        <v>9.960000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="D67" t="n">
-        <v>10.2</v>
+        <v>12.3</v>
       </c>
       <c r="E67" t="n">
-        <v>9.960000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="F67" t="n">
-        <v>1413031.6586</v>
+        <v>1175059.45652459</v>
       </c>
       <c r="G67" t="n">
-        <v>-33867943.42198171</v>
+        <v>-17092253.98842467</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2814,28 +2814,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.93</v>
+        <v>12.2</v>
       </c>
       <c r="C68" t="n">
-        <v>9.93</v>
+        <v>12.4</v>
       </c>
       <c r="D68" t="n">
-        <v>9.949999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="E68" t="n">
-        <v>9.82</v>
+        <v>12.2</v>
       </c>
       <c r="F68" t="n">
-        <v>1170482.9236</v>
+        <v>3448482.81987541</v>
       </c>
       <c r="G68" t="n">
-        <v>-35038426.34558171</v>
+        <v>-13643771.16854926</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2850,28 +2850,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.93</v>
+        <v>12.4</v>
       </c>
       <c r="C69" t="n">
-        <v>9.92</v>
+        <v>12.2</v>
       </c>
       <c r="D69" t="n">
-        <v>9.93</v>
+        <v>12.5</v>
       </c>
       <c r="E69" t="n">
-        <v>9.859999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="F69" t="n">
-        <v>335972.8460529708</v>
+        <v>6009872.6166</v>
       </c>
       <c r="G69" t="n">
-        <v>-35374399.19163468</v>
+        <v>-19653643.78514927</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2886,28 +2886,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.859999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="C70" t="n">
-        <v>9.779999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="D70" t="n">
-        <v>9.93</v>
+        <v>12.4</v>
       </c>
       <c r="E70" t="n">
-        <v>9.6</v>
+        <v>12.2</v>
       </c>
       <c r="F70" t="n">
-        <v>2324715.0985</v>
+        <v>163333.8735395161</v>
       </c>
       <c r="G70" t="n">
-        <v>-37699114.29013468</v>
+        <v>-19490309.91160975</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2922,28 +2922,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.85</v>
+        <v>12.3</v>
       </c>
       <c r="C71" t="n">
-        <v>9.83</v>
+        <v>12.2</v>
       </c>
       <c r="D71" t="n">
-        <v>9.85</v>
+        <v>12.3</v>
       </c>
       <c r="E71" t="n">
-        <v>9.67</v>
+        <v>12.2</v>
       </c>
       <c r="F71" t="n">
-        <v>279659.8361</v>
+        <v>695209.8958000001</v>
       </c>
       <c r="G71" t="n">
-        <v>-37419454.45403469</v>
+        <v>-20185519.80740975</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2958,28 +2958,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9.81</v>
+        <v>12.2</v>
       </c>
       <c r="C72" t="n">
-        <v>9.9</v>
+        <v>11.5</v>
       </c>
       <c r="D72" t="n">
-        <v>9.9</v>
+        <v>12.2</v>
       </c>
       <c r="E72" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="F72" t="n">
-        <v>150935.8067</v>
+        <v>3036738.7403</v>
       </c>
       <c r="G72" t="n">
-        <v>-37268518.64733469</v>
+        <v>-23222258.54770975</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2994,28 +2994,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="C73" t="n">
-        <v>9.800000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="D73" t="n">
-        <v>9.869999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="E73" t="n">
-        <v>9.800000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="F73" t="n">
-        <v>212156.3323677811</v>
+        <v>1112733.0343</v>
       </c>
       <c r="G73" t="n">
-        <v>-37480674.97970247</v>
+        <v>-22109525.51340975</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3030,28 +3030,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9.859999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="C74" t="n">
-        <v>9.880000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="D74" t="n">
-        <v>9.949999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="E74" t="n">
-        <v>9.800000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="F74" t="n">
-        <v>404305.1614</v>
+        <v>631302.575</v>
       </c>
       <c r="G74" t="n">
-        <v>-37076369.81830247</v>
+        <v>-22109525.51340975</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3066,28 +3066,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9.800000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="C75" t="n">
-        <v>9.789999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="D75" t="n">
-        <v>9.859999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="E75" t="n">
-        <v>9.67</v>
+        <v>11.6</v>
       </c>
       <c r="F75" t="n">
-        <v>758739.8808</v>
+        <v>1047779.283515254</v>
       </c>
       <c r="G75" t="n">
-        <v>-37835109.69910247</v>
+        <v>-23157304.796925</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3102,28 +3102,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9.710000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="C76" t="n">
-        <v>9.869999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="D76" t="n">
-        <v>9.869999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="E76" t="n">
-        <v>9.710000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="F76" t="n">
-        <v>168976.4122</v>
+        <v>1285694.0624</v>
       </c>
       <c r="G76" t="n">
-        <v>-37666133.28690247</v>
+        <v>-23157304.796925</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9.75</v>
+        <v>11.6</v>
       </c>
       <c r="C77" t="n">
-        <v>9.75</v>
+        <v>11.5</v>
       </c>
       <c r="D77" t="n">
-        <v>9.81</v>
+        <v>11.8</v>
       </c>
       <c r="E77" t="n">
-        <v>9.75</v>
+        <v>11.3</v>
       </c>
       <c r="F77" t="n">
-        <v>371869.3897</v>
+        <v>2860392.1584</v>
       </c>
       <c r="G77" t="n">
-        <v>-38038002.67660248</v>
+        <v>-26017696.955325</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9.75</v>
+        <v>11.5</v>
       </c>
       <c r="C78" t="n">
-        <v>9.77</v>
+        <v>11.7</v>
       </c>
       <c r="D78" t="n">
-        <v>9.85</v>
+        <v>11.7</v>
       </c>
       <c r="E78" t="n">
-        <v>9.75</v>
+        <v>11.4</v>
       </c>
       <c r="F78" t="n">
-        <v>82829.70318130081</v>
+        <v>1527598.6664</v>
       </c>
       <c r="G78" t="n">
-        <v>-37955172.97342117</v>
+        <v>-24490098.288925</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9.83</v>
+        <v>11.6</v>
       </c>
       <c r="C79" t="n">
-        <v>9.83</v>
+        <v>11.7</v>
       </c>
       <c r="D79" t="n">
-        <v>9.880000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="E79" t="n">
-        <v>9.75</v>
+        <v>11.5</v>
       </c>
       <c r="F79" t="n">
-        <v>1225284.0495</v>
+        <v>790084.0399</v>
       </c>
       <c r="G79" t="n">
-        <v>-36729888.92392117</v>
+        <v>-24490098.288925</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.83</v>
+        <v>11.7</v>
       </c>
       <c r="C80" t="n">
-        <v>9.890000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="D80" t="n">
-        <v>9.949999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="E80" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="F80" t="n">
-        <v>2729353.367933166</v>
+        <v>147752.8418</v>
       </c>
       <c r="G80" t="n">
-        <v>-34000535.555988</v>
+        <v>-24637851.130725</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.869999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="C81" t="n">
-        <v>9.84</v>
+        <v>11.5</v>
       </c>
       <c r="D81" t="n">
-        <v>9.869999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="E81" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="F81" t="n">
-        <v>15248201.4463</v>
+        <v>19460.887</v>
       </c>
       <c r="G81" t="n">
-        <v>-49248737.002288</v>
+        <v>-24637851.130725</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.84</v>
+        <v>11.6</v>
       </c>
       <c r="C82" t="n">
-        <v>9.84</v>
+        <v>11.5</v>
       </c>
       <c r="D82" t="n">
-        <v>9.890000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="E82" t="n">
-        <v>9.789999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="F82" t="n">
-        <v>56177306.6863</v>
+        <v>301552.7994</v>
       </c>
       <c r="G82" t="n">
-        <v>-49248737.002288</v>
+        <v>-24637851.130725</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.84</v>
+        <v>11.5</v>
       </c>
       <c r="C83" t="n">
-        <v>9.779999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="D83" t="n">
-        <v>9.85</v>
+        <v>11.5</v>
       </c>
       <c r="E83" t="n">
-        <v>9.77</v>
+        <v>11.2</v>
       </c>
       <c r="F83" t="n">
-        <v>94032356.28955285</v>
+        <v>1084874.331</v>
       </c>
       <c r="G83" t="n">
-        <v>-143281093.2918409</v>
+        <v>-25722725.461725</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.77</v>
+        <v>11.3</v>
       </c>
       <c r="C84" t="n">
-        <v>9.76</v>
+        <v>11.3</v>
       </c>
       <c r="D84" t="n">
-        <v>9.84</v>
+        <v>11.6</v>
       </c>
       <c r="E84" t="n">
-        <v>9.75</v>
+        <v>11.2</v>
       </c>
       <c r="F84" t="n">
-        <v>82598427.7369</v>
+        <v>571691.140326087</v>
       </c>
       <c r="G84" t="n">
-        <v>-225879521.0287409</v>
+        <v>-25151034.32139891</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.75</v>
+        <v>11.3</v>
       </c>
       <c r="C85" t="n">
-        <v>9.710000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="D85" t="n">
-        <v>9.82</v>
+        <v>11.5</v>
       </c>
       <c r="E85" t="n">
-        <v>9.699999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="F85" t="n">
-        <v>84878950.473</v>
+        <v>1135841.9279</v>
       </c>
       <c r="G85" t="n">
-        <v>-310758471.5017409</v>
+        <v>-24015192.39349891</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.710000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="C86" t="n">
-        <v>9.699999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="D86" t="n">
-        <v>9.710000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="E86" t="n">
-        <v>9.67</v>
+        <v>11.4</v>
       </c>
       <c r="F86" t="n">
-        <v>120564999.3868</v>
+        <v>1532387.8386</v>
       </c>
       <c r="G86" t="n">
-        <v>-431323470.8885409</v>
+        <v>-24015192.39349891</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.699999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="C87" t="n">
-        <v>9.68</v>
+        <v>11.5</v>
       </c>
       <c r="D87" t="n">
-        <v>9.699999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="E87" t="n">
-        <v>9.67</v>
+        <v>11.4</v>
       </c>
       <c r="F87" t="n">
-        <v>55048673.39735773</v>
+        <v>220156.9542739131</v>
       </c>
       <c r="G87" t="n">
-        <v>-486372144.2858986</v>
+        <v>-24015192.39349891</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9.67</v>
+        <v>11.3</v>
       </c>
       <c r="C88" t="n">
-        <v>9.210000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="D88" t="n">
-        <v>9.699999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="E88" t="n">
-        <v>9.18</v>
+        <v>11.2</v>
       </c>
       <c r="F88" t="n">
-        <v>2398499.7259</v>
+        <v>749520.0048</v>
       </c>
       <c r="G88" t="n">
-        <v>-488770644.0117986</v>
+        <v>-24764712.39829891</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.210000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="C89" t="n">
-        <v>9.35</v>
+        <v>11.3</v>
       </c>
       <c r="D89" t="n">
-        <v>9.449999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="E89" t="n">
-        <v>9.109999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="F89" t="n">
-        <v>3143565.38</v>
+        <v>126096.7309</v>
       </c>
       <c r="G89" t="n">
-        <v>-485627078.6317986</v>
+        <v>-24638615.66739891</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9.35</v>
+        <v>11.3</v>
       </c>
       <c r="C90" t="n">
-        <v>9.279999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="D90" t="n">
-        <v>9.35</v>
+        <v>11.3</v>
       </c>
       <c r="E90" t="n">
-        <v>9.27</v>
+        <v>11.2</v>
       </c>
       <c r="F90" t="n">
-        <v>3338810.645</v>
+        <v>341339.0067</v>
       </c>
       <c r="G90" t="n">
-        <v>-488965889.2767985</v>
+        <v>-24638615.66739891</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9.279999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="C91" t="n">
-        <v>9.470000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="D91" t="n">
-        <v>9.48</v>
+        <v>11.4</v>
       </c>
       <c r="E91" t="n">
-        <v>9.279999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="F91" t="n">
-        <v>2265182.9607</v>
+        <v>428364.2398</v>
       </c>
       <c r="G91" t="n">
-        <v>-486700706.3160986</v>
+        <v>-24210251.42759891</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9.4</v>
+        <v>11.4</v>
       </c>
       <c r="C92" t="n">
-        <v>9.25</v>
+        <v>11.3</v>
       </c>
       <c r="D92" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="E92" t="n">
-        <v>9.16</v>
+        <v>11.3</v>
       </c>
       <c r="F92" t="n">
-        <v>940091.0578</v>
+        <v>1113954.7691</v>
       </c>
       <c r="G92" t="n">
-        <v>-487640797.3738986</v>
+        <v>-25324206.19669891</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.25</v>
+        <v>11.3</v>
       </c>
       <c r="C93" t="n">
-        <v>9.31</v>
+        <v>11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>9.31</v>
+        <v>11.5</v>
       </c>
       <c r="E93" t="n">
-        <v>9.23</v>
+        <v>11.2</v>
       </c>
       <c r="F93" t="n">
-        <v>999970.6159</v>
+        <v>1220463.290485965</v>
       </c>
       <c r="G93" t="n">
-        <v>-486640826.7579986</v>
+        <v>-25324206.19669891</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9.279999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="C94" t="n">
-        <v>9.23</v>
+        <v>11.3</v>
       </c>
       <c r="D94" t="n">
-        <v>9.300000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="E94" t="n">
-        <v>9.23</v>
+        <v>11.2</v>
       </c>
       <c r="F94" t="n">
-        <v>1669706.991561464</v>
+        <v>352890.2223</v>
       </c>
       <c r="G94" t="n">
-        <v>-488310533.7495601</v>
+        <v>-25324206.19669891</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9.25</v>
+        <v>11.3</v>
       </c>
       <c r="C95" t="n">
-        <v>9.23</v>
+        <v>11.1</v>
       </c>
       <c r="D95" t="n">
-        <v>9.25</v>
+        <v>11.4</v>
       </c>
       <c r="E95" t="n">
-        <v>9.15</v>
+        <v>11.1</v>
       </c>
       <c r="F95" t="n">
-        <v>2883308.0678</v>
+        <v>566168.7173</v>
       </c>
       <c r="G95" t="n">
-        <v>-488310533.7495601</v>
+        <v>-25890374.91399891</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9.18</v>
+        <v>11.1</v>
       </c>
       <c r="C96" t="n">
-        <v>8.99</v>
+        <v>10.5</v>
       </c>
       <c r="D96" t="n">
-        <v>9.220000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="E96" t="n">
-        <v>8.99</v>
+        <v>10.5</v>
       </c>
       <c r="F96" t="n">
-        <v>4524792.359766667</v>
+        <v>2972070.149327273</v>
       </c>
       <c r="G96" t="n">
-        <v>-492835326.1093267</v>
+        <v>-28862445.06332619</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>8.98</v>
+        <v>10.5</v>
       </c>
       <c r="C97" t="n">
-        <v>8.98</v>
+        <v>10.7</v>
       </c>
       <c r="D97" t="n">
-        <v>9.050000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="E97" t="n">
-        <v>8.83</v>
+        <v>10.5</v>
       </c>
       <c r="F97" t="n">
-        <v>1624426.4203</v>
+        <v>2680295.0504</v>
       </c>
       <c r="G97" t="n">
-        <v>-494459752.5296267</v>
+        <v>-26182150.01292619</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9</v>
+        <v>10.7</v>
       </c>
       <c r="C98" t="n">
-        <v>8.92</v>
+        <v>10.8</v>
       </c>
       <c r="D98" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E98" t="n">
-        <v>8.75</v>
+        <v>10.7</v>
       </c>
       <c r="F98" t="n">
-        <v>4426088.9271</v>
+        <v>2489323.57673945</v>
       </c>
       <c r="G98" t="n">
-        <v>-498885841.4567267</v>
+        <v>-23692826.43618674</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>8.92</v>
+        <v>10.8</v>
       </c>
       <c r="C99" t="n">
-        <v>8.68</v>
+        <v>10.9</v>
       </c>
       <c r="D99" t="n">
-        <v>8.93</v>
+        <v>10.9</v>
       </c>
       <c r="E99" t="n">
-        <v>8.68</v>
+        <v>10.7</v>
       </c>
       <c r="F99" t="n">
-        <v>1570728.8306</v>
+        <v>342160.7203</v>
       </c>
       <c r="G99" t="n">
-        <v>-500456570.2873268</v>
+        <v>-23350665.71588674</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>8.69</v>
+        <v>10.9</v>
       </c>
       <c r="C100" t="n">
-        <v>8.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="D100" t="n">
-        <v>8.880000000000001</v>
+        <v>11</v>
       </c>
       <c r="E100" t="n">
-        <v>8.69</v>
+        <v>10.8</v>
       </c>
       <c r="F100" t="n">
-        <v>2352194.6862</v>
+        <v>1339177.179960551</v>
       </c>
       <c r="G100" t="n">
-        <v>-498104375.6011267</v>
+        <v>-24689842.89584729</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,1234 +4002,3870 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>8.800000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="C101" t="n">
-        <v>8.77</v>
+        <v>10.9</v>
       </c>
       <c r="D101" t="n">
-        <v>8.859999999999999</v>
+        <v>11</v>
       </c>
       <c r="E101" t="n">
-        <v>8.75</v>
+        <v>10.9</v>
       </c>
       <c r="F101" t="n">
-        <v>979716.6282</v>
+        <v>501705.3977818182</v>
       </c>
       <c r="G101" t="n">
-        <v>-499084092.2293267</v>
+        <v>-24188137.49806547</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>8.800000000000001</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C102" t="n">
+        <v>11</v>
+      </c>
+      <c r="D102" t="n">
+        <v>11</v>
+      </c>
+      <c r="E102" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1121074.379718182</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-23067063.11834729</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>11</v>
+      </c>
+      <c r="C103" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D103" t="n">
+        <v>11</v>
+      </c>
+      <c r="E103" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>722609.2377818181</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-23789672.35612911</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C104" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>11</v>
+      </c>
+      <c r="E104" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F104" t="n">
+        <v>137798.9438</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-23789672.35612911</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C105" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="D105" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E105" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1754030.1733</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-25543702.52942911</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C106" t="n">
+        <v>10</v>
+      </c>
+      <c r="D106" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="E106" t="n">
+        <v>10</v>
+      </c>
+      <c r="F106" t="n">
+        <v>8613065.7612</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-34156768.2906291</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>10</v>
+      </c>
+      <c r="C107" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="E107" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5700266.4594</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-28456501.83122911</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>10</v>
+      </c>
+      <c r="D108" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E108" t="n">
+        <v>10</v>
+      </c>
+      <c r="F108" t="n">
+        <v>8402080.042165048</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-36858581.87339415</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>10</v>
+      </c>
+      <c r="C109" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="D109" t="n">
+        <v>10</v>
+      </c>
+      <c r="E109" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4133550.5417</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-40992132.41509415</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="C110" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="D110" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2459229.2119</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-38532903.20319415</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="C111" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="F111" t="n">
+        <v>5228347.2596</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-33304555.94359415</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="D112" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2063785.2134</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-35368341.15699415</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="D113" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E113" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4016114.0676</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-39384455.22459415</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="E114" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1516284.5484</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-37868170.67619415</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="C115" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="D115" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4446805.1021</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-33421365.57409415</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="D116" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2208706.0524</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-33421365.57409415</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="C117" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2265073.469663968</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-35686439.04375812</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2103354.486820778</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-37789793.5305789</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1785391.0187</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-39575184.5492789</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="D120" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2828784.2478</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-36746400.3014789</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E121" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1360821.6287</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-35385578.6727789</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="D122" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="F122" t="n">
+        <v>5085176.9231</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-30300401.74967889</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="C123" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2257843.3283</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-28042558.4213789</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C124" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="D124" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4455805.533564356</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-32498363.95494325</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="C125" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F125" t="n">
+        <v>405345.5291</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-32093018.42584325</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="C126" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D126" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E126" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1815000.3718</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-33908018.79764325</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="C127" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E127" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="F127" t="n">
+        <v>902713.1435</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-33005305.65414325</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="C128" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1724698.8504</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-31280606.80374325</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>10</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2169496.5292</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-33450103.33294325</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>10</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D130" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1097853.6251</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-34547956.95804325</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="D131" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1228316.6457</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-33319640.31234325</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>10</v>
+      </c>
+      <c r="D132" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>10</v>
+      </c>
+      <c r="F132" t="n">
+        <v>915894.1813000001</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-32403746.13104325</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>10</v>
+      </c>
+      <c r="C133" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1534686.8781</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-30869059.25294325</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>512770.6067</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-30869059.25294325</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C135" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>130855.5394313726</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-30738203.71351188</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C136" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="D136" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E136" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1035707.684630166</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-29702496.02888171</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C137" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E137" t="n">
+        <v>10</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2752415.7345</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-32454911.76338171</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="D138" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1413031.6586</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-33867943.42198171</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="C139" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E139" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1170482.9236</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-35038426.34558171</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="C140" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="E140" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="F140" t="n">
+        <v>335972.8460529708</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-35374399.19163468</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="E141" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2324715.0985</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-37699114.29013468</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="D142" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="F142" t="n">
+        <v>279659.8361</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-37419454.45403469</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F143" t="n">
+        <v>150935.8067</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-37268518.64733469</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C144" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D144" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F144" t="n">
+        <v>212156.3323677811</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-37480674.97970247</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="C145" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E145" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F145" t="n">
+        <v>404305.1614</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-37076369.81830247</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C146" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="E146" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="F146" t="n">
+        <v>758739.8808</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-37835109.69910247</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="C147" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="D147" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E147" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="F147" t="n">
+        <v>168976.4122</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-37666133.28690247</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C148" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="D148" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="E148" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F148" t="n">
+        <v>371869.3897</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-38038002.67660248</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C149" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="D149" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="E149" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F149" t="n">
+        <v>82829.70318130081</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-37955172.97342117</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="C150" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="D150" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1225284.0495</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-36729888.92392117</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="C151" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="D151" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E151" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2729353.367933166</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-34000535.555988</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="C152" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="D152" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E152" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F152" t="n">
+        <v>15248201.4463</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-49248737.002288</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="C153" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="D153" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="E153" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="F153" t="n">
+        <v>56177306.6863</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-49248737.002288</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="C154" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="F154" t="n">
+        <v>94032356.28955285</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-143281093.2918409</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="C155" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F155" t="n">
+        <v>82598427.7369</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-225879521.0287409</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C156" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="E156" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F156" t="n">
+        <v>84878950.473</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-310758471.5017409</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="C157" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D157" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="E157" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="F157" t="n">
+        <v>120564999.3868</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-431323470.8885409</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="F158" t="n">
+        <v>55048673.39735773</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-486372144.2858986</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2398499.7259</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-488770644.0117986</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="D160" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E160" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3143565.38</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-485627078.6317986</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="D161" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="E161" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3338810.645</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-488965889.2767985</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="C102" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="D102" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="E102" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1062756.5178</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-500146848.7471267</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2265182.9607</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-486700706.3160986</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="C103" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="D103" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="E103" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1672683.2135</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-498474165.5336267</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="F163" t="n">
+        <v>940091.0578</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-487640797.3738986</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="C104" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D104" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="E104" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="F104" t="n">
-        <v>795956.9815</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-497678208.5521266</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="D164" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="F164" t="n">
+        <v>999970.6159</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-486640826.7579986</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C105" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="D105" t="n">
-        <v>9</v>
-      </c>
-      <c r="E105" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="F105" t="n">
-        <v>943086.0889</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-496735122.4632266</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="C165" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1669706.991561464</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-488310533.7495601</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="C106" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D106" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="E106" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1911990.770546871</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-494823131.6926798</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="C166" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2883308.0678</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-488310533.7495601</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="C107" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D107" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="E107" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1142806.411553128</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-494823131.6926798</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="C167" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="D167" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E167" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="F167" t="n">
+        <v>4524792.359766667</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-492835326.1093267</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="C108" t="n">
-        <v>9</v>
-      </c>
-      <c r="D108" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="E108" t="n">
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
         <v>8.98</v>
       </c>
-      <c r="F108" t="n">
-        <v>1746646.1814</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-496569777.8740798</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="C168" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="E168" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1624426.4203</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-494459752.5296267</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
         <v>9</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C169" t="n">
         <v>8.92</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D169" t="n">
         <v>9</v>
       </c>
-      <c r="E109" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1827706.1624</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-498397484.0364798</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>9</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+      <c r="E169" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4426088.9271</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-498885841.4567267</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
         <v>8.92</v>
       </c>
-      <c r="C110" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D110" t="n">
+      <c r="C170" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="D170" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="E170" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1570728.8306</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-500456570.2873268</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
         <v>8.92</v>
       </c>
-      <c r="E110" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1174906.683</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-499572390.7194798</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C111" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="D111" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="E111" t="n">
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="C171" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="F111" t="n">
-        <v>19030870.92628571</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-480541519.7931941</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="D171" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E171" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2352194.6862</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-498104375.6011267</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C112" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="D112" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E112" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F112" t="n">
-        <v>43524186.718</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-524065706.5111941</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C172" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="D172" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="E172" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="F172" t="n">
+        <v>979716.6282</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-499084092.2293267</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C113" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="D113" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="E113" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F113" t="n">
-        <v>153889251.3019</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-370176455.2092941</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="C173" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="D173" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="E173" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1062756.5178</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-500146848.7471267</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="C114" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="D114" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="E114" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F114" t="n">
-        <v>109986897.5702</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-480163352.779494</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="C174" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="D174" t="n">
         <v>8.9</v>
       </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
+      <c r="E174" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1672683.2135</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-498474165.5336267</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="C115" t="n">
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C175" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="D115" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="E115" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="F115" t="n">
-        <v>77373074.19329999</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-557536426.9727941</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
+      <c r="D175" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="E175" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F175" t="n">
+        <v>795956.9815</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-497678208.5521266</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="C116" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="D116" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E116" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="F116" t="n">
-        <v>116617880.5436</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-674154307.516394</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+      <c r="C176" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="D176" t="n">
+        <v>9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="F176" t="n">
+        <v>943086.0889</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-496735122.4632266</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="C117" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="D117" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="E117" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F117" t="n">
-        <v>148801650</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-822955957.516394</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="C177" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D177" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="E177" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1911990.770546871</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-494823131.6926798</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="C118" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D118" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E118" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="F118" t="n">
-        <v>30141424.6055</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-792814532.910894</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D178" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="E178" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1142806.411553128</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-494823131.6926798</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="C119" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="D119" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E119" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="F119" t="n">
-        <v>124720756.0081</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-917535288.9189941</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9</v>
+      </c>
+      <c r="D179" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="E179" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1746646.1814</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-496569777.8740798</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="C120" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D120" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E120" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="F120" t="n">
-        <v>146706111.4443327</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-770829177.4746614</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9</v>
+      </c>
+      <c r="C180" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9</v>
+      </c>
+      <c r="E180" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1827706.1624</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-498397484.0364798</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>9</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="C121" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="D121" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="E121" t="n">
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="C181" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="F121" t="n">
-        <v>52417926.0242</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-718411251.4504614</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+      <c r="D181" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="E181" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1174906.683</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-499572390.7194798</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="C122" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D122" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E122" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F122" t="n">
-        <v>18551927.3088</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-736963178.7592614</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="D182" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="E182" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19030870.92628571</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-480541519.7931941</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="C123" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="D123" t="n">
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C183" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="D183" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="E123" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1140163.2834</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-735823015.4758613</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="E183" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F183" t="n">
+        <v>43524186.718</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-524065706.5111941</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="C124" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="D124" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E124" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="F124" t="n">
-        <v>16758508.611</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-719064506.8648614</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C184" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D184" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E184" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F184" t="n">
+        <v>153889251.3019</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-370176455.2092941</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="C125" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="D125" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E125" t="n">
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="C185" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="D185" t="n">
         <v>8.93</v>
       </c>
-      <c r="F125" t="n">
-        <v>46452635.868</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-672611870.9968613</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+      <c r="E185" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F185" t="n">
+        <v>109986897.5702</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-480163352.779494</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="C126" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="D126" t="n">
-        <v>9</v>
-      </c>
-      <c r="E126" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1388788.3778</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-671223082.6190614</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="C186" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D186" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="E186" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F186" t="n">
+        <v>77373074.19329999</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-557536426.9727941</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>9</v>
-      </c>
-      <c r="C127" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="D127" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="E127" t="n">
-        <v>9</v>
-      </c>
-      <c r="F127" t="n">
-        <v>4284803.0762</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-666938279.5428613</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C187" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="D187" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E187" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="F187" t="n">
+        <v>116617880.5436</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-674154307.516394</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="C128" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="D128" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="E128" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F128" t="n">
-        <v>6633341.665005112</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-660304937.8778563</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="C188" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="D188" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="E188" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F188" t="n">
+        <v>148801650</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-822955957.516394</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C129" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="D129" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E129" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2413117.4231</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-662718055.3009562</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="C189" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D189" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E189" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="F189" t="n">
+        <v>30141424.6055</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-792814532.910894</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="C130" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="D130" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="E130" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="F130" t="n">
-        <v>3569162.0238</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-666287217.3247563</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="C190" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="D190" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E190" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="F190" t="n">
+        <v>124720756.0081</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-917535288.9189941</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="C191" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D191" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E191" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F191" t="n">
+        <v>146706111.4443327</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-770829177.4746614</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="C192" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="D192" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="E192" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F192" t="n">
+        <v>52417926.0242</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-718411251.4504614</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="C193" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D193" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E193" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F193" t="n">
+        <v>18551927.3088</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-736963178.7592614</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C194" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="D194" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E194" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1140163.2834</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-735823015.4758613</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="C195" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="D195" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E195" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="F195" t="n">
+        <v>16758508.611</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-719064506.8648614</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="C196" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="D196" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E196" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="F196" t="n">
+        <v>46452635.868</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-672611870.9968613</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="C197" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="D197" t="n">
+        <v>9</v>
+      </c>
+      <c r="E197" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1388788.3778</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-671223082.6190614</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>9</v>
+      </c>
+      <c r="C198" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="D198" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="E198" t="n">
+        <v>9</v>
+      </c>
+      <c r="F198" t="n">
+        <v>4284803.0762</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-666938279.5428613</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="C199" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="D199" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="E199" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="F199" t="n">
+        <v>6633341.665005112</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-660304937.8778563</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C200" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="D200" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E200" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2413117.4231</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-662718055.3009562</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="C201" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="D201" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="E201" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3569162.0238</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-666287217.3247563</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-22 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-22 BackTest FZZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N201"/>
+  <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>12313055.82812206</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>15070302.10772206</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>17641229.58002206</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>12723047.52954229</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>14291958.04773728</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-16005590.40601121</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-17673007.43441121</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-18618309.95837788</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-20151747.92749099</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-19123048.984091</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>-18557750.86570339</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-19982151.72630339</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>-19702180.37990339</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-18146355.84579099</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>-16545574.40739099</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-14464067.97009099</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-14464067.97009099</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-14464067.97009099</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-16651510.44009099</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-16651510.44009099</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-16344322.01594554</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>-16705653.20530008</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-16705653.20530008</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-16705653.20530008</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-16192614.65447549</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-15500439.84670008</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-14101834.81320008</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>-15917194.53190008</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-17092253.98842467</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-13643771.16854926</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-19653643.78514927</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-19490309.91160975</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-20185519.80740975</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-23222258.54770975</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>-22109525.51340975</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-22109525.51340975</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-23157304.796925</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-23157304.796925</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>-26017696.955325</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>-24490098.288925</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>-24490098.288925</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-24637851.130725</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-24637851.130725</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>-24637851.130725</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>-25722725.461725</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>-25151034.32139891</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>-24015192.39349891</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>-24015192.39349891</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-24015192.39349891</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>-24764712.39829891</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>-24638615.66739891</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>-24638615.66739891</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-24210251.42759891</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-25324206.19669891</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>-25324206.19669891</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6180,1694 +5698,1525 @@
         <v>-488965889.2767985</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>9.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2265182.9607</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-486700706.3160986</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="F163" t="n">
+        <v>940091.0578</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-487640797.3738986</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="D164" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="F164" t="n">
+        <v>999970.6159</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-486640826.7579986</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="C165" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1669706.991561464</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-488310533.7495601</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="C166" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2883308.0678</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-488310533.7495601</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+      <c r="I166" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="C162" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="D162" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E162" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2265182.9607</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-486700706.3160986</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="C167" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="D167" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E167" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="F167" t="n">
+        <v>4524792.359766667</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-492835326.1093267</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+      <c r="I167" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="C163" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="D163" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="E163" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="F163" t="n">
-        <v>940091.0578</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-487640797.3738986</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="C168" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="E168" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1624426.4203</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-494459752.5296267</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+      <c r="I168" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="C164" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="D164" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="E164" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="F164" t="n">
-        <v>999970.6159</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-486640826.7579986</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>9</v>
+      </c>
+      <c r="C169" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="D169" t="n">
+        <v>9</v>
+      </c>
+      <c r="E169" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4426088.9271</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-498885841.4567267</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+      <c r="I169" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="C165" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="D165" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="E165" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1669706.991561464</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-488310533.7495601</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="C170" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="D170" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="E170" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1570728.8306</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-500456570.2873268</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+      <c r="I170" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="C166" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="D166" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="E166" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="F166" t="n">
-        <v>2883308.0678</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-488310533.7495601</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="C171" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D171" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E171" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2352194.6862</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-498104375.6011267</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+      <c r="I171" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="C167" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="D167" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="E167" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="F167" t="n">
-        <v>4524792.359766667</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-492835326.1093267</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C172" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="D172" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="E172" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="F172" t="n">
+        <v>979716.6282</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-499084092.2293267</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+      <c r="I172" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="C168" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="D168" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="E168" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1624426.4203</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-494459752.5296267</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="C173" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="D173" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="E173" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1062756.5178</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-500146848.7471267</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+      <c r="I173" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>9</v>
-      </c>
-      <c r="C169" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="D169" t="n">
-        <v>9</v>
-      </c>
-      <c r="E169" t="n">
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
         <v>8.75</v>
       </c>
-      <c r="F169" t="n">
-        <v>4426088.9271</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-498885841.4567267</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="C174" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="D174" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1672683.2135</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-498474165.5336267</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+      <c r="I174" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="C170" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="D170" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="E170" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1570728.8306</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-500456570.2873268</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C175" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D175" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="E175" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F175" t="n">
+        <v>795956.9815</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-497678208.5521266</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+      <c r="I175" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="C171" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="D171" t="n">
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C176" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="D176" t="n">
+        <v>9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="F176" t="n">
+        <v>943086.0889</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-496735122.4632266</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+      <c r="I176" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="E171" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="F171" t="n">
-        <v>2352194.6862</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-498104375.6011267</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="C172" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="D172" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="E172" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="F172" t="n">
-        <v>979716.6282</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-499084092.2293267</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="C177" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D177" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="E177" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1911990.770546871</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-494823131.6926798</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+      <c r="I177" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="C173" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="D173" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="E173" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1062756.5178</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-500146848.7471267</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D178" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="E178" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1142806.411553128</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-494823131.6926798</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+      <c r="I178" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="C174" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="D174" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="E174" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1672683.2135</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-498474165.5336267</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9</v>
+      </c>
+      <c r="D179" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="E179" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1746646.1814</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-496569777.8740798</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2</v>
+      </c>
+      <c r="I179" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="C175" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D175" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="E175" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="F175" t="n">
-        <v>795956.9815</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-497678208.5521266</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9</v>
+      </c>
+      <c r="C180" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9</v>
+      </c>
+      <c r="E180" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1827706.1624</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-498397484.0364798</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+      <c r="I180" t="n">
+        <v>9</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="C181" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="C176" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="D176" t="n">
-        <v>9</v>
-      </c>
-      <c r="E176" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="F176" t="n">
-        <v>943086.0889</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-496735122.4632266</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="D181" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="E181" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1174906.683</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-499572390.7194798</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+      <c r="I181" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="C177" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D177" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="E177" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1911990.770546871</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-494823131.6926798</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="D182" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="E182" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19030870.92628571</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-480541519.7931941</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+      <c r="I182" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="C178" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D178" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="E178" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1142806.411553128</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-494823131.6926798</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C183" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="D183" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E183" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F183" t="n">
+        <v>43524186.718</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-524065706.5111941</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+      <c r="I183" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="C179" t="n">
-        <v>9</v>
-      </c>
-      <c r="D179" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="E179" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1746646.1814</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-496569777.8740798</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C184" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D184" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E184" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F184" t="n">
+        <v>153889251.3019</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-370176455.2092941</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+      <c r="I184" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>9</v>
-      </c>
-      <c r="C180" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="D180" t="n">
-        <v>9</v>
-      </c>
-      <c r="E180" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1827706.1624</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-498397484.0364798</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>9</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="C185" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="D185" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="E185" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F185" t="n">
+        <v>109986897.5702</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-480163352.779494</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+      <c r="I185" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="C181" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D181" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="E181" t="n">
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="C186" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D186" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="E186" t="n">
         <v>8.85</v>
       </c>
-      <c r="F181" t="n">
-        <v>1174906.683</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-499572390.7194798</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="F186" t="n">
+        <v>77373074.19329999</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-557536426.9727941</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
+      <c r="I186" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="C182" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="D182" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="E182" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F182" t="n">
-        <v>19030870.92628571</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-480541519.7931941</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
+      <c r="C187" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="D187" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+      <c r="E187" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="F187" t="n">
+        <v>116617880.5436</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-674154307.516394</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+      <c r="I187" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C183" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="D183" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E183" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F183" t="n">
-        <v>43524186.718</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-524065706.5111941</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="C188" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="D188" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="E188" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F188" t="n">
+        <v>148801650</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-822955957.516394</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="C189" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="C184" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="D184" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="E184" t="n">
+      <c r="D189" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="F184" t="n">
-        <v>153889251.3019</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-370176455.2092941</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+      <c r="E189" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="F189" t="n">
+        <v>30141424.6055</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-792814532.910894</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="C185" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="D185" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="E185" t="n">
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="C190" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="D190" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="F185" t="n">
-        <v>109986897.5702</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-480163352.779494</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+      <c r="E190" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="F190" t="n">
+        <v>124720756.0081</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-917535288.9189941</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="C186" t="n">
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="C191" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="D186" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="E186" t="n">
+      <c r="D191" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E191" t="n">
         <v>8.85</v>
       </c>
-      <c r="F186" t="n">
-        <v>77373074.19329999</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-557536426.9727941</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+      <c r="F191" t="n">
+        <v>146706111.4443327</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-770829177.4746614</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="C192" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="D192" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="E192" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="C187" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="D187" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E187" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="F187" t="n">
-        <v>116617880.5436</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-674154307.516394</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+      <c r="F192" t="n">
+        <v>52417926.0242</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-718411251.4504614</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="C188" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="D188" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="E188" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F188" t="n">
-        <v>148801650</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-822955957.516394</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="C193" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D193" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E193" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F193" t="n">
+        <v>18551927.3088</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-736963178.7592614</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="C189" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D189" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E189" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="F189" t="n">
-        <v>30141424.6055</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-792814532.910894</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C194" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="D194" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E194" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1140163.2834</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-735823015.4758613</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="C190" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="D190" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E190" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="F190" t="n">
-        <v>124720756.0081</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-917535288.9189941</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="C195" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="D195" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E195" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="F195" t="n">
+        <v>16758508.611</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-719064506.8648614</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="C191" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D191" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E191" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="F191" t="n">
-        <v>146706111.4443327</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-770829177.4746614</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="C196" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="D196" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E196" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="F196" t="n">
+        <v>46452635.868</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-672611870.9968613</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="C192" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="D192" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="E192" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F192" t="n">
-        <v>52417926.0242</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-718411251.4504614</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="C197" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="D197" t="n">
+        <v>9</v>
+      </c>
+      <c r="E197" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1388788.3778</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-671223082.6190614</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="C193" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D193" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E193" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F193" t="n">
-        <v>18551927.3088</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-736963178.7592614</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>9</v>
+      </c>
+      <c r="C198" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="D198" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="E198" t="n">
+        <v>9</v>
+      </c>
+      <c r="F198" t="n">
+        <v>4284803.0762</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-666938279.5428613</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="C194" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="D194" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E194" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1140163.2834</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-735823015.4758613</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="C199" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="D199" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="E199" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="F199" t="n">
+        <v>6633341.665005112</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-660304937.8778563</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="C195" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="D195" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E195" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="F195" t="n">
-        <v>16758508.611</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-719064506.8648614</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C200" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="D200" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E200" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2413117.4231</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-662718055.3009562</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="C196" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="D196" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E196" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="F196" t="n">
-        <v>46452635.868</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-672611870.9968613</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="C201" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="D201" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="E201" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3569162.0238</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-666287217.3247563</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="C197" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="D197" t="n">
-        <v>9</v>
-      </c>
-      <c r="E197" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1388788.3778</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-671223082.6190614</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>9</v>
-      </c>
-      <c r="C198" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="D198" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="E198" t="n">
-        <v>9</v>
-      </c>
-      <c r="F198" t="n">
-        <v>4284803.0762</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-666938279.5428613</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="C199" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="D199" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="E199" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F199" t="n">
-        <v>6633341.665005112</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-660304937.8778563</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C200" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="D200" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E200" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="F200" t="n">
-        <v>2413117.4231</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-662718055.3009562</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="C201" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="D201" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="E201" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="F201" t="n">
-        <v>3569162.0238</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-666287217.3247563</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-22 BackTest FZZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>12313055.82812206</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>15070302.10772206</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>17641229.58002206</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>12723047.52954229</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>14291958.04773728</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>8802014.775611281</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>7753530.420977948</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>11274766.07477795</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>12162267.46033721</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>9773484.869337207</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>6749216.908365889</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>7542339.818365889</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2944742.925642633</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-304217.1951573673</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-7483609.02889635</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-12250806.17449635</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-17252294.36306415</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-15657441.78431121</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-15657441.78431121</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-17785531.14721121</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-17785531.14721121</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-16005590.40601121</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-17673007.43441121</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-17673007.43441121</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-17673007.43441121</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-14986797.83501121</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-16826509.42361121</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-18535509.56821121</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-19626074.71677788</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-21671045.82607787</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-20819755.98177788</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-19507942.53807788</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-19507942.53807788</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-19901185.93197788</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-20090029.85767788</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-19853880.67597788</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-19276974.79187788</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-18618309.95837788</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-18278523.77887788</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-18278523.77887788</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-18956469.53699099</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-20151747.92749099</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-19123048.984091</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-18557750.86570339</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-19982151.72630339</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-19702180.37990339</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-18146355.84579099</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-16545574.40739099</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-14464067.97009099</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-14464067.97009099</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-14464067.97009099</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-16651510.44009099</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-16651510.44009099</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-16344322.01594554</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-16705653.20530008</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-16705653.20530008</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-16705653.20530008</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-16192614.65447549</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-15500439.84670008</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-14101834.81320008</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-15917194.53190008</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-17092253.98842467</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-13643771.16854926</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-19653643.78514927</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-19490309.91160975</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-20185519.80740975</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-23222258.54770975</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-22109525.51340975</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-22109525.51340975</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-23157304.796925</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-23157304.796925</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-26017696.955325</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-24490098.288925</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-24490098.288925</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-24637851.130725</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-24637851.130725</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-24637851.130725</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-25722725.461725</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-25151034.32139891</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-24015192.39349891</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-24015192.39349891</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-24015192.39349891</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-24764712.39829891</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-24638615.66739891</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-24638615.66739891</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-24210251.42759891</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-25324206.19669891</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-25324206.19669891</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-25324206.19669891</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-25890374.91399891</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-28862445.06332619</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-23692826.43618674</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-23350665.71588674</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-24689842.89584729</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -5863,407 +5863,347 @@
         <v>-488310533.7495601</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>9.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="C167" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="D167" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E167" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="F167" t="n">
+        <v>4524792.359766667</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-492835326.1093267</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="C168" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="E168" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1624426.4203</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-494459752.5296267</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>9</v>
+      </c>
+      <c r="C169" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="D169" t="n">
+        <v>9</v>
+      </c>
+      <c r="E169" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4426088.9271</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-498885841.4567267</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="C170" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="D170" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="E170" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1570728.8306</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-500456570.2873268</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="C171" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D171" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E171" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2352194.6862</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-498104375.6011267</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C172" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="D172" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="E172" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="F172" t="n">
+        <v>979716.6282</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-499084092.2293267</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="C173" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="D173" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="E173" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1062756.5178</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-500146848.7471267</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="C174" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="D174" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1672683.2135</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-498474165.5336267</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C175" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D175" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="E175" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F175" t="n">
+        <v>795956.9815</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-497678208.5521266</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C176" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="D176" t="n">
+        <v>9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="F176" t="n">
+        <v>943086.0889</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-496735122.4632266</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="C167" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="D167" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="E167" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="F167" t="n">
-        <v>4524792.359766667</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-492835326.1093267</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="C168" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="D168" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="E168" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1624426.4203</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-494459752.5296267</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>9</v>
-      </c>
-      <c r="C169" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="D169" t="n">
-        <v>9</v>
-      </c>
-      <c r="E169" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="F169" t="n">
-        <v>4426088.9271</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-498885841.4567267</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="C170" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="D170" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="E170" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1570728.8306</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-500456570.2873268</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="C171" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="D171" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E171" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="F171" t="n">
-        <v>2352194.6862</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-498104375.6011267</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="C172" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="D172" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="E172" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="F172" t="n">
-        <v>979716.6282</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-499084092.2293267</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="C173" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="D173" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="E173" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1062756.5178</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-500146848.7471267</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="C174" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="D174" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="E174" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1672683.2135</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-498474165.5336267</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="C175" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D175" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="E175" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="F175" t="n">
-        <v>795956.9815</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-497678208.5521266</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C176" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="D176" t="n">
-        <v>9</v>
-      </c>
-      <c r="E176" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="F176" t="n">
-        <v>943086.0889</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-496735122.4632266</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6292,7 +6232,7 @@
         <v>-494823131.6926798</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>8.98</v>
@@ -6331,7 +6271,7 @@
         <v>-494823131.6926798</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>9.09</v>
@@ -6370,7 +6310,7 @@
         <v>-496569777.8740798</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>9.09</v>
@@ -6409,7 +6349,7 @@
         <v>-498397484.0364798</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>9</v>
@@ -6448,7 +6388,7 @@
         <v>-499572390.7194798</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>8.92</v>
@@ -6487,7 +6427,7 @@
         <v>-480541519.7931941</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>8.869999999999999</v>
@@ -6526,7 +6466,7 @@
         <v>-524065706.5111941</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>8.960000000000001</v>
@@ -6565,7 +6505,7 @@
         <v>-370176455.2092941</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>8.890000000000001</v>
@@ -6604,11 +6544,9 @@
         <v>-480163352.779494</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>8.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -6643,7 +6581,7 @@
         <v>-557536426.9727941</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>8.890000000000001</v>
@@ -6682,7 +6620,7 @@
         <v>-674154307.516394</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>8.880000000000001</v>
@@ -6721,9 +6659,11 @@
         <v>-822955957.516394</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>8.859999999999999</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -6758,9 +6698,11 @@
         <v>-792814532.910894</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>8.85</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -6795,9 +6737,11 @@
         <v>-917535288.9189941</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>8.869999999999999</v>
+      </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -6832,9 +6776,11 @@
         <v>-770829177.4746614</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>8.85</v>
+      </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -6869,9 +6815,11 @@
         <v>-718411251.4504614</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -6906,9 +6854,11 @@
         <v>-736963178.7592614</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>8.890000000000001</v>
+      </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -6943,9 +6893,11 @@
         <v>-735823015.4758613</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -6980,9 +6932,11 @@
         <v>-719064506.8648614</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>8.93</v>
+      </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7017,9 +6971,11 @@
         <v>-672611870.9968613</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>8.94</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7054,9 +7010,11 @@
         <v>-671223082.6190614</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7091,9 +7049,11 @@
         <v>-666938279.5428613</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>8.99</v>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7128,9 +7088,11 @@
         <v>-660304937.8778563</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>9.029999999999999</v>
+      </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7165,9 +7127,11 @@
         <v>-662718055.3009562</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>9.390000000000001</v>
+      </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7202,9 +7166,11 @@
         <v>-666287217.3247563</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>9.289999999999999</v>
+      </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7217,6 +7183,6 @@
       <c r="M201" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-22 BackTest FZZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>12313055.82812206</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>17641229.58002206</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>12723047.52954229</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>14291958.04773728</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>10305431.32871128</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>11615256.50527795</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>11615256.50527795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>12600842.87947795</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>9773484.869337207</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>6749216.908365889</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>7542339.818365889</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2944742.925642633</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-304217.1951573673</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-7483609.02889635</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-12250806.17449635</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-17252294.36306415</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-15657441.78431121</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-15657441.78431121</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-17785531.14721121</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-17785531.14721121</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-16005590.40601121</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-17673007.43441121</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-17673007.43441121</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-17673007.43441121</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-14986797.83501121</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-16826509.42361121</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-18535509.56821121</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-19626074.71677788</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-21671045.82607787</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-20819755.98177788</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-19507942.53807788</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-19507942.53807788</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-19901185.93197788</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-20090029.85767788</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-19853880.67597788</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-19276974.79187788</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-18618309.95837788</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-18278523.77887788</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-18278523.77887788</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-20151747.92749099</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-19123048.984091</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-18557750.86570339</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-19982151.72630339</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-18146355.84579099</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-16545574.40739099</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-16705653.20530008</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-23222258.54770975</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-22109525.51340975</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-22109525.51340975</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-26182150.01292619</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-23692826.43618674</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-23350665.71588674</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-24689842.89584729</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-486372144.2858986</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6028,10 +6028,14 @@
         <v>-498104375.6011267</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="J171" t="n">
+        <v>8.68</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
@@ -6061,11 +6065,19 @@
         <v>-499084092.2293267</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J172" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6106,19 @@
         <v>-500146848.7471267</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="J173" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,10 +6147,14 @@
         <v>-498474165.5336267</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="J174" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
@@ -6160,11 +6184,19 @@
         <v>-497678208.5521266</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="J175" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6198,51 +6230,55 @@
       <c r="I176" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K176" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="C177" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D177" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="E177" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1911990.770546871</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-494823131.6926798</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="J177" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="C177" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D177" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="E177" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1911990.770546871</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-494823131.6926798</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6276,7 +6312,9 @@
       <c r="I178" t="n">
         <v>9.09</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6315,7 +6353,9 @@
       <c r="I179" t="n">
         <v>9.09</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6354,7 +6394,9 @@
       <c r="I180" t="n">
         <v>9</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6393,7 +6435,9 @@
       <c r="I181" t="n">
         <v>8.92</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6432,7 +6476,9 @@
       <c r="I182" t="n">
         <v>8.869999999999999</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6471,7 +6517,9 @@
       <c r="I183" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6510,7 +6558,9 @@
       <c r="I184" t="n">
         <v>8.890000000000001</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6547,7 +6597,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6581,12 +6633,12 @@
         <v>-557536426.9727941</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6620,12 +6672,12 @@
         <v>-674154307.516394</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6659,12 +6711,12 @@
         <v>-822955957.516394</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6698,12 +6750,12 @@
         <v>-792814532.910894</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6737,12 +6789,12 @@
         <v>-917535288.9189941</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6776,12 +6828,12 @@
         <v>-770829177.4746614</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6815,12 +6867,12 @@
         <v>-718411251.4504614</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6854,12 +6906,12 @@
         <v>-736963178.7592614</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6893,12 +6945,12 @@
         <v>-735823015.4758613</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6937,7 +6989,9 @@
       <c r="I195" t="n">
         <v>8.93</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6976,7 +7030,9 @@
       <c r="I196" t="n">
         <v>8.94</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7010,12 +7066,12 @@
         <v>-671223082.6190614</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7054,7 +7110,9 @@
       <c r="I198" t="n">
         <v>8.99</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7093,7 +7151,9 @@
       <c r="I199" t="n">
         <v>9.029999999999999</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7132,7 +7192,9 @@
       <c r="I200" t="n">
         <v>9.390000000000001</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7171,7 +7233,9 @@
       <c r="I201" t="n">
         <v>9.289999999999999</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7183,6 +7247,6 @@
       <c r="M201" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-22 BackTest FZZ.xlsx
@@ -484,7 +484,7 @@
         <v>15070302.10772206</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>9773484.869337207</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>6749216.908365889</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-18956469.53699099</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-20151747.92749099</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-19123048.984091</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-18557750.86570339</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-19982151.72630339</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-14464067.97009099</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-14464067.97009099</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-14464067.97009099</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-16651510.44009099</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-16651510.44009099</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-16344322.01594554</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-16705653.20530008</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-16705653.20530008</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-16192614.65447549</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-15500439.84670008</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-14101834.81320008</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-15917194.53190008</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-17092253.98842467</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-13643771.16854926</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-19653643.78514927</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-19490309.91160975</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-20185519.80740975</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-23222258.54770975</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-22109525.51340975</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-22109525.51340975</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-23157304.796925</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-23157304.796925</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-26017696.955325</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-24490098.288925</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-24490098.288925</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-24637851.130725</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-24637851.130725</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-24637851.130725</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-25722725.461725</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-25151034.32139891</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-24015192.39349891</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-24015192.39349891</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-24015192.39349891</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-24764712.39829891</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-24638615.66739891</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-24638615.66739891</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-24210251.42759891</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-25324206.19669891</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-25324206.19669891</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-25324206.19669891</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-25890374.91399891</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-28862445.06332619</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-26182150.01292619</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-486372144.2858986</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6028,14 +6028,10 @@
         <v>-498104375.6011267</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="J171" t="n">
-        <v>8.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
@@ -6065,19 +6061,11 @@
         <v>-499084092.2293267</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J172" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6106,19 +6094,11 @@
         <v>-500146848.7471267</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="J173" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6147,14 +6127,10 @@
         <v>-498474165.5336267</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="J174" t="n">
-        <v>8.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
@@ -6184,19 +6160,11 @@
         <v>-497678208.5521266</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="J175" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6225,19 +6193,11 @@
         <v>-496735122.4632266</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J176" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6266,817 +6226,677 @@
         <v>-494823131.6926798</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D178" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="E178" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1142806.411553128</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-494823131.6926798</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9</v>
+      </c>
+      <c r="D179" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="E179" t="n">
         <v>8.98</v>
       </c>
-      <c r="J177" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K177" t="inlineStr">
+      <c r="F179" t="n">
+        <v>1746646.1814</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-496569777.8740798</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9</v>
+      </c>
+      <c r="C180" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9</v>
+      </c>
+      <c r="E180" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1827706.1624</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-498397484.0364798</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="C181" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D181" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="E181" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1174906.683</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-499572390.7194798</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="D182" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="E182" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19030870.92628571</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-480541519.7931941</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C183" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="D183" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E183" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F183" t="n">
+        <v>43524186.718</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-524065706.5111941</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C184" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D184" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E184" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F184" t="n">
+        <v>153889251.3019</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-370176455.2092941</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="C185" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="D185" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="E185" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F185" t="n">
+        <v>109986897.5702</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-480163352.779494</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="C186" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D186" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="E186" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F186" t="n">
+        <v>77373074.19329999</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-557536426.9727941</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C187" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="D187" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E187" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="F187" t="n">
+        <v>116617880.5436</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-674154307.516394</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="C188" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="D188" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="E188" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F188" t="n">
+        <v>148801650</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-822955957.516394</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="C189" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D189" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E189" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="F189" t="n">
+        <v>30141424.6055</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-792814532.910894</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="C190" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="D190" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E190" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="F190" t="n">
+        <v>124720756.0081</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-917535288.9189941</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="C191" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D191" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E191" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F191" t="n">
+        <v>146706111.4443327</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-770829177.4746614</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="C192" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="D192" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="E192" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F192" t="n">
+        <v>52417926.0242</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-718411251.4504614</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="C193" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D193" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E193" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F193" t="n">
+        <v>18551927.3088</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-736963178.7592614</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C194" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="D194" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E194" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1140163.2834</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-735823015.4758613</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="C195" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="D195" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E195" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="F195" t="n">
+        <v>16758508.611</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-719064506.8648614</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="C196" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="D196" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E196" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="F196" t="n">
+        <v>46452635.868</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-672611870.9968613</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="C197" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="D197" t="n">
+        <v>9</v>
+      </c>
+      <c r="E197" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1388788.3778</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-671223082.6190614</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="C178" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D178" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="E178" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1142806.411553128</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-494823131.6926798</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="J178" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="C179" t="n">
-        <v>9</v>
-      </c>
-      <c r="D179" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="E179" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1746646.1814</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-496569777.8740798</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="J179" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>9</v>
-      </c>
-      <c r="C180" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="D180" t="n">
-        <v>9</v>
-      </c>
-      <c r="E180" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1827706.1624</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-498397484.0364798</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>9</v>
-      </c>
-      <c r="J180" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="C181" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D181" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="E181" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1174906.683</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-499572390.7194798</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="J181" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="D182" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="E182" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F182" t="n">
-        <v>19030870.92628571</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-480541519.7931941</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="J182" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C183" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="D183" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E183" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F183" t="n">
-        <v>43524186.718</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-524065706.5111941</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="J183" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C184" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="D184" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="E184" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F184" t="n">
-        <v>153889251.3019</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-370176455.2092941</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="J184" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="C185" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="D185" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="E185" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F185" t="n">
-        <v>109986897.5702</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-480163352.779494</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="C186" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D186" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="E186" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="F186" t="n">
-        <v>77373074.19329999</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-557536426.9727941</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C187" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="D187" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E187" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="F187" t="n">
-        <v>116617880.5436</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-674154307.516394</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="C188" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="D188" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="E188" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F188" t="n">
-        <v>148801650</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-822955957.516394</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="C189" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D189" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E189" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="F189" t="n">
-        <v>30141424.6055</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-792814532.910894</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="C190" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="D190" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E190" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="F190" t="n">
-        <v>124720756.0081</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-917535288.9189941</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="C191" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D191" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E191" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="F191" t="n">
-        <v>146706111.4443327</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-770829177.4746614</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="C192" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="D192" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="E192" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F192" t="n">
-        <v>52417926.0242</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-718411251.4504614</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="C193" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D193" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E193" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F193" t="n">
-        <v>18551927.3088</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-736963178.7592614</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="C194" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="D194" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E194" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1140163.2834</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-735823015.4758613</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="C195" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="D195" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E195" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="F195" t="n">
-        <v>16758508.611</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-719064506.8648614</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="J195" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="C196" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="D196" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="E196" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="F196" t="n">
-        <v>46452635.868</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-672611870.9968613</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="J196" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="C197" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="D197" t="n">
-        <v>9</v>
-      </c>
-      <c r="E197" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1388788.3778</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-671223082.6190614</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7110,9 +6930,7 @@
       <c r="I198" t="n">
         <v>8.99</v>
       </c>
-      <c r="J198" t="n">
-        <v>8.69</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7151,9 +6969,7 @@
       <c r="I199" t="n">
         <v>9.029999999999999</v>
       </c>
-      <c r="J199" t="n">
-        <v>8.69</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7192,9 +7008,7 @@
       <c r="I200" t="n">
         <v>9.390000000000001</v>
       </c>
-      <c r="J200" t="n">
-        <v>8.69</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7233,9 +7047,7 @@
       <c r="I201" t="n">
         <v>9.289999999999999</v>
       </c>
-      <c r="J201" t="n">
-        <v>8.69</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-22 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-22 BackTest FZZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>4376918.9113</v>
       </c>
       <c r="G2" t="n">
-        <v>12313055.82812206</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2757246.2796</v>
       </c>
       <c r="G3" t="n">
-        <v>15070302.10772206</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>2570927.4723</v>
       </c>
       <c r="G4" t="n">
-        <v>17641229.58002206</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>4918182.050479771</v>
       </c>
       <c r="G5" t="n">
-        <v>12723047.52954229</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1568910.51819499</v>
       </c>
       <c r="G6" t="n">
-        <v>14291958.04773728</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>3986526.719026003</v>
       </c>
       <c r="G7" t="n">
-        <v>10305431.32871128</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1503416.5531</v>
       </c>
       <c r="G8" t="n">
-        <v>8802014.775611281</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1048484.354633333</v>
       </c>
       <c r="G9" t="n">
-        <v>7753530.420977948</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>3861726.0843</v>
       </c>
       <c r="G10" t="n">
-        <v>11615256.50527795</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1583085.8152</v>
       </c>
       <c r="G11" t="n">
-        <v>11615256.50527795</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>985586.3742</v>
       </c>
       <c r="G12" t="n">
-        <v>12600842.87947795</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1326076.8047</v>
       </c>
       <c r="G13" t="n">
-        <v>11274766.07477795</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>887501.3855592592</v>
       </c>
       <c r="G14" t="n">
-        <v>12162267.46033721</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2388782.591</v>
       </c>
       <c r="G15" t="n">
-        <v>9773484.869337207</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3024267.960971318</v>
       </c>
       <c r="G16" t="n">
-        <v>6749216.908365889</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>793122.91</v>
       </c>
       <c r="G17" t="n">
-        <v>7542339.818365889</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>4597596.892723256</v>
       </c>
       <c r="G18" t="n">
-        <v>2944742.925642633</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>3248960.1208</v>
       </c>
       <c r="G19" t="n">
-        <v>-304217.1951573673</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>7179391.833738983</v>
       </c>
       <c r="G20" t="n">
-        <v>-7483609.02889635</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>4767197.1456</v>
       </c>
       <c r="G21" t="n">
-        <v>-12250806.17449635</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>5001488.188567797</v>
       </c>
       <c r="G22" t="n">
-        <v>-17252294.36306415</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1594852.578752941</v>
       </c>
       <c r="G23" t="n">
-        <v>-15657441.78431121</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2299591.371766667</v>
       </c>
       <c r="G24" t="n">
-        <v>-15657441.78431121</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2128089.3629</v>
       </c>
       <c r="G25" t="n">
-        <v>-17785531.14721121</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1809955.8903</v>
       </c>
       <c r="G26" t="n">
-        <v>-17785531.14721121</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1779940.7412</v>
       </c>
       <c r="G27" t="n">
-        <v>-16005590.40601121</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1667417.0284</v>
       </c>
       <c r="G28" t="n">
-        <v>-17673007.43441121</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1585374.8649</v>
       </c>
       <c r="G29" t="n">
-        <v>-17673007.43441121</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2847428.6962</v>
       </c>
       <c r="G30" t="n">
-        <v>-17673007.43441121</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>2686209.5994</v>
       </c>
       <c r="G31" t="n">
-        <v>-14986797.83501121</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1839711.5886</v>
       </c>
       <c r="G32" t="n">
-        <v>-16826509.42361121</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1709000.1446</v>
       </c>
       <c r="G33" t="n">
-        <v>-18535509.56821121</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>1090565.148566667</v>
       </c>
       <c r="G34" t="n">
-        <v>-19626074.71677788</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>2044971.1093</v>
       </c>
       <c r="G35" t="n">
-        <v>-21671045.82607787</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>851289.8443</v>
       </c>
       <c r="G36" t="n">
-        <v>-20819755.98177788</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1311813.4437</v>
       </c>
       <c r="G37" t="n">
-        <v>-19507942.53807788</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1247719.0118</v>
       </c>
       <c r="G38" t="n">
-        <v>-19507942.53807788</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>393243.3939</v>
       </c>
       <c r="G39" t="n">
-        <v>-19901185.93197788</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>188843.9257</v>
       </c>
       <c r="G40" t="n">
-        <v>-20090029.85767788</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>236149.1817</v>
       </c>
       <c r="G41" t="n">
-        <v>-19853880.67597788</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>576905.8841</v>
       </c>
       <c r="G42" t="n">
-        <v>-19276974.79187788</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>658664.8334999999</v>
       </c>
       <c r="G43" t="n">
-        <v>-18618309.95837788</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>339786.1795</v>
       </c>
       <c r="G44" t="n">
-        <v>-18278523.77887788</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1249634.3279</v>
       </c>
       <c r="G45" t="n">
-        <v>-18278523.77887788</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>677945.7581131147</v>
       </c>
       <c r="G46" t="n">
-        <v>-18956469.53699099</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1195278.3905</v>
       </c>
       <c r="G47" t="n">
-        <v>-20151747.92749099</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1028698.9434</v>
       </c>
       <c r="G48" t="n">
-        <v>-19123048.984091</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>565298.1183876033</v>
       </c>
       <c r="G49" t="n">
-        <v>-18557750.86570339</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1424400.8606</v>
       </c>
       <c r="G50" t="n">
-        <v>-19982151.72630339</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>279971.3464</v>
       </c>
       <c r="G51" t="n">
-        <v>-19702180.37990339</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1555824.534112397</v>
       </c>
       <c r="G52" t="n">
-        <v>-18146355.84579099</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1600781.4384</v>
       </c>
       <c r="G53" t="n">
-        <v>-16545574.40739099</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>2081506.4373</v>
       </c>
       <c r="G54" t="n">
-        <v>-14464067.97009099</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1963077.71</v>
       </c>
       <c r="G55" t="n">
-        <v>-14464067.97009099</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>170230.28</v>
       </c>
       <c r="G56" t="n">
-        <v>-14464067.97009099</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>2187442.47</v>
       </c>
       <c r="G57" t="n">
-        <v>-16651510.44009099</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1062846.273354545</v>
       </c>
       <c r="G58" t="n">
-        <v>-16651510.44009099</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>307188.4241454545</v>
       </c>
       <c r="G59" t="n">
-        <v>-16344322.01594554</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>361331.1893545454</v>
       </c>
       <c r="G60" t="n">
-        <v>-16705653.20530008</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>414326.9583</v>
       </c>
       <c r="G61" t="n">
-        <v>-16705653.20530008</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>381111.9234454546</v>
       </c>
       <c r="G62" t="n">
-        <v>-16705653.20530008</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>513038.5508245901</v>
       </c>
       <c r="G63" t="n">
-        <v>-16192614.65447549</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>692174.8077754099</v>
       </c>
       <c r="G64" t="n">
-        <v>-15500439.84670008</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>1398605.0335</v>
       </c>
       <c r="G65" t="n">
-        <v>-14101834.81320008</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1815359.7187</v>
       </c>
       <c r="G66" t="n">
-        <v>-15917194.53190008</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1175059.45652459</v>
       </c>
       <c r="G67" t="n">
-        <v>-17092253.98842467</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>3448482.81987541</v>
       </c>
       <c r="G68" t="n">
-        <v>-13643771.16854926</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>6009872.6166</v>
       </c>
       <c r="G69" t="n">
-        <v>-19653643.78514927</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>163333.8735395161</v>
       </c>
       <c r="G70" t="n">
-        <v>-19490309.91160975</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>695209.8958000001</v>
       </c>
       <c r="G71" t="n">
-        <v>-20185519.80740975</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>3036738.7403</v>
       </c>
       <c r="G72" t="n">
-        <v>-23222258.54770975</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>1112733.0343</v>
       </c>
       <c r="G73" t="n">
-        <v>-22109525.51340975</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>631302.575</v>
       </c>
       <c r="G74" t="n">
-        <v>-22109525.51340975</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>1047779.283515254</v>
       </c>
       <c r="G75" t="n">
-        <v>-23157304.796925</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>1285694.0624</v>
       </c>
       <c r="G76" t="n">
-        <v>-23157304.796925</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>2860392.1584</v>
       </c>
       <c r="G77" t="n">
-        <v>-26017696.955325</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>1527598.6664</v>
       </c>
       <c r="G78" t="n">
-        <v>-24490098.288925</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>790084.0399</v>
       </c>
       <c r="G79" t="n">
-        <v>-24490098.288925</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>147752.8418</v>
       </c>
       <c r="G80" t="n">
-        <v>-24637851.130725</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>19460.887</v>
       </c>
       <c r="G81" t="n">
-        <v>-24637851.130725</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>301552.7994</v>
       </c>
       <c r="G82" t="n">
-        <v>-24637851.130725</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>1084874.331</v>
       </c>
       <c r="G83" t="n">
-        <v>-25722725.461725</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>571691.140326087</v>
       </c>
       <c r="G84" t="n">
-        <v>-25151034.32139891</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>1135841.9279</v>
       </c>
       <c r="G85" t="n">
-        <v>-24015192.39349891</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>1532387.8386</v>
       </c>
       <c r="G86" t="n">
-        <v>-24015192.39349891</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>220156.9542739131</v>
       </c>
       <c r="G87" t="n">
-        <v>-24015192.39349891</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>749520.0048</v>
       </c>
       <c r="G88" t="n">
-        <v>-24764712.39829891</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>126096.7309</v>
       </c>
       <c r="G89" t="n">
-        <v>-24638615.66739891</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>341339.0067</v>
       </c>
       <c r="G90" t="n">
-        <v>-24638615.66739891</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>428364.2398</v>
       </c>
       <c r="G91" t="n">
-        <v>-24210251.42759891</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>1113954.7691</v>
       </c>
       <c r="G92" t="n">
-        <v>-25324206.19669891</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>1220463.290485965</v>
       </c>
       <c r="G93" t="n">
-        <v>-25324206.19669891</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>352890.2223</v>
       </c>
       <c r="G94" t="n">
-        <v>-25324206.19669891</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>566168.7173</v>
       </c>
       <c r="G95" t="n">
-        <v>-25890374.91399891</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>2972070.149327273</v>
       </c>
       <c r="G96" t="n">
-        <v>-28862445.06332619</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>2680295.0504</v>
       </c>
       <c r="G97" t="n">
-        <v>-26182150.01292619</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>2489323.57673945</v>
       </c>
       <c r="G98" t="n">
-        <v>-23692826.43618674</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>342160.7203</v>
       </c>
       <c r="G99" t="n">
-        <v>-23350665.71588674</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>1339177.179960551</v>
       </c>
       <c r="G100" t="n">
-        <v>-24689842.89584729</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>501705.3977818182</v>
       </c>
       <c r="G101" t="n">
-        <v>-24188137.49806547</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>1121074.379718182</v>
       </c>
       <c r="G102" t="n">
-        <v>-23067063.11834729</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>722609.2377818181</v>
       </c>
       <c r="G103" t="n">
-        <v>-23789672.35612911</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>137798.9438</v>
       </c>
       <c r="G104" t="n">
-        <v>-23789672.35612911</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>1754030.1733</v>
       </c>
       <c r="G105" t="n">
-        <v>-25543702.52942911</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>8613065.7612</v>
       </c>
       <c r="G106" t="n">
-        <v>-34156768.2906291</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>5700266.4594</v>
       </c>
       <c r="G107" t="n">
-        <v>-28456501.83122911</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>8402080.042165048</v>
       </c>
       <c r="G108" t="n">
-        <v>-36858581.87339415</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>4133550.5417</v>
       </c>
       <c r="G109" t="n">
-        <v>-40992132.41509415</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>2459229.2119</v>
       </c>
       <c r="G110" t="n">
-        <v>-38532903.20319415</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>5228347.2596</v>
       </c>
       <c r="G111" t="n">
-        <v>-33304555.94359415</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>2063785.2134</v>
       </c>
       <c r="G112" t="n">
-        <v>-35368341.15699415</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>4016114.0676</v>
       </c>
       <c r="G113" t="n">
-        <v>-39384455.22459415</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>1516284.5484</v>
       </c>
       <c r="G114" t="n">
-        <v>-37868170.67619415</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>4446805.1021</v>
       </c>
       <c r="G115" t="n">
-        <v>-33421365.57409415</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>2208706.0524</v>
       </c>
       <c r="G116" t="n">
-        <v>-33421365.57409415</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>2265073.469663968</v>
       </c>
       <c r="G117" t="n">
-        <v>-35686439.04375812</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>2103354.486820778</v>
       </c>
       <c r="G118" t="n">
-        <v>-37789793.5305789</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>1785391.0187</v>
       </c>
       <c r="G119" t="n">
-        <v>-39575184.5492789</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>2828784.2478</v>
       </c>
       <c r="G120" t="n">
-        <v>-36746400.3014789</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>1360821.6287</v>
       </c>
       <c r="G121" t="n">
-        <v>-35385578.6727789</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>5085176.9231</v>
       </c>
       <c r="G122" t="n">
-        <v>-30300401.74967889</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>2257843.3283</v>
       </c>
       <c r="G123" t="n">
-        <v>-28042558.4213789</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>4455805.533564356</v>
       </c>
       <c r="G124" t="n">
-        <v>-32498363.95494325</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>405345.5291</v>
       </c>
       <c r="G125" t="n">
-        <v>-32093018.42584325</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>1815000.3718</v>
       </c>
       <c r="G126" t="n">
-        <v>-33908018.79764325</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>902713.1435</v>
       </c>
       <c r="G127" t="n">
-        <v>-33005305.65414325</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>1724698.8504</v>
       </c>
       <c r="G128" t="n">
-        <v>-31280606.80374325</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>2169496.5292</v>
       </c>
       <c r="G129" t="n">
-        <v>-33450103.33294325</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>1097853.6251</v>
       </c>
       <c r="G130" t="n">
-        <v>-34547956.95804325</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>1228316.6457</v>
       </c>
       <c r="G131" t="n">
-        <v>-33319640.31234325</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>915894.1813000001</v>
       </c>
       <c r="G132" t="n">
-        <v>-32403746.13104325</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>1534686.8781</v>
       </c>
       <c r="G133" t="n">
-        <v>-30869059.25294325</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>512770.6067</v>
       </c>
       <c r="G134" t="n">
-        <v>-30869059.25294325</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>130855.5394313726</v>
       </c>
       <c r="G135" t="n">
-        <v>-30738203.71351188</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>1035707.684630166</v>
       </c>
       <c r="G136" t="n">
-        <v>-29702496.02888171</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>2752415.7345</v>
       </c>
       <c r="G137" t="n">
-        <v>-32454911.76338171</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>1413031.6586</v>
       </c>
       <c r="G138" t="n">
-        <v>-33867943.42198171</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>1170482.9236</v>
       </c>
       <c r="G139" t="n">
-        <v>-35038426.34558171</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>335972.8460529708</v>
       </c>
       <c r="G140" t="n">
-        <v>-35374399.19163468</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>2324715.0985</v>
       </c>
       <c r="G141" t="n">
-        <v>-37699114.29013468</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>279659.8361</v>
       </c>
       <c r="G142" t="n">
-        <v>-37419454.45403469</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>150935.8067</v>
       </c>
       <c r="G143" t="n">
-        <v>-37268518.64733469</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>212156.3323677811</v>
       </c>
       <c r="G144" t="n">
-        <v>-37480674.97970247</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>404305.1614</v>
       </c>
       <c r="G145" t="n">
-        <v>-37076369.81830247</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>758739.8808</v>
       </c>
       <c r="G146" t="n">
-        <v>-37835109.69910247</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>168976.4122</v>
       </c>
       <c r="G147" t="n">
-        <v>-37666133.28690247</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>371869.3897</v>
       </c>
       <c r="G148" t="n">
-        <v>-38038002.67660248</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>82829.70318130081</v>
       </c>
       <c r="G149" t="n">
-        <v>-37955172.97342117</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>1225284.0495</v>
       </c>
       <c r="G150" t="n">
-        <v>-36729888.92392117</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>2729353.367933166</v>
       </c>
       <c r="G151" t="n">
-        <v>-34000535.555988</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>15248201.4463</v>
       </c>
       <c r="G152" t="n">
-        <v>-49248737.002288</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>56177306.6863</v>
       </c>
       <c r="G153" t="n">
-        <v>-49248737.002288</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>94032356.28955285</v>
       </c>
       <c r="G154" t="n">
-        <v>-143281093.2918409</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>82598427.7369</v>
       </c>
       <c r="G155" t="n">
-        <v>-225879521.0287409</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>84878950.473</v>
       </c>
       <c r="G156" t="n">
-        <v>-310758471.5017409</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>120564999.3868</v>
       </c>
       <c r="G157" t="n">
-        <v>-431323470.8885409</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>55048673.39735773</v>
       </c>
       <c r="G158" t="n">
-        <v>-486372144.2858986</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>2398499.7259</v>
       </c>
       <c r="G159" t="n">
-        <v>-488770644.0117986</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>3143565.38</v>
       </c>
       <c r="G160" t="n">
-        <v>-485627078.6317986</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>3338810.645</v>
       </c>
       <c r="G161" t="n">
-        <v>-488965889.2767985</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>2265182.9607</v>
       </c>
       <c r="G162" t="n">
-        <v>-486700706.3160986</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>940091.0578</v>
       </c>
       <c r="G163" t="n">
-        <v>-487640797.3738986</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>999970.6159</v>
       </c>
       <c r="G164" t="n">
-        <v>-486640826.7579986</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>1669706.991561464</v>
       </c>
       <c r="G165" t="n">
-        <v>-488310533.7495601</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>2883308.0678</v>
       </c>
       <c r="G166" t="n">
-        <v>-488310533.7495601</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>4524792.359766667</v>
       </c>
       <c r="G167" t="n">
-        <v>-492835326.1093267</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>1624426.4203</v>
       </c>
       <c r="G168" t="n">
-        <v>-494459752.5296267</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>4426088.9271</v>
       </c>
       <c r="G169" t="n">
-        <v>-498885841.4567267</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>1570728.8306</v>
       </c>
       <c r="G170" t="n">
-        <v>-500456570.2873268</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>2352194.6862</v>
       </c>
       <c r="G171" t="n">
-        <v>-498104375.6011267</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>979716.6282</v>
       </c>
       <c r="G172" t="n">
-        <v>-499084092.2293267</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>1062756.5178</v>
       </c>
       <c r="G173" t="n">
-        <v>-500146848.7471267</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>1672683.2135</v>
       </c>
       <c r="G174" t="n">
-        <v>-498474165.5336267</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>795956.9815</v>
       </c>
       <c r="G175" t="n">
-        <v>-497678208.5521266</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>943086.0889</v>
       </c>
       <c r="G176" t="n">
-        <v>-496735122.4632266</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>1911990.770546871</v>
       </c>
       <c r="G177" t="n">
-        <v>-494823131.6926798</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>1142806.411553128</v>
       </c>
       <c r="G178" t="n">
-        <v>-494823131.6926798</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>1746646.1814</v>
       </c>
       <c r="G179" t="n">
-        <v>-496569777.8740798</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>1827706.1624</v>
       </c>
       <c r="G180" t="n">
-        <v>-498397484.0364798</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>1174906.683</v>
       </c>
       <c r="G181" t="n">
-        <v>-499572390.7194798</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>19030870.92628571</v>
       </c>
       <c r="G182" t="n">
-        <v>-480541519.7931941</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>43524186.718</v>
       </c>
       <c r="G183" t="n">
-        <v>-524065706.5111941</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>153889251.3019</v>
       </c>
       <c r="G184" t="n">
-        <v>-370176455.2092941</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>109986897.5702</v>
       </c>
       <c r="G185" t="n">
-        <v>-480163352.779494</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>77373074.19329999</v>
       </c>
       <c r="G186" t="n">
-        <v>-557536426.9727941</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>116617880.5436</v>
       </c>
       <c r="G187" t="n">
-        <v>-674154307.516394</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>148801650</v>
       </c>
       <c r="G188" t="n">
-        <v>-822955957.516394</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,21 @@
         <v>30141424.6055</v>
       </c>
       <c r="G189" t="n">
-        <v>-792814532.910894</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>8.85</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6089,21 @@
         <v>124720756.0081</v>
       </c>
       <c r="G190" t="n">
-        <v>-917535288.9189941</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6125,21 @@
         <v>146706111.4443327</v>
       </c>
       <c r="G191" t="n">
-        <v>-770829177.4746614</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>8.85</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6161,21 @@
         <v>52417926.0242</v>
       </c>
       <c r="G192" t="n">
-        <v>-718411251.4504614</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6197,21 @@
         <v>18551927.3088</v>
       </c>
       <c r="G193" t="n">
-        <v>-736963178.7592614</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6233,21 @@
         <v>1140163.2834</v>
       </c>
       <c r="G194" t="n">
-        <v>-735823015.4758613</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6269,21 @@
         <v>16758508.611</v>
       </c>
       <c r="G195" t="n">
-        <v>-719064506.8648614</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>8.93</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6305,21 @@
         <v>46452635.868</v>
       </c>
       <c r="G196" t="n">
-        <v>-672611870.9968613</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>8.94</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,24 +6341,21 @@
         <v>1388788.3778</v>
       </c>
       <c r="G197" t="n">
-        <v>-671223082.6190614</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6922,24 +6377,21 @@
         <v>4284803.0762</v>
       </c>
       <c r="G198" t="n">
-        <v>-666938279.5428613</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
         <v>8.99</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6961,24 +6413,21 @@
         <v>6633341.665005112</v>
       </c>
       <c r="G199" t="n">
-        <v>-660304937.8778563</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
         <v>9.029999999999999</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7000,24 +6449,21 @@
         <v>2413117.4231</v>
       </c>
       <c r="G200" t="n">
-        <v>-662718055.3009562</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
         <v>9.390000000000001</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7039,24 +6485,21 @@
         <v>3569162.0238</v>
       </c>
       <c r="G201" t="n">
-        <v>-666287217.3247563</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
         <v>9.289999999999999</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
